--- a/ifrs-sme-model_with_hyperlink.xlsx
+++ b/ifrs-sme-model_with_hyperlink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3F481E-86BA-4818-9EA2-140E969930A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB4E56-4E2D-419C-B85C-9BF726727A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="795" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2446,7 +2446,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2812,6 +2812,51 @@
     <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2821,49 +2866,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2884,15 +2929,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2917,40 +2953,40 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2959,41 +2995,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3007,29 +3031,44 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3037,44 +3076,62 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3085,61 +3142,19 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3148,12 +3163,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3166,18 +3175,63 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3187,51 +3241,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3241,15 +3250,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -6210,41 +6211,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="272"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
@@ -6254,37 +6255,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="262"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
@@ -6294,90 +6295,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="275"/>
+      <c r="J5" s="275"/>
+      <c r="K5" s="275"/>
+      <c r="L5" s="275"/>
+      <c r="M5" s="275"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="223"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="238"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="346" t="s">
+      <c r="B7" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347"/>
-      <c r="H7" s="347"/>
-      <c r="I7" s="347"/>
-      <c r="J7" s="347"/>
-      <c r="K7" s="347"/>
-      <c r="L7" s="347"/>
-      <c r="M7" s="348"/>
+      <c r="C7" s="349"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="349"/>
+      <c r="J7" s="349"/>
+      <c r="K7" s="349"/>
+      <c r="L7" s="349"/>
+      <c r="M7" s="350"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="343" t="s">
+      <c r="B8" s="361" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="345"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="363"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="263" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="252"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
+      <c r="I11" s="360"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="360"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="264"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
@@ -6392,17 +6393,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="351" t="s">
+      <c r="E12" s="353" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="352"/>
-      <c r="J12" s="352"/>
-      <c r="K12" s="352"/>
-      <c r="L12" s="352"/>
-      <c r="M12" s="361"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="354"/>
+      <c r="K12" s="354"/>
+      <c r="L12" s="354"/>
+      <c r="M12" s="364"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
@@ -6411,10 +6412,10 @@
       <c r="B13" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="362" t="s">
+      <c r="C13" s="365" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="363"/>
+      <c r="D13" s="366"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -6837,41 +6838,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="272"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
@@ -6881,37 +6882,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="262"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
@@ -6921,90 +6922,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="275"/>
+      <c r="J5" s="275"/>
+      <c r="K5" s="275"/>
+      <c r="L5" s="275"/>
+      <c r="M5" s="275"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="223"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="238"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="346" t="s">
+      <c r="B7" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347"/>
-      <c r="H7" s="347"/>
-      <c r="I7" s="347"/>
-      <c r="J7" s="347"/>
-      <c r="K7" s="347"/>
-      <c r="L7" s="347"/>
-      <c r="M7" s="348"/>
+      <c r="C7" s="349"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="349"/>
+      <c r="J7" s="349"/>
+      <c r="K7" s="349"/>
+      <c r="L7" s="349"/>
+      <c r="M7" s="350"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="343" t="s">
+      <c r="B8" s="361" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="345"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="363"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="263" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="252"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
+      <c r="I11" s="360"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="360"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="264"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="107" t="s">
@@ -7019,17 +7020,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="351" t="s">
+      <c r="E12" s="353" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="352"/>
-      <c r="J12" s="352"/>
-      <c r="K12" s="352"/>
-      <c r="L12" s="352"/>
-      <c r="M12" s="361"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="354"/>
+      <c r="K12" s="354"/>
+      <c r="L12" s="354"/>
+      <c r="M12" s="364"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="139" t="s">
@@ -7038,10 +7039,10 @@
       <c r="B13" s="132" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="362" t="s">
+      <c r="C13" s="365" t="s">
         <v>555</v>
       </c>
-      <c r="D13" s="363"/>
+      <c r="D13" s="366"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -8002,15 +8003,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="236" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="238"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
@@ -8094,27 +8095,27 @@
       <c r="A8" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="227">
+      <c r="B8" s="230">
         <v>45292</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="229"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="232"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="227">
+      <c r="B9" s="230">
         <v>45657</v>
       </c>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="229"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="232"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="116" t="s">
@@ -8187,95 +8188,95 @@
       <c r="A17" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="236" t="s">
+      <c r="B17" s="233" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="237"/>
-      <c r="D17" s="237"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="237"/>
-      <c r="G17" s="238"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="235"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="104"/>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="221" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="231"/>
-      <c r="G18" s="232"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="223"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="104"/>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="221" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="232"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="223"/>
     </row>
     <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="105"/>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="227" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="235"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="229"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="230" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="228"/>
-      <c r="D21" s="228"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="229"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="232"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="103" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="236" t="s">
+      <c r="B22" s="233" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="237"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="237"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="238"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="235"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="104"/>
-      <c r="B23" s="230" t="s">
+      <c r="B23" s="221" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="232"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="223"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="104"/>
-      <c r="B24" s="230" t="s">
+      <c r="B24" s="221" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="231"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="232"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="223"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="104"/>
@@ -8345,6 +8346,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B4:G4"/>
@@ -8357,11 +8363,6 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -8379,7 +8380,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8397,118 +8398,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="238"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="239" t="str">
+      <c r="B2" s="254" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="241"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="256"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="239" t="str">
+      <c r="B3" s="254" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="241"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="262"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="248">
+      <c r="B5" s="260">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="250"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="262"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="223"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="238"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="255"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="267"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="257" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="244"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="259"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="251" t="s">
+      <c r="B10" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="252"/>
+      <c r="C10" s="264"/>
       <c r="D10" s="136" t="s">
         <v>73</v>
       </c>
@@ -8525,33 +8526,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="245" t="s">
+      <c r="B11" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="247"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="245"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="260" t="s">
+      <c r="B12" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="264"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="253"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="258" t="s">
+      <c r="B13" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="259"/>
+      <c r="C13" s="242"/>
       <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
@@ -8570,10 +8571,10 @@
       <c r="A14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="256" t="s">
+      <c r="B14" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="257"/>
+      <c r="C14" s="240"/>
       <c r="D14" s="7"/>
       <c r="E14" s="72"/>
       <c r="F14" s="77">
@@ -8585,10 +8586,10 @@
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="256" t="s">
+      <c r="B15" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="257"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="7"/>
       <c r="E15" s="72"/>
       <c r="F15" s="77"/>
@@ -8598,10 +8599,10 @@
       <c r="A16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="257"/>
+      <c r="C16" s="240"/>
       <c r="D16" s="7"/>
       <c r="E16" s="72">
         <v>20</v>
@@ -8615,10 +8616,10 @@
       <c r="A17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="257"/>
+      <c r="C17" s="240"/>
       <c r="D17" s="7"/>
       <c r="E17" s="72">
         <v>30</v>
@@ -8632,10 +8633,10 @@
       <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="257"/>
+      <c r="C18" s="240"/>
       <c r="D18" s="7"/>
       <c r="E18" s="72"/>
       <c r="F18" s="77"/>
@@ -8645,10 +8646,10 @@
       <c r="A19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="257"/>
+      <c r="C19" s="240"/>
       <c r="D19" s="7"/>
       <c r="E19" s="72"/>
       <c r="F19" s="77"/>
@@ -8658,10 +8659,10 @@
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="256" t="s">
+      <c r="B20" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="257"/>
+      <c r="C20" s="240"/>
       <c r="D20" s="7"/>
       <c r="E20" s="72"/>
       <c r="F20" s="77"/>
@@ -8671,10 +8672,10 @@
       <c r="A21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="256" t="s">
+      <c r="B21" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="257"/>
+      <c r="C21" s="240"/>
       <c r="D21" s="7"/>
       <c r="E21" s="72"/>
       <c r="F21" s="77"/>
@@ -8684,10 +8685,10 @@
       <c r="A22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="256" t="s">
+      <c r="B22" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="257"/>
+      <c r="C22" s="240"/>
       <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
@@ -8704,10 +8705,10 @@
       <c r="A23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="256" t="s">
+      <c r="B23" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="257"/>
+      <c r="C23" s="240"/>
       <c r="D23" s="7"/>
       <c r="E23" s="72"/>
       <c r="F23" s="77"/>
@@ -8717,10 +8718,10 @@
       <c r="A24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="256" t="s">
+      <c r="B24" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="257"/>
+      <c r="C24" s="240"/>
       <c r="D24" s="7"/>
       <c r="E24" s="72"/>
       <c r="F24" s="77"/>
@@ -8730,10 +8731,10 @@
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="256" t="s">
+      <c r="B25" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="257"/>
+      <c r="C25" s="240"/>
       <c r="D25" s="7"/>
       <c r="E25" s="72"/>
       <c r="F25" s="77"/>
@@ -8743,10 +8744,10 @@
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="256" t="s">
+      <c r="B26" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="257"/>
+      <c r="C26" s="240"/>
       <c r="D26" s="7"/>
       <c r="E26" s="72"/>
       <c r="F26" s="77"/>
@@ -8756,20 +8757,20 @@
       <c r="A27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="261" t="s">
+      <c r="B27" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="262"/>
+      <c r="C27" s="250"/>
       <c r="D27" s="8"/>
       <c r="E27" s="78"/>
       <c r="F27" s="77"/>
       <c r="G27" s="177"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="260" t="s">
+      <c r="B28" s="251" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="247"/>
+      <c r="C28" s="245"/>
       <c r="E28" s="191">
         <f>SUM(E13:E27)</f>
         <v>51</v>
@@ -8797,23 +8798,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="245" t="s">
+      <c r="B31" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="246"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="258" t="s">
+      <c r="B32" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="259"/>
+      <c r="C32" s="242"/>
       <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
@@ -8832,10 +8833,10 @@
       <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="256" t="s">
+      <c r="B33" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="257"/>
+      <c r="C33" s="240"/>
       <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
@@ -8852,10 +8853,10 @@
       <c r="A34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="256" t="s">
+      <c r="B34" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="257"/>
+      <c r="C34" s="240"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -8865,10 +8866,10 @@
       <c r="A35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="256" t="s">
+      <c r="B35" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="257"/>
+      <c r="C35" s="240"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -8878,10 +8879,10 @@
       <c r="A36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="257"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -8891,10 +8892,10 @@
       <c r="A37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="256" t="s">
+      <c r="B37" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="257"/>
+      <c r="C37" s="240"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -8904,10 +8905,10 @@
       <c r="A38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="256" t="s">
+      <c r="B38" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="257"/>
+      <c r="C38" s="240"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -8917,10 +8918,10 @@
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="256" t="s">
+      <c r="B39" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="257"/>
+      <c r="C39" s="240"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>10</v>
@@ -8934,20 +8935,20 @@
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="261" t="s">
+      <c r="B40" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="262"/>
+      <c r="C40" s="250"/>
       <c r="D40" s="8"/>
       <c r="E40" s="78"/>
       <c r="F40" s="78"/>
       <c r="G40" s="177"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="245" t="s">
+      <c r="B41" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="247"/>
+      <c r="C41" s="245"/>
       <c r="E41" s="192">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -8958,10 +8959,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="247"/>
+      <c r="C42" s="245"/>
       <c r="E42" s="192">
         <f>SUM(E28,E41)</f>
         <v>91</v>
@@ -8992,33 +8993,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="245" t="s">
+      <c r="B45" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="246"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="247"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="244"/>
+      <c r="F45" s="244"/>
+      <c r="G45" s="245"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="245" t="s">
+      <c r="B46" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="246"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="247"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="245"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="258" t="s">
+      <c r="B47" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="259"/>
+      <c r="C47" s="242"/>
       <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
@@ -9035,10 +9036,10 @@
       <c r="A48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="256" t="s">
+      <c r="B48" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="257"/>
+      <c r="C48" s="240"/>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
@@ -9055,10 +9056,10 @@
       <c r="A49" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="256" t="s">
+      <c r="B49" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="257"/>
+      <c r="C49" s="240"/>
       <c r="D49" s="7" t="s">
         <v>129</v>
       </c>
@@ -9075,10 +9076,10 @@
       <c r="A50" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="256" t="s">
+      <c r="B50" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="257"/>
+      <c r="C50" s="240"/>
       <c r="D50" s="7"/>
       <c r="E50" s="72"/>
       <c r="F50" s="77"/>
@@ -9088,10 +9089,10 @@
       <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="256" t="s">
+      <c r="B51" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="257"/>
+      <c r="C51" s="240"/>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
@@ -9108,10 +9109,10 @@
       <c r="A52" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="256" t="s">
+      <c r="B52" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="257"/>
+      <c r="C52" s="240"/>
       <c r="D52" s="8" t="s">
         <v>131</v>
       </c>
@@ -9128,10 +9129,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="245" t="s">
+      <c r="B53" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="247"/>
+      <c r="C53" s="245"/>
       <c r="D53" s="79"/>
       <c r="E53" s="193">
         <f>SUM(E47:E52)</f>
@@ -9146,19 +9147,19 @@
       <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="261" t="s">
+      <c r="B54" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="262"/>
+      <c r="C54" s="250"/>
       <c r="D54" s="80"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+      <c r="F54" s="367"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="245" t="s">
+      <c r="B55" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="247"/>
+      <c r="C55" s="245"/>
       <c r="E55" s="191">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -9186,33 +9187,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="245" t="s">
+      <c r="B58" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="246"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="247"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="244"/>
+      <c r="E58" s="244"/>
+      <c r="F58" s="244"/>
+      <c r="G58" s="245"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="260" t="s">
+      <c r="B59" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="263"/>
-      <c r="D59" s="263"/>
-      <c r="E59" s="263"/>
-      <c r="F59" s="263"/>
-      <c r="G59" s="263"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="252"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="252"/>
+      <c r="G59" s="252"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="258" t="s">
+      <c r="B60" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="259"/>
+      <c r="C60" s="242"/>
       <c r="D60" s="6"/>
       <c r="E60" s="75"/>
       <c r="F60" s="76"/>
@@ -9222,10 +9223,10 @@
       <c r="A61" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="256" t="s">
+      <c r="B61" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="257"/>
+      <c r="C61" s="240"/>
       <c r="D61" s="7" t="s">
         <v>311</v>
       </c>
@@ -9244,10 +9245,10 @@
       <c r="A62" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="261" t="s">
+      <c r="B62" s="249" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="262"/>
+      <c r="C62" s="250"/>
       <c r="D62" s="8"/>
       <c r="E62" s="78">
         <v>2</v>
@@ -9276,10 +9277,10 @@
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="258" t="s">
+      <c r="B64" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="259"/>
+      <c r="C64" s="242"/>
       <c r="D64" s="6" t="s">
         <v>312</v>
       </c>
@@ -9296,10 +9297,10 @@
       <c r="A65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="256" t="s">
+      <c r="B65" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="257"/>
+      <c r="C65" s="240"/>
       <c r="D65" s="7"/>
       <c r="E65" s="72">
         <v>4</v>
@@ -9313,10 +9314,10 @@
       <c r="A66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="256" t="s">
+      <c r="B66" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="257"/>
+      <c r="C66" s="240"/>
       <c r="D66" s="7"/>
       <c r="E66" s="72"/>
       <c r="F66" s="77"/>
@@ -9326,10 +9327,10 @@
       <c r="A67" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="256" t="s">
+      <c r="B67" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="257"/>
+      <c r="C67" s="240"/>
       <c r="D67" s="7"/>
       <c r="E67" s="72"/>
       <c r="F67" s="77"/>
@@ -9339,10 +9340,10 @@
       <c r="A68" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="256" t="s">
+      <c r="B68" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="257"/>
+      <c r="C68" s="240"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72"/>
       <c r="F68" s="77"/>
@@ -9352,20 +9353,20 @@
       <c r="A69" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="261" t="s">
+      <c r="B69" s="249" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="262"/>
+      <c r="C69" s="250"/>
       <c r="D69" s="8"/>
       <c r="E69" s="78"/>
       <c r="F69" s="81"/>
       <c r="G69" s="177"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="245" t="s">
+      <c r="B70" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="247"/>
+      <c r="C70" s="245"/>
       <c r="E70" s="191">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -9394,23 +9395,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="245" t="s">
+      <c r="B73" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="246"/>
-      <c r="D73" s="246"/>
-      <c r="E73" s="246"/>
-      <c r="F73" s="246"/>
-      <c r="G73" s="246"/>
+      <c r="C73" s="244"/>
+      <c r="D73" s="244"/>
+      <c r="E73" s="244"/>
+      <c r="F73" s="244"/>
+      <c r="G73" s="244"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="258" t="s">
+      <c r="B74" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="259"/>
+      <c r="C74" s="242"/>
       <c r="D74" s="6"/>
       <c r="E74" s="75"/>
       <c r="F74" s="77"/>
@@ -9420,10 +9421,10 @@
       <c r="A75" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="256" t="s">
+      <c r="B75" s="239" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="257"/>
+      <c r="C75" s="240"/>
       <c r="D75" s="7" t="s">
         <v>311</v>
       </c>
@@ -9442,20 +9443,20 @@
       <c r="A76" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="261" t="s">
+      <c r="B76" s="249" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="262"/>
+      <c r="C76" s="250"/>
       <c r="D76" s="8"/>
       <c r="E76" s="78"/>
       <c r="F76" s="77"/>
       <c r="G76" s="177"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="245" t="s">
+      <c r="B77" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="247"/>
+      <c r="C77" s="245"/>
       <c r="D77" s="82"/>
       <c r="E77" s="195">
         <f>SUM(E74:E76)</f>
@@ -9470,10 +9471,10 @@
       <c r="A78" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="258" t="s">
+      <c r="B78" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="259"/>
+      <c r="C78" s="242"/>
       <c r="D78" s="6" t="s">
         <v>312</v>
       </c>
@@ -9492,10 +9493,10 @@
       <c r="A79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="256" t="s">
+      <c r="B79" s="239" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="257"/>
+      <c r="C79" s="240"/>
       <c r="D79" s="7"/>
       <c r="E79" s="72"/>
       <c r="F79" s="77"/>
@@ -9505,10 +9506,10 @@
       <c r="A80" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="256" t="s">
+      <c r="B80" s="239" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="257"/>
+      <c r="C80" s="240"/>
       <c r="D80" s="7"/>
       <c r="E80" s="72"/>
       <c r="F80" s="77"/>
@@ -9518,10 +9519,10 @@
       <c r="A81" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="256" t="s">
+      <c r="B81" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="257"/>
+      <c r="C81" s="240"/>
       <c r="D81" s="7"/>
       <c r="E81" s="72">
         <v>2</v>
@@ -9535,10 +9536,10 @@
       <c r="A82" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="256" t="s">
+      <c r="B82" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="257"/>
+      <c r="C82" s="240"/>
       <c r="D82" s="7"/>
       <c r="E82" s="72">
         <v>2</v>
@@ -9552,21 +9553,21 @@
       <c r="A83" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="261" t="s">
+      <c r="B83" s="249" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="262"/>
+      <c r="C83" s="250"/>
       <c r="D83" s="8"/>
       <c r="E83" s="78"/>
       <c r="F83" s="81"/>
       <c r="G83" s="177"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="245" t="s">
+      <c r="B84" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="246"/>
-      <c r="D84" s="247"/>
+      <c r="C84" s="244"/>
+      <c r="D84" s="245"/>
       <c r="E84" s="191">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -9580,11 +9581,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="245" t="s">
+      <c r="B86" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="246"/>
-      <c r="D86" s="247"/>
+      <c r="C86" s="244"/>
+      <c r="D86" s="245"/>
       <c r="E86" s="191">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -9596,11 +9597,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="245" t="s">
+      <c r="B88" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="246"/>
-      <c r="D88" s="247"/>
+      <c r="C88" s="244"/>
+      <c r="D88" s="245"/>
       <c r="E88" s="191">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -9618,12 +9619,12 @@
       <c r="A91" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="265" t="str">
+      <c r="B91" s="246" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="266"/>
-      <c r="D91" s="267"/>
+      <c r="C91" s="247"/>
+      <c r="D91" s="248"/>
       <c r="E91" s="74">
         <f>E88-E42</f>
         <v>-51</v>
@@ -9642,11 +9643,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B84:D84"/>
@@ -9663,62 +9715,11 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -9788,14 +9789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="268" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="269"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
@@ -9804,63 +9805,63 @@
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="272"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="239" t="str">
+      <c r="B3" s="254" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="241"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="275">
+      <c r="B5" s="273">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="276"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="277"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="275"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="279" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="271"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="269"/>
       <c r="G6" s="96"/>
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
@@ -9869,35 +9870,35 @@
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="278" t="s">
+      <c r="B7" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="280"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="278"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="257" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="259"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="252"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="136" t="s">
         <v>73</v>
       </c>
@@ -9914,23 +9915,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
       <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="258" t="s">
+      <c r="B14" s="241" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="259"/>
+      <c r="C14" s="242"/>
       <c r="D14" s="112" t="s">
         <v>566</v>
       </c>
@@ -9949,10 +9950,10 @@
       <c r="A15" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="256" t="s">
+      <c r="B15" s="239" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="257"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="112"/>
       <c r="E15" s="72">
         <v>2</v>
@@ -9966,10 +9967,10 @@
       <c r="A16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="239" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="257"/>
+      <c r="C16" s="240"/>
       <c r="D16" s="112"/>
       <c r="E16" s="72">
         <v>3</v>
@@ -9983,10 +9984,10 @@
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="239" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="257"/>
+      <c r="C17" s="240"/>
       <c r="D17" s="112"/>
       <c r="E17" s="72">
         <v>2</v>
@@ -10000,10 +10001,10 @@
       <c r="A18" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="239" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="257"/>
+      <c r="C18" s="240"/>
       <c r="D18" s="112"/>
       <c r="E18" s="72">
         <v>-6</v>
@@ -10017,10 +10018,10 @@
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="239" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="257"/>
+      <c r="C19" s="240"/>
       <c r="D19" s="112">
         <v>28.4</v>
       </c>
@@ -10039,10 +10040,10 @@
       <c r="A20" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="256" t="s">
+      <c r="B20" s="239" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="257"/>
+      <c r="C20" s="240"/>
       <c r="D20" s="112"/>
       <c r="E20" s="72">
         <v>-6</v>
@@ -10056,10 +10057,10 @@
       <c r="A21" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="256" t="s">
+      <c r="B21" s="239" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="257"/>
+      <c r="C21" s="240"/>
       <c r="D21" s="112"/>
       <c r="E21" s="72">
         <v>-6</v>
@@ -10073,10 +10074,10 @@
       <c r="A22" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="256" t="s">
+      <c r="B22" s="239" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="257"/>
+      <c r="C22" s="240"/>
       <c r="D22" s="112"/>
       <c r="E22" s="72">
         <v>-4</v>
@@ -10090,10 +10091,10 @@
       <c r="A23" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="261" t="s">
+      <c r="B23" s="249" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="262"/>
+      <c r="C23" s="250"/>
       <c r="D23" s="112"/>
       <c r="E23" s="72">
         <v>-6</v>
@@ -10105,10 +10106,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="109"/>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="244" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="247"/>
+      <c r="C24" s="245"/>
       <c r="D24" s="111"/>
       <c r="E24" s="195">
         <f>SUM(E14:E23)</f>
@@ -10124,10 +10125,10 @@
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="258" t="s">
+      <c r="B25" s="241" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="259"/>
+      <c r="C25" s="242"/>
       <c r="D25" s="112"/>
       <c r="E25" s="72">
         <v>6</v>
@@ -10141,10 +10142,10 @@
       <c r="A26" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="256" t="s">
+      <c r="B26" s="239" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="257"/>
+      <c r="C26" s="240"/>
       <c r="D26" s="112"/>
       <c r="E26" s="72">
         <v>-3</v>
@@ -10158,10 +10159,10 @@
       <c r="A27" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="261" t="s">
+      <c r="B27" s="249" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="262"/>
+      <c r="C27" s="250"/>
       <c r="D27" s="112"/>
       <c r="E27" s="72">
         <v>6</v>
@@ -10173,10 +10174,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="109"/>
-      <c r="B28" s="246" t="s">
+      <c r="B28" s="244" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="247"/>
+      <c r="C28" s="245"/>
       <c r="D28" s="111"/>
       <c r="E28" s="195">
         <f>SUM(E24:E27)</f>
@@ -10192,10 +10193,10 @@
       <c r="A29" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="268" t="s">
+      <c r="B29" s="280" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="269"/>
+      <c r="C29" s="281"/>
       <c r="D29" s="112"/>
       <c r="E29" s="73">
         <v>1</v>
@@ -10207,10 +10208,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="109"/>
-      <c r="B30" s="246" t="s">
+      <c r="B30" s="244" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="247"/>
+      <c r="C30" s="245"/>
       <c r="D30" s="111"/>
       <c r="E30" s="195">
         <f>SUM(E28:E29)</f>
@@ -10227,17 +10228,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -10254,6 +10244,17 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -10286,12 +10287,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="268" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
       <c r="F1" s="96"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -10300,79 +10301,79 @@
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="239" t="str">
+      <c r="B3" s="254" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="256"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="262"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="275">
+      <c r="B5" s="273">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="276"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="277"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="275"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="290" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="269"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="278" t="s">
+      <c r="B7" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="280"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="278"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="257" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="244"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="259"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10380,10 +10381,10 @@
       <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="263" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="252"/>
+      <c r="C11" s="264"/>
       <c r="D11" s="11">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
@@ -10397,31 +10398,31 @@
       <c r="A12" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="292" t="s">
+      <c r="B12" s="286" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="293"/>
+      <c r="C12" s="287"/>
       <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="E12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="285"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="293"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="288" t="s">
+      <c r="B14" s="284" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="289"/>
+      <c r="C14" s="285"/>
       <c r="D14" s="93"/>
       <c r="E14" s="72">
         <v>1</v>
@@ -10431,21 +10432,21 @@
       <c r="A15" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="282" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="291"/>
+      <c r="C15" s="283"/>
       <c r="D15" s="93"/>
       <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="283" t="s">
+      <c r="B16" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="293"/>
       <c r="E16" s="196">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -10455,10 +10456,10 @@
       <c r="A17" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="288" t="s">
+      <c r="B17" s="284" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="289"/>
+      <c r="C17" s="285"/>
       <c r="D17" s="94"/>
       <c r="E17" s="72">
         <v>1</v>
@@ -10468,10 +10469,10 @@
       <c r="A18" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="286" t="s">
+      <c r="B18" s="288" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="287"/>
+      <c r="C18" s="289"/>
       <c r="D18" s="94"/>
       <c r="E18" s="72">
         <v>-1</v>
@@ -10481,10 +10482,10 @@
       <c r="A19" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="286" t="s">
+      <c r="B19" s="288" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="287"/>
+      <c r="C19" s="289"/>
       <c r="D19" s="94"/>
       <c r="E19" s="72">
         <v>1</v>
@@ -10494,10 +10495,10 @@
       <c r="A20" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="286" t="s">
+      <c r="B20" s="288" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="287"/>
+      <c r="C20" s="289"/>
       <c r="D20" s="94"/>
       <c r="E20" s="72">
         <v>-1</v>
@@ -10507,10 +10508,10 @@
       <c r="A21" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="286" t="s">
+      <c r="B21" s="288" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="287"/>
+      <c r="C21" s="289"/>
       <c r="D21" s="94"/>
       <c r="E21" s="72">
         <v>1</v>
@@ -10520,10 +10521,10 @@
       <c r="A22" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="286" t="s">
+      <c r="B22" s="288" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="287"/>
+      <c r="C22" s="289"/>
       <c r="D22" s="94"/>
       <c r="E22" s="72">
         <v>1</v>
@@ -10533,10 +10534,10 @@
       <c r="A23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="286" t="s">
+      <c r="B23" s="288" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="287"/>
+      <c r="C23" s="289"/>
       <c r="D23" s="94"/>
       <c r="E23" s="72">
         <v>-1</v>
@@ -10546,10 +10547,10 @@
       <c r="A24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="282" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="291"/>
+      <c r="C24" s="283"/>
       <c r="D24" s="94"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -10557,11 +10558,11 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="283" t="s">
+      <c r="B25" s="291" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="196">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -10572,10 +10573,10 @@
       <c r="A26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="292" t="s">
+      <c r="B26" s="286" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="293"/>
+      <c r="C26" s="287"/>
       <c r="D26" s="95"/>
       <c r="E26" s="191">
         <f>SUM(D12,E16,E25)</f>
@@ -10584,14 +10585,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B6:E6"/>
@@ -10608,6 +10601,14 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C1006350-697E-4D07-926A-51DA25DB4809}"/>
@@ -10641,146 +10642,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="301" t="s">
+      <c r="B1" s="305" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="302"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="306"/>
       <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="239" t="str">
+      <c r="B3" s="254" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="256"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="262"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="275">
+      <c r="B5" s="273">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="276"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="277"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="275"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="290" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="269"/>
       <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="278" t="s">
+      <c r="B7" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="280"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="278"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="257" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="244"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="259"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="299" t="s">
+      <c r="A10" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="304"/>
-      <c r="D10" s="294" t="s">
+      <c r="C10" s="298"/>
+      <c r="D10" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="299">
+      <c r="E10" s="295">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="300"/>
-      <c r="B11" s="305"/>
-      <c r="C11" s="306"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="300"/>
+      <c r="A11" s="296"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="296"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="301" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="297"/>
-      <c r="D12" s="298"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="304"/>
       <c r="E12" s="145">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="296" t="s">
+      <c r="B13" s="301" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="297"/>
-      <c r="D13" s="297"/>
-      <c r="E13" s="298"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="304"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="258" t="s">
+      <c r="B14" s="241" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="259"/>
+      <c r="C14" s="242"/>
       <c r="D14" s="112"/>
       <c r="E14" s="75">
         <v>1</v>
@@ -10790,10 +10791,10 @@
       <c r="A15" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="256" t="s">
+      <c r="B15" s="239" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="257"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="112"/>
       <c r="E15" s="72">
         <v>-1</v>
@@ -10803,10 +10804,10 @@
       <c r="A16" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="239" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="257"/>
+      <c r="C16" s="240"/>
       <c r="D16" s="112"/>
       <c r="E16" s="72">
         <v>-1</v>
@@ -10816,10 +10817,10 @@
       <c r="A17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="239" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="257"/>
+      <c r="C17" s="240"/>
       <c r="D17" s="112"/>
       <c r="E17" s="72">
         <v>-1</v>
@@ -10829,10 +10830,10 @@
       <c r="A18" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="239" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="257"/>
+      <c r="C18" s="240"/>
       <c r="D18" s="112"/>
       <c r="E18" s="72">
         <v>2</v>
@@ -10842,10 +10843,10 @@
       <c r="A19" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="257"/>
+      <c r="C19" s="240"/>
       <c r="D19" s="112"/>
       <c r="E19" s="72">
         <v>2</v>
@@ -10855,10 +10856,10 @@
       <c r="A20" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="256" t="s">
+      <c r="B20" s="239" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="257"/>
+      <c r="C20" s="240"/>
       <c r="D20" s="112"/>
       <c r="E20" s="72">
         <v>3</v>
@@ -10869,10 +10870,10 @@
       <c r="A21" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="256" t="s">
+      <c r="B21" s="239" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="257"/>
+      <c r="C21" s="240"/>
       <c r="D21" s="112"/>
       <c r="E21" s="72">
         <v>3</v>
@@ -10883,10 +10884,10 @@
       <c r="A22" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="256" t="s">
+      <c r="B22" s="239" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="257"/>
+      <c r="C22" s="240"/>
       <c r="D22" s="112"/>
       <c r="E22" s="72">
         <v>4</v>
@@ -10897,10 +10898,10 @@
       <c r="A23" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="256" t="s">
+      <c r="B23" s="239" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="257"/>
+      <c r="C23" s="240"/>
       <c r="D23" s="112"/>
       <c r="E23" s="72">
         <v>1</v>
@@ -10911,10 +10912,10 @@
       <c r="A24" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="256" t="s">
+      <c r="B24" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="257"/>
+      <c r="C24" s="240"/>
       <c r="D24" s="112"/>
       <c r="E24" s="72">
         <v>5</v>
@@ -10925,10 +10926,10 @@
       <c r="A25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="256" t="s">
+      <c r="B25" s="239" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="257"/>
+      <c r="C25" s="240"/>
       <c r="D25" s="112"/>
       <c r="E25" s="72">
         <v>-3</v>
@@ -10939,10 +10940,10 @@
       <c r="A26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="256" t="s">
+      <c r="B26" s="239" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="257"/>
+      <c r="C26" s="240"/>
       <c r="D26" s="112"/>
       <c r="E26" s="72">
         <v>4</v>
@@ -10953,10 +10954,10 @@
       <c r="A27" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="256" t="s">
+      <c r="B27" s="239" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="257"/>
+      <c r="C27" s="240"/>
       <c r="D27" s="112"/>
       <c r="E27" s="72">
         <v>-5</v>
@@ -10967,10 +10968,10 @@
       <c r="A28" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="256" t="s">
+      <c r="B28" s="239" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="257"/>
+      <c r="C28" s="240"/>
       <c r="D28" s="112"/>
       <c r="E28" s="72">
         <v>-2</v>
@@ -10980,10 +10981,10 @@
       <c r="A29" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="256" t="s">
+      <c r="B29" s="239" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="257"/>
+      <c r="C29" s="240"/>
       <c r="D29" s="112"/>
       <c r="E29" s="72"/>
     </row>
@@ -10991,10 +10992,10 @@
       <c r="A30" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="256" t="s">
+      <c r="B30" s="239" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="257"/>
+      <c r="C30" s="240"/>
       <c r="D30" s="112"/>
       <c r="E30" s="72"/>
     </row>
@@ -11002,10 +11003,10 @@
       <c r="A31" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="256" t="s">
+      <c r="B31" s="239" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="257"/>
+      <c r="C31" s="240"/>
       <c r="D31" s="112"/>
       <c r="E31" s="72">
         <v>-3</v>
@@ -11015,10 +11016,10 @@
       <c r="A32" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="256" t="s">
+      <c r="B32" s="239" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="257"/>
+      <c r="C32" s="240"/>
       <c r="D32" s="112"/>
       <c r="E32" s="72"/>
     </row>
@@ -11026,10 +11027,10 @@
       <c r="A33" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="256" t="s">
+      <c r="B33" s="239" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="257"/>
+      <c r="C33" s="240"/>
       <c r="D33" s="112"/>
       <c r="E33" s="72">
         <v>2</v>
@@ -11039,10 +11040,10 @@
       <c r="A34" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="256" t="s">
+      <c r="B34" s="239" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="257"/>
+      <c r="C34" s="240"/>
       <c r="D34" s="112"/>
       <c r="E34" s="72"/>
     </row>
@@ -11050,21 +11051,21 @@
       <c r="A35" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="261" t="s">
+      <c r="B35" s="249" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="262"/>
+      <c r="C35" s="250"/>
       <c r="D35" s="112"/>
       <c r="E35" s="78">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="296" t="s">
+      <c r="B36" s="301" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="297"/>
-      <c r="D36" s="298"/>
+      <c r="C36" s="303"/>
+      <c r="D36" s="304"/>
       <c r="E36" s="197">
         <f>SUM(E14:E35)</f>
         <v>6</v>
@@ -11074,10 +11075,10 @@
       <c r="A37" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="258" t="s">
+      <c r="B37" s="241" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="259"/>
+      <c r="C37" s="242"/>
       <c r="D37" s="112"/>
       <c r="E37" s="75">
         <v>-5</v>
@@ -11088,10 +11089,10 @@
       <c r="A38" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="256" t="s">
+      <c r="B38" s="239" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="257"/>
+      <c r="C38" s="240"/>
       <c r="D38" s="112"/>
       <c r="E38" s="72">
         <v>6</v>
@@ -11102,10 +11103,10 @@
       <c r="A39" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="256" t="s">
+      <c r="B39" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="257"/>
+      <c r="C39" s="240"/>
       <c r="D39" s="112"/>
       <c r="E39" s="72">
         <v>-5</v>
@@ -11116,10 +11117,10 @@
       <c r="A40" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="256" t="s">
+      <c r="B40" s="239" t="s">
         <v>337</v>
       </c>
-      <c r="C40" s="257"/>
+      <c r="C40" s="240"/>
       <c r="D40" s="112"/>
       <c r="E40" s="72">
         <v>5</v>
@@ -11130,10 +11131,10 @@
       <c r="A41" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="256" t="s">
+      <c r="B41" s="239" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="257"/>
+      <c r="C41" s="240"/>
       <c r="D41" s="112" t="s">
         <v>619</v>
       </c>
@@ -11147,10 +11148,10 @@
       <c r="A42" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B42" s="261" t="s">
+      <c r="B42" s="249" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="262"/>
+      <c r="C42" s="250"/>
       <c r="D42" s="112"/>
       <c r="E42" s="72">
         <v>5</v>
@@ -11158,32 +11159,32 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="296" t="s">
+      <c r="B43" s="301" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="297"/>
-      <c r="D43" s="298"/>
+      <c r="C43" s="303"/>
+      <c r="D43" s="304"/>
       <c r="E43" s="216">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="296" t="s">
+      <c r="B44" s="301" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="297"/>
-      <c r="D44" s="297"/>
-      <c r="E44" s="298"/>
+      <c r="C44" s="303"/>
+      <c r="D44" s="303"/>
+      <c r="E44" s="304"/>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B45" s="258" t="s">
+      <c r="B45" s="241" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="259"/>
+      <c r="C45" s="242"/>
       <c r="D45" s="112"/>
       <c r="E45" s="75"/>
     </row>
@@ -11191,10 +11192,10 @@
       <c r="A46" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="256" t="s">
+      <c r="B46" s="239" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="257"/>
+      <c r="C46" s="240"/>
       <c r="D46" s="112"/>
       <c r="E46" s="72"/>
     </row>
@@ -11202,10 +11203,10 @@
       <c r="A47" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="256" t="s">
+      <c r="B47" s="239" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="257"/>
+      <c r="C47" s="240"/>
       <c r="D47" s="112"/>
       <c r="E47" s="72"/>
       <c r="F47" s="53"/>
@@ -11214,10 +11215,10 @@
       <c r="A48" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="256" t="s">
+      <c r="B48" s="239" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="257"/>
+      <c r="C48" s="240"/>
       <c r="D48" s="112"/>
       <c r="E48" s="72"/>
     </row>
@@ -11225,10 +11226,10 @@
       <c r="A49" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B49" s="256" t="s">
+      <c r="B49" s="239" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="257"/>
+      <c r="C49" s="240"/>
       <c r="D49" s="112"/>
       <c r="E49" s="72">
         <v>65</v>
@@ -11239,10 +11240,10 @@
       <c r="A50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="256" t="s">
+      <c r="B50" s="239" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="257"/>
+      <c r="C50" s="240"/>
       <c r="D50" s="112"/>
       <c r="E50" s="72"/>
     </row>
@@ -11250,10 +11251,10 @@
       <c r="A51" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="256" t="s">
+      <c r="B51" s="239" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="257"/>
+      <c r="C51" s="240"/>
       <c r="D51" s="112"/>
       <c r="E51" s="72"/>
     </row>
@@ -11261,10 +11262,10 @@
       <c r="A52" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="256" t="s">
+      <c r="B52" s="239" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="257"/>
+      <c r="C52" s="240"/>
       <c r="D52" s="112"/>
       <c r="E52" s="72"/>
     </row>
@@ -11272,10 +11273,10 @@
       <c r="A53" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B53" s="256" t="s">
+      <c r="B53" s="239" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="257"/>
+      <c r="C53" s="240"/>
       <c r="D53" s="112"/>
       <c r="E53" s="72"/>
     </row>
@@ -11283,10 +11284,10 @@
       <c r="A54" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="256" t="s">
+      <c r="B54" s="239" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="257"/>
+      <c r="C54" s="240"/>
       <c r="D54" s="112"/>
       <c r="E54" s="72">
         <v>-45</v>
@@ -11297,10 +11298,10 @@
       <c r="A55" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="256" t="s">
+      <c r="B55" s="239" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="257"/>
+      <c r="C55" s="240"/>
       <c r="D55" s="112"/>
       <c r="E55" s="72"/>
     </row>
@@ -11308,10 +11309,10 @@
       <c r="A56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="256" t="s">
+      <c r="B56" s="239" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="257"/>
+      <c r="C56" s="240"/>
       <c r="D56" s="112"/>
       <c r="E56" s="72"/>
     </row>
@@ -11319,10 +11320,10 @@
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="256" t="s">
+      <c r="B57" s="239" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="257"/>
+      <c r="C57" s="240"/>
       <c r="D57" s="112"/>
       <c r="E57" s="72"/>
     </row>
@@ -11330,10 +11331,10 @@
       <c r="A58" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="256" t="s">
+      <c r="B58" s="239" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="257"/>
+      <c r="C58" s="240"/>
       <c r="D58" s="112"/>
       <c r="E58" s="72"/>
     </row>
@@ -11341,10 +11342,10 @@
       <c r="A59" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="256" t="s">
+      <c r="B59" s="239" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="257"/>
+      <c r="C59" s="240"/>
       <c r="D59" s="112"/>
       <c r="E59" s="72"/>
     </row>
@@ -11352,10 +11353,10 @@
       <c r="A60" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="256" t="s">
+      <c r="B60" s="239" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="257"/>
+      <c r="C60" s="240"/>
       <c r="D60" s="112"/>
       <c r="E60" s="72"/>
     </row>
@@ -11363,10 +11364,10 @@
       <c r="A61" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="256" t="s">
+      <c r="B61" s="239" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="257"/>
+      <c r="C61" s="240"/>
       <c r="D61" s="112"/>
       <c r="E61" s="72"/>
     </row>
@@ -11374,10 +11375,10 @@
       <c r="A62" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B62" s="256" t="s">
+      <c r="B62" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="257"/>
+      <c r="C62" s="240"/>
       <c r="D62" s="112"/>
       <c r="E62" s="72"/>
     </row>
@@ -11385,10 +11386,10 @@
       <c r="A63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B63" s="256" t="s">
+      <c r="B63" s="239" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="257"/>
+      <c r="C63" s="240"/>
       <c r="D63" s="112"/>
       <c r="E63" s="72"/>
     </row>
@@ -11396,10 +11397,10 @@
       <c r="A64" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="256" t="s">
+      <c r="B64" s="239" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="257"/>
+      <c r="C64" s="240"/>
       <c r="D64" s="112" t="s">
         <v>619</v>
       </c>
@@ -11413,40 +11414,40 @@
       <c r="A65" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="261" t="s">
+      <c r="B65" s="249" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="262"/>
+      <c r="C65" s="250"/>
       <c r="D65" s="112"/>
       <c r="E65" s="78"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="296" t="s">
+      <c r="B66" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="297"/>
-      <c r="D66" s="298"/>
+      <c r="C66" s="303"/>
+      <c r="D66" s="304"/>
       <c r="E66" s="198">
         <f>SUM(E45:E65)</f>
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="296" t="s">
+      <c r="B67" s="301" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="297"/>
-      <c r="D67" s="297"/>
-      <c r="E67" s="298"/>
+      <c r="C67" s="303"/>
+      <c r="D67" s="303"/>
+      <c r="E67" s="304"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B68" s="258" t="s">
+      <c r="B68" s="241" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="259"/>
+      <c r="C68" s="242"/>
       <c r="D68" s="112"/>
       <c r="E68" s="75">
         <v>54</v>
@@ -11457,10 +11458,10 @@
       <c r="A69" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="256" t="s">
+      <c r="B69" s="239" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="257"/>
+      <c r="C69" s="240"/>
       <c r="D69" s="112"/>
       <c r="E69" s="72"/>
     </row>
@@ -11468,10 +11469,10 @@
       <c r="A70" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="256" t="s">
+      <c r="B70" s="239" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="257"/>
+      <c r="C70" s="240"/>
       <c r="D70" s="112"/>
       <c r="E70" s="72"/>
     </row>
@@ -11479,10 +11480,10 @@
       <c r="A71" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="256" t="s">
+      <c r="B71" s="239" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="257"/>
+      <c r="C71" s="240"/>
       <c r="D71" s="112"/>
       <c r="E71" s="72">
         <v>54</v>
@@ -11493,10 +11494,10 @@
       <c r="A72" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B72" s="256" t="s">
+      <c r="B72" s="239" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="257"/>
+      <c r="C72" s="240"/>
       <c r="D72" s="112"/>
       <c r="E72" s="72"/>
     </row>
@@ -11504,10 +11505,10 @@
       <c r="A73" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B73" s="256" t="s">
+      <c r="B73" s="239" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="257"/>
+      <c r="C73" s="240"/>
       <c r="D73" s="112"/>
       <c r="E73" s="72"/>
     </row>
@@ -11515,10 +11516,10 @@
       <c r="A74" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B74" s="256" t="s">
+      <c r="B74" s="239" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="257"/>
+      <c r="C74" s="240"/>
       <c r="D74" s="112"/>
       <c r="E74" s="72">
         <v>-45</v>
@@ -11529,10 +11530,10 @@
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="256" t="s">
+      <c r="B75" s="239" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="257"/>
+      <c r="C75" s="240"/>
       <c r="D75" s="112"/>
       <c r="E75" s="72"/>
     </row>
@@ -11540,10 +11541,10 @@
       <c r="A76" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="256" t="s">
+      <c r="B76" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="257"/>
+      <c r="C76" s="240"/>
       <c r="D76" s="112"/>
       <c r="E76" s="72">
         <v>-54</v>
@@ -11554,10 +11555,10 @@
       <c r="A77" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="256" t="s">
+      <c r="B77" s="239" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="257"/>
+      <c r="C77" s="240"/>
       <c r="D77" s="112" t="s">
         <v>619</v>
       </c>
@@ -11571,30 +11572,30 @@
       <c r="A78" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B78" s="261" t="s">
+      <c r="B78" s="249" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="262"/>
+      <c r="C78" s="250"/>
       <c r="D78" s="112"/>
       <c r="E78" s="78"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="296" t="s">
+      <c r="B79" s="301" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="297"/>
-      <c r="D79" s="298"/>
+      <c r="C79" s="303"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="199">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="296" t="s">
+      <c r="B80" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="297"/>
-      <c r="D80" s="298"/>
+      <c r="C80" s="303"/>
+      <c r="D80" s="304"/>
       <c r="E80" s="191">
         <f>SUM(E43,E66,E79)</f>
         <v>57</v>
@@ -11604,18 +11605,18 @@
       <c r="A81" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="268" t="s">
+      <c r="B81" s="280" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="308"/>
-      <c r="D81" s="269"/>
+      <c r="C81" s="294"/>
+      <c r="D81" s="281"/>
       <c r="E81" s="84"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="296" t="s">
+      <c r="B82" s="301" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="307"/>
+      <c r="C82" s="302"/>
       <c r="D82" s="184">
         <v>7.2</v>
       </c>
@@ -11625,33 +11626,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="296" t="s">
+      <c r="B83" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="297"/>
-      <c r="D83" s="298"/>
+      <c r="C83" s="303"/>
+      <c r="D83" s="304"/>
       <c r="E83" s="191">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="296" t="s">
+      <c r="B84" s="301" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="297"/>
-      <c r="D84" s="298"/>
+      <c r="C84" s="303"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="191">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="296" t="s">
+      <c r="B85" s="301" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="297"/>
-      <c r="D85" s="298"/>
+      <c r="C85" s="303"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="191">
         <f>E84-E83</f>
         <v>5</v>
@@ -11720,6 +11721,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B52:C52"/>
@@ -11736,76 +11807,6 @@
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -11832,7 +11833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2E6D57-2200-4F58-8AA1-71CE60518837}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -11851,118 +11852,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="238"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="272"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="239" t="str">
+      <c r="B3" s="254" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="241"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="262"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="275">
+      <c r="B5" s="273">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="276"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="276"/>
-      <c r="G5" s="277"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="275"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="223"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="238"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="278" t="s">
+      <c r="B7" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="280"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="278"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="257" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="244"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="259"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="251" t="s">
+      <c r="B10" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="252"/>
+      <c r="C10" s="264"/>
       <c r="D10" s="136" t="s">
         <v>73</v>
       </c>
@@ -11979,41 +11980,41 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="245" t="s">
+      <c r="B11" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="247"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="245"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="245" t="s">
+      <c r="B12" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="247"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="245"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="322" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="322"/>
+      <c r="C13" s="323"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="309" t="s">
+      <c r="E13" s="328" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="310"/>
-      <c r="G13" s="311"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="330"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -12053,10 +12054,10 @@
       <c r="A16" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="323" t="s">
+      <c r="B16" s="326" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="324"/>
+      <c r="C16" s="327"/>
       <c r="D16" s="146"/>
       <c r="E16" s="78">
         <v>2</v>
@@ -12070,10 +12071,10 @@
       <c r="A17" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="317" t="s">
+      <c r="B17" s="316" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="318"/>
+      <c r="C17" s="317"/>
       <c r="D17" s="146"/>
       <c r="E17" s="200">
         <f>SUM(E14:E16)</f>
@@ -12157,10 +12158,10 @@
       <c r="A22" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="323" t="s">
+      <c r="B22" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="324"/>
+      <c r="C22" s="327"/>
       <c r="D22" s="146"/>
       <c r="E22" s="78">
         <v>6</v>
@@ -12174,10 +12175,10 @@
       <c r="A23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="317" t="s">
+      <c r="B23" s="316" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="318"/>
+      <c r="C23" s="317"/>
       <c r="D23" s="146"/>
       <c r="E23" s="200">
         <f>SUM(E18:E22)</f>
@@ -12329,10 +12330,10 @@
       <c r="A32" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="323" t="s">
+      <c r="B32" s="326" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="324"/>
+      <c r="C32" s="327"/>
       <c r="D32" s="146"/>
       <c r="E32" s="78">
         <v>7</v>
@@ -12346,10 +12347,10 @@
       <c r="A33" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="317" t="s">
+      <c r="B33" s="316" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="318"/>
+      <c r="C33" s="317"/>
       <c r="D33" s="7"/>
       <c r="E33" s="202">
         <f>SUM(E17,E23:E32)</f>
@@ -12365,10 +12366,10 @@
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="320"/>
+      <c r="C34" s="315"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72">
         <v>4</v>
@@ -12382,10 +12383,10 @@
       <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="319" t="s">
+      <c r="B35" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="320"/>
+      <c r="C35" s="315"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72">
         <v>4</v>
@@ -12399,10 +12400,10 @@
       <c r="A36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="319" t="s">
+      <c r="B36" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="320"/>
+      <c r="C36" s="315"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72">
         <v>20</v>
@@ -12416,10 +12417,10 @@
       <c r="A37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="319" t="s">
+      <c r="B37" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="320"/>
+      <c r="C37" s="315"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72">
         <v>30</v>
@@ -12433,10 +12434,10 @@
       <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="319" t="s">
+      <c r="B38" s="314" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="320"/>
+      <c r="C38" s="315"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72">
         <v>4</v>
@@ -12450,10 +12451,10 @@
       <c r="A39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="319" t="s">
+      <c r="B39" s="314" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="320"/>
+      <c r="C39" s="315"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>6</v>
@@ -12467,10 +12468,10 @@
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="319" t="s">
+      <c r="B40" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="320"/>
+      <c r="C40" s="315"/>
       <c r="D40" s="7"/>
       <c r="E40" s="72">
         <v>4</v>
@@ -12484,10 +12485,10 @@
       <c r="A41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="320"/>
+      <c r="C41" s="315"/>
       <c r="D41" s="7"/>
       <c r="E41" s="78">
         <v>6</v>
@@ -12501,18 +12502,18 @@
       <c r="A42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="320"/>
+      <c r="C42" s="315"/>
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="309" t="s">
+      <c r="E42" s="328" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="310"/>
-      <c r="G42" s="311"/>
+      <c r="F42" s="329"/>
+      <c r="G42" s="330"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
@@ -12586,10 +12587,10 @@
       <c r="A47" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="317" t="s">
+      <c r="B47" s="316" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="318"/>
+      <c r="C47" s="317"/>
       <c r="D47" s="7"/>
       <c r="E47" s="204">
         <f>SUM(E43:E46)</f>
@@ -12656,10 +12657,10 @@
       <c r="A51" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B51" s="317" t="s">
+      <c r="B51" s="316" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="318"/>
+      <c r="C51" s="317"/>
       <c r="D51" s="7"/>
       <c r="E51" s="204">
         <f>SUM(E48:E50)</f>
@@ -12760,10 +12761,10 @@
       <c r="A57" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="317" t="s">
+      <c r="B57" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="318"/>
+      <c r="C57" s="317"/>
       <c r="D57" s="7"/>
       <c r="E57" s="205">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -12779,10 +12780,10 @@
       <c r="A58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="319" t="s">
+      <c r="B58" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="320"/>
+      <c r="C58" s="315"/>
       <c r="D58" s="7"/>
       <c r="E58" s="72">
         <v>4</v>
@@ -12796,10 +12797,10 @@
       <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="319" t="s">
+      <c r="B59" s="314" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="320"/>
+      <c r="C59" s="315"/>
       <c r="D59" s="7"/>
       <c r="E59" s="72">
         <v>5</v>
@@ -12813,10 +12814,10 @@
       <c r="A60" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="319" t="s">
+      <c r="B60" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="320"/>
+      <c r="C60" s="315"/>
       <c r="D60" s="7"/>
       <c r="E60" s="72">
         <v>6</v>
@@ -12830,10 +12831,10 @@
       <c r="A61" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="319" t="s">
+      <c r="B61" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="320"/>
+      <c r="C61" s="315"/>
       <c r="D61" s="7"/>
       <c r="E61" s="72">
         <v>7</v>
@@ -12847,10 +12848,10 @@
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="319" t="s">
+      <c r="B62" s="314" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="320"/>
+      <c r="C62" s="315"/>
       <c r="D62" s="8"/>
       <c r="E62" s="78">
         <v>4</v>
@@ -12861,10 +12862,10 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="325" t="s">
+      <c r="B63" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="326"/>
+      <c r="C63" s="325"/>
       <c r="E63" s="191">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -12892,31 +12893,31 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="245" t="s">
+      <c r="B66" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="246"/>
-      <c r="D66" s="246"/>
-      <c r="E66" s="246"/>
-      <c r="F66" s="246"/>
-      <c r="G66" s="246"/>
+      <c r="C66" s="244"/>
+      <c r="D66" s="244"/>
+      <c r="E66" s="244"/>
+      <c r="F66" s="244"/>
+      <c r="G66" s="244"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="321" t="s">
+      <c r="B67" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="322"/>
+      <c r="C67" s="323"/>
       <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="314" t="s">
+      <c r="E67" s="309" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="315"/>
-      <c r="G67" s="316"/>
+      <c r="F67" s="310"/>
+      <c r="G67" s="311"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
@@ -12969,10 +12970,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
-      <c r="B71" s="317" t="s">
+      <c r="B71" s="316" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="318">
+      <c r="C71" s="317">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -13176,10 +13177,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
-      <c r="B83" s="317" t="s">
+      <c r="B83" s="316" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="318">
+      <c r="C83" s="317">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -13198,18 +13199,18 @@
       <c r="A84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="327" t="s">
+      <c r="B84" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="328"/>
+      <c r="C84" s="319"/>
       <c r="D84" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="314" t="s">
+      <c r="E84" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="315"/>
-      <c r="G84" s="316"/>
+      <c r="F84" s="310"/>
+      <c r="G84" s="311"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
@@ -13345,10 +13346,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
-      <c r="B93" s="317" t="s">
+      <c r="B93" s="316" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="318">
+      <c r="C93" s="317">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -13382,10 +13383,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
-      <c r="B95" s="317" t="s">
+      <c r="B95" s="316" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="318">
+      <c r="C95" s="317">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -13487,10 +13488,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21"/>
-      <c r="B101" s="317" t="s">
+      <c r="B101" s="316" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="318">
+      <c r="C101" s="317">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -13509,10 +13510,10 @@
       <c r="A102" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="319" t="s">
+      <c r="B102" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="320"/>
+      <c r="C102" s="315"/>
       <c r="D102" s="7"/>
       <c r="E102" s="72">
         <v>3</v>
@@ -13526,10 +13527,10 @@
       <c r="A103" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="319" t="s">
+      <c r="B103" s="314" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="320"/>
+      <c r="C103" s="315"/>
       <c r="D103" s="7"/>
       <c r="E103" s="72">
         <v>4</v>
@@ -13543,10 +13544,10 @@
       <c r="A104" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="319" t="s">
+      <c r="B104" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="320"/>
+      <c r="C104" s="315"/>
       <c r="D104" s="7"/>
       <c r="E104" s="72">
         <v>5</v>
@@ -13560,10 +13561,10 @@
       <c r="A105" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="319" t="s">
+      <c r="B105" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="320"/>
+      <c r="C105" s="315"/>
       <c r="D105" s="7"/>
       <c r="E105" s="72">
         <v>5</v>
@@ -13577,10 +13578,10 @@
       <c r="A106" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="319" t="s">
+      <c r="B106" s="314" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="320"/>
+      <c r="C106" s="315"/>
       <c r="D106" s="7"/>
       <c r="E106" s="72">
         <v>2</v>
@@ -13594,10 +13595,10 @@
       <c r="A107" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="319" t="s">
+      <c r="B107" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="320"/>
+      <c r="C107" s="315"/>
       <c r="D107" s="7"/>
       <c r="E107" s="72">
         <v>10</v>
@@ -13611,10 +13612,10 @@
       <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="329" t="s">
+      <c r="B108" s="320" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="330"/>
+      <c r="C108" s="321"/>
       <c r="D108" s="8"/>
       <c r="E108" s="78">
         <v>4</v>
@@ -13625,10 +13626,10 @@
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="245" t="s">
+      <c r="B109" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="247"/>
+      <c r="C109" s="245"/>
       <c r="E109" s="192">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -13639,10 +13640,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="245" t="s">
+      <c r="B110" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="247"/>
+      <c r="C110" s="245"/>
       <c r="E110" s="192">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -13670,41 +13671,41 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="245" t="s">
+      <c r="B113" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="246"/>
-      <c r="D113" s="246"/>
-      <c r="E113" s="246"/>
-      <c r="F113" s="246"/>
-      <c r="G113" s="247"/>
+      <c r="C113" s="244"/>
+      <c r="D113" s="244"/>
+      <c r="E113" s="244"/>
+      <c r="F113" s="244"/>
+      <c r="G113" s="245"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="245" t="s">
+      <c r="B114" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="246"/>
-      <c r="D114" s="246"/>
-      <c r="E114" s="246"/>
-      <c r="F114" s="246"/>
-      <c r="G114" s="247"/>
+      <c r="C114" s="244"/>
+      <c r="D114" s="244"/>
+      <c r="E114" s="244"/>
+      <c r="F114" s="244"/>
+      <c r="G114" s="245"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="321" t="s">
+      <c r="B115" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="322"/>
+      <c r="C115" s="323"/>
       <c r="D115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="314" t="s">
+      <c r="E115" s="309" t="s">
         <v>285</v>
       </c>
-      <c r="F115" s="315"/>
-      <c r="G115" s="316"/>
+      <c r="F115" s="310"/>
+      <c r="G115" s="311"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
@@ -13742,10 +13743,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
-      <c r="B118" s="317" t="s">
+      <c r="B118" s="316" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="318">
+      <c r="C118" s="317">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -13764,18 +13765,18 @@
       <c r="A119" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="327" t="s">
+      <c r="B119" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="328"/>
+      <c r="C119" s="319"/>
       <c r="D119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="314" t="s">
+      <c r="E119" s="309" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="315"/>
-      <c r="G119" s="316"/>
+      <c r="F119" s="310"/>
+      <c r="G119" s="311"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
@@ -13813,10 +13814,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
-      <c r="B122" s="317" t="s">
+      <c r="B122" s="316" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="318">
+      <c r="C122" s="317">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -13835,10 +13836,10 @@
       <c r="A123" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="319" t="s">
+      <c r="B123" s="314" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="320"/>
+      <c r="C123" s="315"/>
       <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
@@ -13856,10 +13857,10 @@
       <c r="A124" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="319" t="s">
+      <c r="B124" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="320"/>
+      <c r="C124" s="315"/>
       <c r="D124" s="7"/>
       <c r="E124" s="72">
         <v>5</v>
@@ -13873,10 +13874,10 @@
       <c r="A125" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="319" t="s">
+      <c r="B125" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="320"/>
+      <c r="C125" s="315"/>
       <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
@@ -13894,18 +13895,18 @@
       <c r="A126" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="327" t="s">
+      <c r="B126" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="328"/>
+      <c r="C126" s="319"/>
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="314" t="s">
+      <c r="E126" s="309" t="s">
         <v>285</v>
       </c>
-      <c r="F126" s="315"/>
-      <c r="G126" s="316"/>
+      <c r="F126" s="310"/>
+      <c r="G126" s="311"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
@@ -13960,10 +13961,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
-      <c r="B130" s="317" t="s">
+      <c r="B130" s="316" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="318">
+      <c r="C130" s="317">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -13980,10 +13981,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="245" t="s">
+      <c r="B131" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="247"/>
+      <c r="C131" s="245"/>
       <c r="D131" s="79"/>
       <c r="E131" s="208">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -13998,10 +13999,10 @@
       <c r="A132" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="261" t="s">
+      <c r="B132" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="262"/>
+      <c r="C132" s="250"/>
       <c r="D132" s="80"/>
       <c r="E132" s="78">
         <v>3</v>
@@ -14011,10 +14012,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="245" t="s">
+      <c r="B133" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="247"/>
+      <c r="C133" s="245"/>
       <c r="E133" s="191">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -14042,33 +14043,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="245" t="s">
+      <c r="B136" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="246"/>
-      <c r="D136" s="246"/>
-      <c r="E136" s="246"/>
-      <c r="F136" s="246"/>
-      <c r="G136" s="247"/>
+      <c r="C136" s="244"/>
+      <c r="D136" s="244"/>
+      <c r="E136" s="244"/>
+      <c r="F136" s="244"/>
+      <c r="G136" s="245"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="260" t="s">
+      <c r="B137" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="263"/>
-      <c r="D137" s="263"/>
-      <c r="E137" s="263"/>
-      <c r="F137" s="263"/>
-      <c r="G137" s="263"/>
+      <c r="C137" s="252"/>
+      <c r="D137" s="252"/>
+      <c r="E137" s="252"/>
+      <c r="F137" s="252"/>
+      <c r="G137" s="252"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="319" t="s">
+      <c r="B138" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="320"/>
+      <c r="C138" s="315"/>
       <c r="D138" s="6"/>
       <c r="E138" s="75">
         <v>2</v>
@@ -14082,18 +14083,18 @@
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="327" t="s">
+      <c r="B139" s="318" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="328"/>
+      <c r="C139" s="319"/>
       <c r="D139" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E139" s="314" t="s">
+      <c r="E139" s="309" t="s">
         <v>286</v>
       </c>
-      <c r="F139" s="315"/>
-      <c r="G139" s="316"/>
+      <c r="F139" s="310"/>
+      <c r="G139" s="311"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
@@ -14172,10 +14173,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
-      <c r="B145" s="317" t="s">
+      <c r="B145" s="316" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="318">
+      <c r="C145" s="317">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -14224,10 +14225,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
-      <c r="B148" s="317" t="s">
+      <c r="B148" s="316" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="318">
+      <c r="C148" s="317">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -14289,10 +14290,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
-      <c r="B152" s="317" t="s">
+      <c r="B152" s="316" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="318">
+      <c r="C152" s="317">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -14309,10 +14310,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
-      <c r="B153" s="317" t="s">
+      <c r="B153" s="316" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="318">
+      <c r="C153" s="317">
         <v>1</v>
       </c>
       <c r="D153" s="7"/>
@@ -14326,10 +14327,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
-      <c r="B154" s="317" t="s">
+      <c r="B154" s="316" t="s">
         <v>525</v>
       </c>
-      <c r="C154" s="318">
+      <c r="C154" s="317">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -14348,10 +14349,10 @@
       <c r="A155" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="319" t="s">
+      <c r="B155" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="320"/>
+      <c r="C155" s="315"/>
       <c r="D155" s="8"/>
       <c r="E155" s="78">
         <v>2</v>
@@ -14380,18 +14381,18 @@
       <c r="A157" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="321" t="s">
+      <c r="B157" s="322" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="322"/>
+      <c r="C157" s="323"/>
       <c r="D157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E157" s="314" t="s">
+      <c r="E157" s="309" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="315"/>
-      <c r="G157" s="316"/>
+      <c r="F157" s="310"/>
+      <c r="G157" s="311"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
@@ -14542,10 +14543,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21"/>
-      <c r="B167" s="317" t="s">
+      <c r="B167" s="316" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="318">
+      <c r="C167" s="317">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -14613,10 +14614,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21"/>
-      <c r="B171" s="317" t="s">
+      <c r="B171" s="316" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="318">
+      <c r="C171" s="317">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -14650,10 +14651,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
-      <c r="B173" s="317" t="s">
+      <c r="B173" s="316" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="318">
+      <c r="C173" s="317">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -14755,10 +14756,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21"/>
-      <c r="B179" s="317" t="s">
+      <c r="B179" s="316" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="318">
+      <c r="C179" s="317">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -14777,10 +14778,10 @@
       <c r="A180" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B180" s="319" t="s">
+      <c r="B180" s="314" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="320"/>
+      <c r="C180" s="315"/>
       <c r="D180" s="7"/>
       <c r="E180" s="72">
         <v>4</v>
@@ -14794,10 +14795,10 @@
       <c r="A181" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="319" t="s">
+      <c r="B181" s="314" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="320"/>
+      <c r="C181" s="315"/>
       <c r="D181" s="7"/>
       <c r="E181" s="72">
         <v>4</v>
@@ -14811,10 +14812,10 @@
       <c r="A182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="319" t="s">
+      <c r="B182" s="314" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="320"/>
+      <c r="C182" s="315"/>
       <c r="D182" s="7"/>
       <c r="E182" s="72">
         <v>1</v>
@@ -14828,10 +14829,10 @@
       <c r="A183" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="319" t="s">
+      <c r="B183" s="314" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="320"/>
+      <c r="C183" s="315"/>
       <c r="D183" s="7"/>
       <c r="E183" s="72">
         <v>2</v>
@@ -14845,10 +14846,10 @@
       <c r="A184" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B184" s="329" t="s">
+      <c r="B184" s="320" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="330"/>
+      <c r="C184" s="321"/>
       <c r="D184" s="8"/>
       <c r="E184" s="78">
         <v>1</v>
@@ -14859,10 +14860,10 @@
       <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="245" t="s">
+      <c r="B185" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="247"/>
+      <c r="C185" s="245"/>
       <c r="E185" s="191">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -14892,23 +14893,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="245" t="s">
+      <c r="B189" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="246"/>
-      <c r="D189" s="246"/>
-      <c r="E189" s="246"/>
-      <c r="F189" s="246"/>
-      <c r="G189" s="246"/>
+      <c r="C189" s="244"/>
+      <c r="D189" s="244"/>
+      <c r="E189" s="244"/>
+      <c r="F189" s="244"/>
+      <c r="G189" s="244"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="319" t="s">
+      <c r="B190" s="314" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="320"/>
+      <c r="C190" s="315"/>
       <c r="D190" s="6"/>
       <c r="E190" s="75">
         <v>1</v>
@@ -14922,10 +14923,10 @@
       <c r="A191" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B191" s="327" t="s">
+      <c r="B191" s="318" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="328"/>
+      <c r="C191" s="319"/>
       <c r="D191" s="7" t="s">
         <v>311</v>
       </c>
@@ -15149,10 +15150,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21"/>
-      <c r="B205" s="317" t="s">
+      <c r="B205" s="316" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="318">
+      <c r="C205" s="317">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -15169,10 +15170,10 @@
       <c r="A206" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="319" t="s">
+      <c r="B206" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="320"/>
+      <c r="C206" s="315"/>
       <c r="D206" s="8"/>
       <c r="E206" s="78">
         <v>4</v>
@@ -15183,10 +15184,10 @@
       <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="245" t="s">
+      <c r="B207" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="247"/>
+      <c r="C207" s="245"/>
       <c r="D207" s="82"/>
       <c r="E207" s="195">
         <f>SUM(E190:E206)</f>
@@ -15201,18 +15202,18 @@
       <c r="A208" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B208" s="321" t="s">
+      <c r="B208" s="322" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="322"/>
+      <c r="C208" s="323"/>
       <c r="D208" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E208" s="314" t="s">
+      <c r="E208" s="309" t="s">
         <v>287</v>
       </c>
-      <c r="F208" s="315"/>
-      <c r="G208" s="316"/>
+      <c r="F208" s="310"/>
+      <c r="G208" s="311"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
@@ -15365,10 +15366,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="21"/>
-      <c r="B218" s="317" t="s">
+      <c r="B218" s="316" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="318">
+      <c r="C218" s="317">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -15436,10 +15437,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="21"/>
-      <c r="B222" s="317" t="s">
+      <c r="B222" s="316" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="318">
+      <c r="C222" s="317">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -15490,10 +15491,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21"/>
-      <c r="B225" s="317" t="s">
+      <c r="B225" s="316" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="318">
+      <c r="C225" s="317">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -15595,10 +15596,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="21"/>
-      <c r="B231" s="317" t="s">
+      <c r="B231" s="316" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="318">
+      <c r="C231" s="317">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -15617,10 +15618,10 @@
       <c r="A232" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B232" s="319" t="s">
+      <c r="B232" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="320"/>
+      <c r="C232" s="315"/>
       <c r="D232" s="7"/>
       <c r="E232" s="72">
         <v>4</v>
@@ -15634,10 +15635,10 @@
       <c r="A233" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B233" s="319" t="s">
+      <c r="B233" s="314" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="320"/>
+      <c r="C233" s="315"/>
       <c r="D233" s="7"/>
       <c r="E233" s="72">
         <v>5</v>
@@ -15651,10 +15652,10 @@
       <c r="A234" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B234" s="319" t="s">
+      <c r="B234" s="314" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="320"/>
+      <c r="C234" s="315"/>
       <c r="D234" s="7"/>
       <c r="E234" s="72">
         <v>2</v>
@@ -15668,10 +15669,10 @@
       <c r="A235" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B235" s="319" t="s">
+      <c r="B235" s="314" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="320"/>
+      <c r="C235" s="315"/>
       <c r="D235" s="7"/>
       <c r="E235" s="72">
         <v>2</v>
@@ -15685,10 +15686,10 @@
       <c r="A236" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B236" s="329" t="s">
+      <c r="B236" s="320" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="330"/>
+      <c r="C236" s="321"/>
       <c r="D236" s="8"/>
       <c r="E236" s="78">
         <v>2</v>
@@ -15699,11 +15700,11 @@
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="245" t="s">
+      <c r="B237" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="246"/>
-      <c r="D237" s="247"/>
+      <c r="C237" s="244"/>
+      <c r="D237" s="245"/>
       <c r="E237" s="191">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -15717,11 +15718,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="245" t="s">
+      <c r="B239" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="246"/>
-      <c r="D239" s="247"/>
+      <c r="C239" s="244"/>
+      <c r="D239" s="245"/>
       <c r="E239" s="191">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -15733,11 +15734,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="245" t="s">
+      <c r="B241" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="246"/>
-      <c r="D241" s="247"/>
+      <c r="C241" s="244"/>
+      <c r="D241" s="245"/>
       <c r="E241" s="191">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -15755,12 +15756,12 @@
       <c r="A244" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="265" t="str">
+      <c r="B244" s="246" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="266"/>
-      <c r="D244" s="267"/>
+      <c r="C244" s="247"/>
+      <c r="D244" s="248"/>
       <c r="E244" s="74">
         <f>E241-E110</f>
         <v>-51</v>
@@ -15790,6 +15791,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="E208:G208"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -15814,221 +16030,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B158:C158"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B244">
@@ -16059,7 +16060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BB1A5B-AFCA-4E19-8810-C432058A32B9}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -16078,14 +16079,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="268" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="269"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
@@ -16094,63 +16095,63 @@
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="272"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="239" t="str">
+      <c r="B3" s="254" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="241"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="275">
+      <c r="B5" s="273">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="276"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="277"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="275"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="279" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="271"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="269"/>
       <c r="G6" s="96"/>
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
@@ -16159,35 +16160,35 @@
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="278" t="s">
+      <c r="B7" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="280"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="278"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="257" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="259"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="252"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="136" t="s">
         <v>73</v>
       </c>
@@ -16204,38 +16205,38 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
       <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="321" t="s">
+      <c r="B14" s="322" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="322"/>
+      <c r="C14" s="323"/>
       <c r="D14" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="E14" s="364" t="s">
+      <c r="E14" s="331" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="365"/>
-      <c r="G14" s="366"/>
+      <c r="F14" s="332"/>
+      <c r="G14" s="333"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="333" t="s">
+      <c r="B15" s="334" t="s">
         <v>528</v>
       </c>
-      <c r="C15" s="334"/>
+      <c r="C15" s="335"/>
       <c r="D15" s="112"/>
       <c r="E15" s="72">
         <v>3</v>
@@ -16247,10 +16248,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="333" t="s">
+      <c r="B16" s="334" t="s">
         <v>528</v>
       </c>
-      <c r="C16" s="334"/>
+      <c r="C16" s="335"/>
       <c r="D16" s="112"/>
       <c r="E16" s="72">
         <v>2</v>
@@ -16262,10 +16263,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="333" t="s">
+      <c r="B17" s="334" t="s">
         <v>529</v>
       </c>
-      <c r="C17" s="334"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="112"/>
       <c r="E17" s="72">
         <v>3</v>
@@ -16277,10 +16278,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="334" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="334"/>
+      <c r="C18" s="335"/>
       <c r="D18" s="112"/>
       <c r="E18" s="72">
         <v>4</v>
@@ -16292,10 +16293,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="333" t="s">
+      <c r="B19" s="334" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="334"/>
+      <c r="C19" s="335"/>
       <c r="D19" s="112"/>
       <c r="E19" s="72">
         <v>5</v>
@@ -16307,10 +16308,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="334" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="334"/>
+      <c r="C20" s="335"/>
       <c r="D20" s="112"/>
       <c r="E20" s="72">
         <v>6</v>
@@ -16322,10 +16323,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="333" t="s">
+      <c r="B21" s="334" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="334"/>
+      <c r="C21" s="335"/>
       <c r="D21" s="112"/>
       <c r="E21" s="72">
         <v>76</v>
@@ -16337,10 +16338,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="334" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="334"/>
+      <c r="C22" s="335"/>
       <c r="D22" s="112"/>
       <c r="E22" s="72">
         <v>8</v>
@@ -16354,10 +16355,10 @@
       <c r="A23" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="333" t="s">
+      <c r="B23" s="334" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="334"/>
+      <c r="C23" s="335"/>
       <c r="D23" s="112"/>
       <c r="E23" s="72">
         <v>9</v>
@@ -16371,10 +16372,10 @@
       <c r="A24" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B24" s="333" t="s">
+      <c r="B24" s="334" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="334"/>
+      <c r="C24" s="335"/>
       <c r="D24" s="112"/>
       <c r="E24" s="78">
         <v>0</v>
@@ -16388,10 +16389,10 @@
       <c r="A25" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B25" s="331" t="s">
+      <c r="B25" s="336" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="332"/>
+      <c r="C25" s="337"/>
       <c r="D25" s="112"/>
       <c r="E25" s="206">
         <f>SUM(E15:E24)</f>
@@ -16407,10 +16408,10 @@
       <c r="A26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="319" t="s">
+      <c r="B26" s="314" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="320"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="112"/>
       <c r="E26" s="78">
         <v>-6</v>
@@ -16424,25 +16425,25 @@
       <c r="A27" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="327" t="s">
+      <c r="B27" s="318" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="328"/>
+      <c r="C27" s="319"/>
       <c r="D27" s="112">
         <v>28.4</v>
       </c>
-      <c r="E27" s="364" t="s">
+      <c r="E27" s="331" t="s">
         <v>568</v>
       </c>
-      <c r="F27" s="365"/>
-      <c r="G27" s="366"/>
+      <c r="F27" s="332"/>
+      <c r="G27" s="333"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="333" t="s">
+      <c r="B28" s="334" t="s">
         <v>539</v>
       </c>
-      <c r="C28" s="334"/>
+      <c r="C28" s="335"/>
       <c r="D28" s="112"/>
       <c r="E28" s="72">
         <v>2</v>
@@ -16454,10 +16455,10 @@
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="333" t="s">
+      <c r="B29" s="334" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="334"/>
+      <c r="C29" s="335"/>
       <c r="D29" s="112"/>
       <c r="E29" s="72">
         <v>3</v>
@@ -16469,10 +16470,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="333" t="s">
+      <c r="B30" s="334" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="334"/>
+      <c r="C30" s="335"/>
       <c r="D30" s="112"/>
       <c r="E30" s="72">
         <v>4</v>
@@ -16484,10 +16485,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="333" t="s">
+      <c r="B31" s="334" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="334"/>
+      <c r="C31" s="335"/>
       <c r="D31" s="112"/>
       <c r="E31" s="72">
         <v>5</v>
@@ -16499,10 +16500,10 @@
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="333" t="s">
+      <c r="B32" s="334" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="334"/>
+      <c r="C32" s="335"/>
       <c r="D32" s="112"/>
       <c r="E32" s="72">
         <v>6</v>
@@ -16514,10 +16515,10 @@
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="333" t="s">
+      <c r="B33" s="334" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="334"/>
+      <c r="C33" s="335"/>
       <c r="D33" s="112"/>
       <c r="E33" s="72">
         <v>7</v>
@@ -16529,10 +16530,10 @@
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="333" t="s">
+      <c r="B34" s="334" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="334"/>
+      <c r="C34" s="335"/>
       <c r="D34" s="112"/>
       <c r="E34" s="72">
         <v>8</v>
@@ -16544,10 +16545,10 @@
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
-      <c r="B35" s="333" t="s">
+      <c r="B35" s="334" t="s">
         <v>545</v>
       </c>
-      <c r="C35" s="334"/>
+      <c r="C35" s="335"/>
       <c r="D35" s="112"/>
       <c r="E35" s="78">
         <v>9</v>
@@ -16559,10 +16560,10 @@
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="331" t="s">
+      <c r="B36" s="336" t="s">
         <v>546</v>
       </c>
-      <c r="C36" s="332"/>
+      <c r="C36" s="337"/>
       <c r="D36" s="112"/>
       <c r="E36" s="200">
         <f>SUM(E28:E35)</f>
@@ -16578,10 +16579,10 @@
       <c r="A37" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="319" t="s">
+      <c r="B37" s="314" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="320"/>
+      <c r="C37" s="315"/>
       <c r="D37" s="112"/>
       <c r="E37" s="72">
         <v>-6</v>
@@ -16595,10 +16596,10 @@
       <c r="A38" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="319" t="s">
+      <c r="B38" s="314" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="320"/>
+      <c r="C38" s="315"/>
       <c r="D38" s="112"/>
       <c r="E38" s="72">
         <v>-6</v>
@@ -16612,10 +16613,10 @@
       <c r="A39" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="319" t="s">
+      <c r="B39" s="314" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="320"/>
+      <c r="C39" s="315"/>
       <c r="D39" s="112"/>
       <c r="E39" s="72">
         <v>-4</v>
@@ -16629,10 +16630,10 @@
       <c r="A40" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="329" t="s">
+      <c r="B40" s="320" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="330"/>
+      <c r="C40" s="321"/>
       <c r="D40" s="112"/>
       <c r="E40" s="72">
         <v>-6</v>
@@ -16644,10 +16645,10 @@
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="109"/>
-      <c r="B41" s="246" t="s">
+      <c r="B41" s="244" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="247"/>
+      <c r="C41" s="245"/>
       <c r="D41" s="111"/>
       <c r="E41" s="195">
         <f>SUM(E36:E40,E25,E26)</f>
@@ -16663,10 +16664,10 @@
       <c r="A42" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="337" t="s">
+      <c r="B42" s="340" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="338"/>
+      <c r="C42" s="341"/>
       <c r="D42" s="112"/>
       <c r="E42" s="72">
         <v>6</v>
@@ -16680,10 +16681,10 @@
       <c r="A43" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="319" t="s">
+      <c r="B43" s="314" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="320"/>
+      <c r="C43" s="315"/>
       <c r="D43" s="112"/>
       <c r="E43" s="72">
         <v>-3</v>
@@ -16697,10 +16698,10 @@
       <c r="A44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="329" t="s">
+      <c r="B44" s="320" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="330"/>
+      <c r="C44" s="321"/>
       <c r="D44" s="112"/>
       <c r="E44" s="72">
         <v>6</v>
@@ -16712,10 +16713,10 @@
     </row>
     <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="109"/>
-      <c r="B45" s="246" t="s">
+      <c r="B45" s="244" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="247"/>
+      <c r="C45" s="245"/>
       <c r="D45" s="111"/>
       <c r="E45" s="195">
         <f>SUM(E41:E44)</f>
@@ -16731,10 +16732,10 @@
       <c r="A46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="335" t="s">
+      <c r="B46" s="338" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="336"/>
+      <c r="C46" s="339"/>
       <c r="D46" s="112"/>
       <c r="E46" s="73">
         <v>1</v>
@@ -16746,10 +16747,10 @@
     </row>
     <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="109"/>
-      <c r="B47" s="246" t="s">
+      <c r="B47" s="244" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="247"/>
+      <c r="C47" s="245"/>
       <c r="D47" s="111"/>
       <c r="E47" s="195">
         <f>SUM(E45:E46)</f>
@@ -16769,20 +16770,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -16799,22 +16802,20 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -16849,41 +16850,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="272" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="274"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="272"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
@@ -16893,37 +16894,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="260">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="250"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="262"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
@@ -16933,72 +16934,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="275"/>
+      <c r="J5" s="275"/>
+      <c r="K5" s="275"/>
+      <c r="L5" s="275"/>
+      <c r="M5" s="275"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="223"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="238"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="346" t="s">
+      <c r="B7" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347"/>
-      <c r="H7" s="347"/>
-      <c r="I7" s="347"/>
-      <c r="J7" s="347"/>
-      <c r="K7" s="347"/>
-      <c r="L7" s="347"/>
-      <c r="M7" s="348"/>
+      <c r="C7" s="349"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="349"/>
+      <c r="J7" s="349"/>
+      <c r="K7" s="349"/>
+      <c r="L7" s="349"/>
+      <c r="M7" s="350"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="343" t="s">
+      <c r="B8" s="361" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="345"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="363"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -17006,21 +17007,21 @@
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="251" t="s">
+      <c r="A10" s="263" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="339"/>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="339"/>
-      <c r="K10" s="339"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="252"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
+      <c r="G10" s="360"/>
+      <c r="H10" s="360"/>
+      <c r="I10" s="360"/>
+      <c r="J10" s="360"/>
+      <c r="K10" s="360"/>
+      <c r="L10" s="360"/>
+      <c r="M10" s="264"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="107" t="s">
@@ -17035,23 +17036,23 @@
       <c r="D11" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="340" t="s">
+      <c r="E11" s="357" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="341"/>
-      <c r="G11" s="341"/>
-      <c r="H11" s="341"/>
-      <c r="I11" s="341"/>
-      <c r="J11" s="341"/>
-      <c r="K11" s="341"/>
-      <c r="L11" s="341"/>
-      <c r="M11" s="342"/>
+      <c r="F11" s="358"/>
+      <c r="G11" s="358"/>
+      <c r="H11" s="358"/>
+      <c r="I11" s="358"/>
+      <c r="J11" s="358"/>
+      <c r="K11" s="358"/>
+      <c r="L11" s="358"/>
+      <c r="M11" s="359"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="349" t="s">
+      <c r="A12" s="351" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="350"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -17065,8 +17066,8 @@
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="355"/>
-      <c r="B13" s="356"/>
+      <c r="A13" s="346"/>
+      <c r="B13" s="347"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -17080,8 +17081,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="357"/>
-      <c r="B14" s="358"/>
+      <c r="A14" s="342"/>
+      <c r="B14" s="343"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -17095,8 +17096,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="357"/>
-      <c r="B15" s="358"/>
+      <c r="A15" s="342"/>
+      <c r="B15" s="343"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -17110,8 +17111,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="357"/>
-      <c r="B16" s="358"/>
+      <c r="A16" s="342"/>
+      <c r="B16" s="343"/>
       <c r="C16" s="60" t="s">
         <v>513</v>
       </c>
@@ -17127,8 +17128,8 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="357"/>
-      <c r="B17" s="358"/>
+      <c r="A17" s="342"/>
+      <c r="B17" s="343"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -17142,8 +17143,8 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="357"/>
-      <c r="B18" s="358"/>
+      <c r="A18" s="342"/>
+      <c r="B18" s="343"/>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
@@ -17159,8 +17160,8 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="357"/>
-      <c r="B19" s="358"/>
+      <c r="A19" s="342"/>
+      <c r="B19" s="343"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -17174,8 +17175,8 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="357"/>
-      <c r="B20" s="358"/>
+      <c r="A20" s="342"/>
+      <c r="B20" s="343"/>
       <c r="C20" s="60" t="s">
         <v>425</v>
       </c>
@@ -17191,8 +17192,8 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="357"/>
-      <c r="B21" s="358"/>
+      <c r="A21" s="342"/>
+      <c r="B21" s="343"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -17206,8 +17207,8 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="357"/>
-      <c r="B22" s="358"/>
+      <c r="A22" s="342"/>
+      <c r="B22" s="343"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -17221,8 +17222,8 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="357"/>
-      <c r="B23" s="358"/>
+      <c r="A23" s="342"/>
+      <c r="B23" s="343"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -17236,8 +17237,8 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="357"/>
-      <c r="B24" s="358"/>
+      <c r="A24" s="342"/>
+      <c r="B24" s="343"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -17251,8 +17252,8 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="357"/>
-      <c r="B25" s="358"/>
+      <c r="A25" s="342"/>
+      <c r="B25" s="343"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -17266,8 +17267,8 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="357"/>
-      <c r="B26" s="358"/>
+      <c r="A26" s="342"/>
+      <c r="B26" s="343"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -17281,8 +17282,8 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="357"/>
-      <c r="B27" s="358"/>
+      <c r="A27" s="342"/>
+      <c r="B27" s="343"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -17296,8 +17297,8 @@
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="357"/>
-      <c r="B28" s="358"/>
+      <c r="A28" s="342"/>
+      <c r="B28" s="343"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -17311,8 +17312,8 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="357"/>
-      <c r="B29" s="358"/>
+      <c r="A29" s="342"/>
+      <c r="B29" s="343"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -17326,8 +17327,8 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="357"/>
-      <c r="B30" s="358"/>
+      <c r="A30" s="342"/>
+      <c r="B30" s="343"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -17341,8 +17342,8 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="359"/>
-      <c r="B31" s="360"/>
+      <c r="A31" s="344"/>
+      <c r="B31" s="345"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -17362,10 +17363,10 @@
       <c r="B32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="260" t="s">
+      <c r="C32" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="264"/>
+      <c r="D32" s="253"/>
       <c r="E32" s="60" t="s">
         <v>398</v>
       </c>
@@ -17462,10 +17463,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="245" t="s">
+      <c r="C37" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="247"/>
+      <c r="D37" s="245"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -17755,10 +17756,10 @@
       <c r="B52" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="245" t="s">
+      <c r="C52" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="247"/>
+      <c r="D52" s="245"/>
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -17848,10 +17849,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="245" t="s">
+      <c r="C57" s="243" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="247"/>
+      <c r="D57" s="245"/>
       <c r="E57" s="59"/>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -17865,10 +17866,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="245" t="s">
+      <c r="C58" s="243" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="247"/>
+      <c r="D58" s="245"/>
       <c r="E58" s="59"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -18098,10 +18099,10 @@
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="245" t="s">
+      <c r="C70" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="246"/>
+      <c r="D70" s="244"/>
       <c r="E70" s="59"/>
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
@@ -18401,21 +18402,21 @@
       <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="351" t="s">
+      <c r="A86" s="353" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="352"/>
-      <c r="C86" s="352"/>
-      <c r="D86" s="352"/>
-      <c r="E86" s="353"/>
-      <c r="F86" s="353"/>
-      <c r="G86" s="353"/>
-      <c r="H86" s="353"/>
-      <c r="I86" s="353"/>
-      <c r="J86" s="353"/>
-      <c r="K86" s="353"/>
-      <c r="L86" s="353"/>
-      <c r="M86" s="354"/>
+      <c r="B86" s="354"/>
+      <c r="C86" s="354"/>
+      <c r="D86" s="354"/>
+      <c r="E86" s="355"/>
+      <c r="F86" s="355"/>
+      <c r="G86" s="355"/>
+      <c r="H86" s="355"/>
+      <c r="I86" s="355"/>
+      <c r="J86" s="355"/>
+      <c r="K86" s="355"/>
+      <c r="L86" s="355"/>
+      <c r="M86" s="356"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="52" t="s">
@@ -18430,17 +18431,17 @@
       <c r="D87" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="340" t="s">
+      <c r="E87" s="357" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="341"/>
-      <c r="G87" s="341"/>
-      <c r="H87" s="341"/>
-      <c r="I87" s="341"/>
-      <c r="J87" s="341"/>
-      <c r="K87" s="341"/>
-      <c r="L87" s="341"/>
-      <c r="M87" s="342"/>
+      <c r="F87" s="358"/>
+      <c r="G87" s="358"/>
+      <c r="H87" s="358"/>
+      <c r="I87" s="358"/>
+      <c r="J87" s="358"/>
+      <c r="K87" s="358"/>
+      <c r="L87" s="358"/>
+      <c r="M87" s="359"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
@@ -18465,10 +18466,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="245" t="s">
+      <c r="C89" s="243" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="247"/>
+      <c r="D89" s="245"/>
       <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -18758,10 +18759,10 @@
       <c r="B105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="245" t="s">
+      <c r="C105" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="247"/>
+      <c r="D105" s="245"/>
       <c r="E105" s="56"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -18851,10 +18852,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="245" t="s">
+      <c r="C110" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="247"/>
+      <c r="D110" s="245"/>
       <c r="E110" s="59"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
@@ -18868,10 +18869,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="245" t="s">
+      <c r="C111" s="243" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="247"/>
+      <c r="D111" s="245"/>
       <c r="E111" s="59"/>
       <c r="F111" s="60"/>
       <c r="G111" s="60"/>
@@ -19216,10 +19217,10 @@
       <c r="B129" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="245" t="s">
+      <c r="C129" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="247"/>
+      <c r="D129" s="245"/>
       <c r="E129" s="56"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -19309,10 +19310,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="245" t="s">
+      <c r="C134" s="243" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="247"/>
+      <c r="D134" s="245"/>
       <c r="E134" s="59"/>
       <c r="F134" s="60"/>
       <c r="G134" s="60"/>
@@ -19326,10 +19327,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="245" t="s">
+      <c r="C135" s="243" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="247"/>
+      <c r="D135" s="245"/>
       <c r="E135" s="59"/>
       <c r="F135" s="60"/>
       <c r="G135" s="60"/>
@@ -19343,10 +19344,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="245" t="s">
+      <c r="C136" s="243" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="247"/>
+      <c r="D136" s="245"/>
       <c r="E136" s="59"/>
       <c r="F136" s="60"/>
       <c r="G136" s="60"/>
@@ -19653,10 +19654,10 @@
       <c r="B152" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="245" t="s">
+      <c r="C152" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="247"/>
+      <c r="D152" s="245"/>
       <c r="E152" s="59"/>
       <c r="F152" s="60"/>
       <c r="G152" s="60"/>
@@ -19977,10 +19978,10 @@
       <c r="B170" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="245" t="s">
+      <c r="C170" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="247"/>
+      <c r="D170" s="245"/>
       <c r="E170" s="59"/>
       <c r="F170" s="60"/>
       <c r="G170" s="60"/>
@@ -20268,10 +20269,10 @@
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="245" t="s">
+      <c r="C185" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="247"/>
+      <c r="D185" s="245"/>
       <c r="E185" s="56"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -20347,10 +20348,10 @@
       <c r="B189" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="245" t="s">
+      <c r="C189" s="243" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="247"/>
+      <c r="D189" s="245"/>
       <c r="E189" s="56"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -20997,10 +20998,10 @@
       <c r="B228" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="245" t="s">
+      <c r="C228" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="246"/>
+      <c r="D228" s="244"/>
       <c r="E228" s="42"/>
       <c r="F228" s="44"/>
       <c r="G228" s="44"/>
@@ -21090,25 +21091,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="C5:M5"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C3:M3"/>
@@ -21125,22 +21123,25 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="A86:M86"/>
     <mergeCell ref="E87:M87"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>

--- a/ifrs-sme-model_with_hyperlink.xlsx
+++ b/ifrs-sme-model_with_hyperlink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB4E56-4E2D-419C-B85C-9BF726727A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FD260-BF7F-459C-88DC-30D5AE3B5FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="795" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2812,6 +2812,34 @@
     <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2821,15 +2849,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2839,15 +2858,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2857,14 +2867,56 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2878,13 +2930,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2896,61 +2954,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2989,11 +2996,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3001,80 +3026,71 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3085,11 +3101,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3097,11 +3113,23 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3115,32 +3143,29 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3151,29 +3176,59 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3187,60 +3242,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3250,7 +3251,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -6211,41 +6211,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="222" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="238"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="275"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
@@ -6255,37 +6255,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="251"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
@@ -6295,90 +6295,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="278"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="238"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="224"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="348" t="s">
+      <c r="B7" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="349"/>
-      <c r="F7" s="349"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="349"/>
-      <c r="I7" s="349"/>
-      <c r="J7" s="349"/>
-      <c r="K7" s="349"/>
-      <c r="L7" s="349"/>
-      <c r="M7" s="350"/>
+      <c r="C7" s="351"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="351"/>
+      <c r="K7" s="351"/>
+      <c r="L7" s="351"/>
+      <c r="M7" s="352"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="361" t="s">
+      <c r="B8" s="347" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
-      <c r="G8" s="362"/>
-      <c r="H8" s="362"/>
-      <c r="I8" s="362"/>
-      <c r="J8" s="362"/>
-      <c r="K8" s="362"/>
-      <c r="L8" s="362"/>
-      <c r="M8" s="363"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="348"/>
+      <c r="J8" s="348"/>
+      <c r="K8" s="348"/>
+      <c r="L8" s="348"/>
+      <c r="M8" s="349"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="263" t="s">
+      <c r="A11" s="252" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="360"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="360"/>
-      <c r="I11" s="360"/>
-      <c r="J11" s="360"/>
-      <c r="K11" s="360"/>
-      <c r="L11" s="360"/>
-      <c r="M11" s="264"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
+      <c r="I11" s="343"/>
+      <c r="J11" s="343"/>
+      <c r="K11" s="343"/>
+      <c r="L11" s="343"/>
+      <c r="M11" s="253"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
@@ -6393,17 +6393,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="353" t="s">
+      <c r="E12" s="355" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="354"/>
-      <c r="K12" s="354"/>
-      <c r="L12" s="354"/>
-      <c r="M12" s="364"/>
+      <c r="F12" s="356"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="356"/>
+      <c r="I12" s="356"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="356"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="365"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
@@ -6412,10 +6412,10 @@
       <c r="B13" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="365" t="s">
+      <c r="C13" s="366" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="366"/>
+      <c r="D13" s="367"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -6838,41 +6838,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="222" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="238"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="275"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
@@ -6882,37 +6882,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="251"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
@@ -6922,90 +6922,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="278"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="238"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="224"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="348" t="s">
+      <c r="B7" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="349"/>
-      <c r="F7" s="349"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="349"/>
-      <c r="I7" s="349"/>
-      <c r="J7" s="349"/>
-      <c r="K7" s="349"/>
-      <c r="L7" s="349"/>
-      <c r="M7" s="350"/>
+      <c r="C7" s="351"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="351"/>
+      <c r="K7" s="351"/>
+      <c r="L7" s="351"/>
+      <c r="M7" s="352"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="361" t="s">
+      <c r="B8" s="347" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
-      <c r="G8" s="362"/>
-      <c r="H8" s="362"/>
-      <c r="I8" s="362"/>
-      <c r="J8" s="362"/>
-      <c r="K8" s="362"/>
-      <c r="L8" s="362"/>
-      <c r="M8" s="363"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="348"/>
+      <c r="J8" s="348"/>
+      <c r="K8" s="348"/>
+      <c r="L8" s="348"/>
+      <c r="M8" s="349"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="263" t="s">
+      <c r="A11" s="252" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="360"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="360"/>
-      <c r="I11" s="360"/>
-      <c r="J11" s="360"/>
-      <c r="K11" s="360"/>
-      <c r="L11" s="360"/>
-      <c r="M11" s="264"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
+      <c r="I11" s="343"/>
+      <c r="J11" s="343"/>
+      <c r="K11" s="343"/>
+      <c r="L11" s="343"/>
+      <c r="M11" s="253"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="107" t="s">
@@ -7020,17 +7020,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="353" t="s">
+      <c r="E12" s="355" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="354"/>
-      <c r="K12" s="354"/>
-      <c r="L12" s="354"/>
-      <c r="M12" s="364"/>
+      <c r="F12" s="356"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="356"/>
+      <c r="I12" s="356"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="356"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="365"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="139" t="s">
@@ -7039,10 +7039,10 @@
       <c r="B13" s="132" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="365" t="s">
+      <c r="C13" s="366" t="s">
         <v>555</v>
       </c>
-      <c r="D13" s="366"/>
+      <c r="D13" s="367"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -8003,119 +8003,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="222" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="238"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="225" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="227"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="227"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="227"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="224" t="s">
+      <c r="B5" s="225" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="226"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="227"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="225" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="106" t="s">
         <v>548</v>
       </c>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="225" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="226"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="230">
+      <c r="B8" s="228">
         <v>45292</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="232"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="230"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="230">
+      <c r="B9" s="228">
         <v>45657</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="232"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="230"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="116" t="s">
@@ -8188,95 +8188,95 @@
       <c r="A17" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="237" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="235"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="239"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="104"/>
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="223"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="233"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="104"/>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="231" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="222"/>
-      <c r="G19" s="223"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="233"/>
     </row>
     <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="105"/>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="234" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="229"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="236"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="228" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="232"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="230"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="103" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="233" t="s">
+      <c r="B22" s="237" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="235"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="239"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="104"/>
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="231" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="223"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="233"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="104"/>
-      <c r="B24" s="221" t="s">
+      <c r="B24" s="231" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="222"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="223"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="233"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="104"/>
@@ -8346,11 +8346,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B4:G4"/>
@@ -8363,6 +8358,11 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -8398,118 +8398,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="222" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="238"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="254" t="str">
+      <c r="B2" s="240" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="256"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="242"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="254" t="str">
+      <c r="B3" s="240" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="242"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="251"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="260">
+      <c r="B5" s="249">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="262"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="251"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="238"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="265" t="s">
+      <c r="B7" s="254" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="267"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="256"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="243" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="245"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="263" t="s">
+      <c r="B10" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="264"/>
+      <c r="C10" s="253"/>
       <c r="D10" s="136" t="s">
         <v>73</v>
       </c>
@@ -8526,33 +8526,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="244"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="245"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="248"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="253"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="241" t="s">
+      <c r="B13" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="242"/>
+      <c r="C13" s="260"/>
       <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
@@ -8571,10 +8571,10 @@
       <c r="A14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="239" t="s">
+      <c r="B14" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="240"/>
+      <c r="C14" s="258"/>
       <c r="D14" s="7"/>
       <c r="E14" s="72"/>
       <c r="F14" s="77">
@@ -8586,10 +8586,10 @@
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="240"/>
+      <c r="C15" s="258"/>
       <c r="D15" s="7"/>
       <c r="E15" s="72"/>
       <c r="F15" s="77"/>
@@ -8599,10 +8599,10 @@
       <c r="A16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="240"/>
+      <c r="C16" s="258"/>
       <c r="D16" s="7"/>
       <c r="E16" s="72">
         <v>20</v>
@@ -8616,10 +8616,10 @@
       <c r="A17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="240"/>
+      <c r="C17" s="258"/>
       <c r="D17" s="7"/>
       <c r="E17" s="72">
         <v>30</v>
@@ -8633,10 +8633,10 @@
       <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="240"/>
+      <c r="C18" s="258"/>
       <c r="D18" s="7"/>
       <c r="E18" s="72"/>
       <c r="F18" s="77"/>
@@ -8646,10 +8646,10 @@
       <c r="A19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="240"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="7"/>
       <c r="E19" s="72"/>
       <c r="F19" s="77"/>
@@ -8659,10 +8659,10 @@
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="239" t="s">
+      <c r="B20" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="240"/>
+      <c r="C20" s="258"/>
       <c r="D20" s="7"/>
       <c r="E20" s="72"/>
       <c r="F20" s="77"/>
@@ -8672,10 +8672,10 @@
       <c r="A21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="240"/>
+      <c r="C21" s="258"/>
       <c r="D21" s="7"/>
       <c r="E21" s="72"/>
       <c r="F21" s="77"/>
@@ -8685,10 +8685,10 @@
       <c r="A22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="239" t="s">
+      <c r="B22" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="240"/>
+      <c r="C22" s="258"/>
       <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
@@ -8705,10 +8705,10 @@
       <c r="A23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="239" t="s">
+      <c r="B23" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="240"/>
+      <c r="C23" s="258"/>
       <c r="D23" s="7"/>
       <c r="E23" s="72"/>
       <c r="F23" s="77"/>
@@ -8718,10 +8718,10 @@
       <c r="A24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="239" t="s">
+      <c r="B24" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="240"/>
+      <c r="C24" s="258"/>
       <c r="D24" s="7"/>
       <c r="E24" s="72"/>
       <c r="F24" s="77"/>
@@ -8731,10 +8731,10 @@
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="239" t="s">
+      <c r="B25" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="240"/>
+      <c r="C25" s="258"/>
       <c r="D25" s="7"/>
       <c r="E25" s="72"/>
       <c r="F25" s="77"/>
@@ -8744,10 +8744,10 @@
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="240"/>
+      <c r="C26" s="258"/>
       <c r="D26" s="7"/>
       <c r="E26" s="72"/>
       <c r="F26" s="77"/>
@@ -8757,20 +8757,20 @@
       <c r="A27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="250"/>
+      <c r="C27" s="263"/>
       <c r="D27" s="8"/>
       <c r="E27" s="78"/>
       <c r="F27" s="77"/>
       <c r="G27" s="177"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="251" t="s">
+      <c r="B28" s="261" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="245"/>
+      <c r="C28" s="248"/>
       <c r="E28" s="191">
         <f>SUM(E13:E27)</f>
         <v>51</v>
@@ -8798,23 +8798,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="243" t="s">
+      <c r="B31" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="241" t="s">
+      <c r="B32" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="242"/>
+      <c r="C32" s="260"/>
       <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
@@ -8833,10 +8833,10 @@
       <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="240"/>
+      <c r="C33" s="258"/>
       <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
@@ -8853,10 +8853,10 @@
       <c r="A34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="239" t="s">
+      <c r="B34" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="240"/>
+      <c r="C34" s="258"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -8866,10 +8866,10 @@
       <c r="A35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="239" t="s">
+      <c r="B35" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="240"/>
+      <c r="C35" s="258"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -8879,10 +8879,10 @@
       <c r="A36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="239" t="s">
+      <c r="B36" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="240"/>
+      <c r="C36" s="258"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -8892,10 +8892,10 @@
       <c r="A37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="239" t="s">
+      <c r="B37" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="240"/>
+      <c r="C37" s="258"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -8905,10 +8905,10 @@
       <c r="A38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="239" t="s">
+      <c r="B38" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="240"/>
+      <c r="C38" s="258"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -8918,10 +8918,10 @@
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="240"/>
+      <c r="C39" s="258"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>10</v>
@@ -8935,20 +8935,20 @@
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="249" t="s">
+      <c r="B40" s="262" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="250"/>
+      <c r="C40" s="263"/>
       <c r="D40" s="8"/>
       <c r="E40" s="78"/>
       <c r="F40" s="78"/>
       <c r="G40" s="177"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="243" t="s">
+      <c r="B41" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="245"/>
+      <c r="C41" s="248"/>
       <c r="E41" s="192">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -8959,10 +8959,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="243" t="s">
+      <c r="B42" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="245"/>
+      <c r="C42" s="248"/>
       <c r="E42" s="192">
         <f>SUM(E28,E41)</f>
         <v>91</v>
@@ -8993,33 +8993,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="243" t="s">
+      <c r="B45" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="245"/>
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="247"/>
+      <c r="F45" s="247"/>
+      <c r="G45" s="248"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="243" t="s">
+      <c r="B46" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="245"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="247"/>
+      <c r="E46" s="247"/>
+      <c r="F46" s="247"/>
+      <c r="G46" s="248"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="241" t="s">
+      <c r="B47" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="242"/>
+      <c r="C47" s="260"/>
       <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
@@ -9036,10 +9036,10 @@
       <c r="A48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="239" t="s">
+      <c r="B48" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="240"/>
+      <c r="C48" s="258"/>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
@@ -9056,10 +9056,10 @@
       <c r="A49" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="240"/>
+      <c r="C49" s="258"/>
       <c r="D49" s="7" t="s">
         <v>129</v>
       </c>
@@ -9076,10 +9076,10 @@
       <c r="A50" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="239" t="s">
+      <c r="B50" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="240"/>
+      <c r="C50" s="258"/>
       <c r="D50" s="7"/>
       <c r="E50" s="72"/>
       <c r="F50" s="77"/>
@@ -9089,10 +9089,10 @@
       <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="239" t="s">
+      <c r="B51" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="240"/>
+      <c r="C51" s="258"/>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
@@ -9109,10 +9109,10 @@
       <c r="A52" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="239" t="s">
+      <c r="B52" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="240"/>
+      <c r="C52" s="258"/>
       <c r="D52" s="8" t="s">
         <v>131</v>
       </c>
@@ -9129,10 +9129,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="243" t="s">
+      <c r="B53" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="245"/>
+      <c r="C53" s="248"/>
       <c r="D53" s="79"/>
       <c r="E53" s="193">
         <f>SUM(E47:E52)</f>
@@ -9147,19 +9147,19 @@
       <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="249" t="s">
+      <c r="B54" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="250"/>
+      <c r="C54" s="263"/>
       <c r="D54" s="80"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="367"/>
+      <c r="F54" s="221"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="243" t="s">
+      <c r="B55" s="246" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="245"/>
+      <c r="C55" s="248"/>
       <c r="E55" s="191">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -9187,33 +9187,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="243" t="s">
+      <c r="B58" s="246" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="244"/>
-      <c r="D58" s="244"/>
-      <c r="E58" s="244"/>
-      <c r="F58" s="244"/>
-      <c r="G58" s="245"/>
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="247"/>
+      <c r="F58" s="247"/>
+      <c r="G58" s="248"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="251" t="s">
+      <c r="B59" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="252"/>
-      <c r="D59" s="252"/>
-      <c r="E59" s="252"/>
-      <c r="F59" s="252"/>
-      <c r="G59" s="252"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="264"/>
+      <c r="E59" s="264"/>
+      <c r="F59" s="264"/>
+      <c r="G59" s="264"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="241" t="s">
+      <c r="B60" s="259" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="242"/>
+      <c r="C60" s="260"/>
       <c r="D60" s="6"/>
       <c r="E60" s="75"/>
       <c r="F60" s="76"/>
@@ -9223,10 +9223,10 @@
       <c r="A61" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="239" t="s">
+      <c r="B61" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="240"/>
+      <c r="C61" s="258"/>
       <c r="D61" s="7" t="s">
         <v>311</v>
       </c>
@@ -9245,10 +9245,10 @@
       <c r="A62" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="249" t="s">
+      <c r="B62" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="250"/>
+      <c r="C62" s="263"/>
       <c r="D62" s="8"/>
       <c r="E62" s="78">
         <v>2</v>
@@ -9277,10 +9277,10 @@
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="241" t="s">
+      <c r="B64" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="242"/>
+      <c r="C64" s="260"/>
       <c r="D64" s="6" t="s">
         <v>312</v>
       </c>
@@ -9297,10 +9297,10 @@
       <c r="A65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="239" t="s">
+      <c r="B65" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="240"/>
+      <c r="C65" s="258"/>
       <c r="D65" s="7"/>
       <c r="E65" s="72">
         <v>4</v>
@@ -9314,10 +9314,10 @@
       <c r="A66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="239" t="s">
+      <c r="B66" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="240"/>
+      <c r="C66" s="258"/>
       <c r="D66" s="7"/>
       <c r="E66" s="72"/>
       <c r="F66" s="77"/>
@@ -9327,10 +9327,10 @@
       <c r="A67" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="239" t="s">
+      <c r="B67" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="240"/>
+      <c r="C67" s="258"/>
       <c r="D67" s="7"/>
       <c r="E67" s="72"/>
       <c r="F67" s="77"/>
@@ -9340,10 +9340,10 @@
       <c r="A68" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="239" t="s">
+      <c r="B68" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="240"/>
+      <c r="C68" s="258"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72"/>
       <c r="F68" s="77"/>
@@ -9353,20 +9353,20 @@
       <c r="A69" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="249" t="s">
+      <c r="B69" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="250"/>
+      <c r="C69" s="263"/>
       <c r="D69" s="8"/>
       <c r="E69" s="78"/>
       <c r="F69" s="81"/>
       <c r="G69" s="177"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="243" t="s">
+      <c r="B70" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="245"/>
+      <c r="C70" s="248"/>
       <c r="E70" s="191">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -9395,23 +9395,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="243" t="s">
+      <c r="B73" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="244"/>
-      <c r="D73" s="244"/>
-      <c r="E73" s="244"/>
-      <c r="F73" s="244"/>
-      <c r="G73" s="244"/>
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="247"/>
+      <c r="F73" s="247"/>
+      <c r="G73" s="247"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="241" t="s">
+      <c r="B74" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="242"/>
+      <c r="C74" s="260"/>
       <c r="D74" s="6"/>
       <c r="E74" s="75"/>
       <c r="F74" s="77"/>
@@ -9421,10 +9421,10 @@
       <c r="A75" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="239" t="s">
+      <c r="B75" s="257" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="240"/>
+      <c r="C75" s="258"/>
       <c r="D75" s="7" t="s">
         <v>311</v>
       </c>
@@ -9443,20 +9443,20 @@
       <c r="A76" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="249" t="s">
+      <c r="B76" s="262" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="250"/>
+      <c r="C76" s="263"/>
       <c r="D76" s="8"/>
       <c r="E76" s="78"/>
       <c r="F76" s="77"/>
       <c r="G76" s="177"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="243" t="s">
+      <c r="B77" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="245"/>
+      <c r="C77" s="248"/>
       <c r="D77" s="82"/>
       <c r="E77" s="195">
         <f>SUM(E74:E76)</f>
@@ -9471,10 +9471,10 @@
       <c r="A78" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="241" t="s">
+      <c r="B78" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="242"/>
+      <c r="C78" s="260"/>
       <c r="D78" s="6" t="s">
         <v>312</v>
       </c>
@@ -9493,10 +9493,10 @@
       <c r="A79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="239" t="s">
+      <c r="B79" s="257" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="240"/>
+      <c r="C79" s="258"/>
       <c r="D79" s="7"/>
       <c r="E79" s="72"/>
       <c r="F79" s="77"/>
@@ -9506,10 +9506,10 @@
       <c r="A80" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="239" t="s">
+      <c r="B80" s="257" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="240"/>
+      <c r="C80" s="258"/>
       <c r="D80" s="7"/>
       <c r="E80" s="72"/>
       <c r="F80" s="77"/>
@@ -9519,10 +9519,10 @@
       <c r="A81" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="239" t="s">
+      <c r="B81" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="240"/>
+      <c r="C81" s="258"/>
       <c r="D81" s="7"/>
       <c r="E81" s="72">
         <v>2</v>
@@ -9536,10 +9536,10 @@
       <c r="A82" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="239" t="s">
+      <c r="B82" s="257" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="240"/>
+      <c r="C82" s="258"/>
       <c r="D82" s="7"/>
       <c r="E82" s="72">
         <v>2</v>
@@ -9553,21 +9553,21 @@
       <c r="A83" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="249" t="s">
+      <c r="B83" s="262" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="250"/>
+      <c r="C83" s="263"/>
       <c r="D83" s="8"/>
       <c r="E83" s="78"/>
       <c r="F83" s="81"/>
       <c r="G83" s="177"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="243" t="s">
+      <c r="B84" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="244"/>
-      <c r="D84" s="245"/>
+      <c r="C84" s="247"/>
+      <c r="D84" s="248"/>
       <c r="E84" s="191">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -9581,11 +9581,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="243" t="s">
+      <c r="B86" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="244"/>
-      <c r="D86" s="245"/>
+      <c r="C86" s="247"/>
+      <c r="D86" s="248"/>
       <c r="E86" s="191">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -9597,11 +9597,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="243" t="s">
+      <c r="B88" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="244"/>
-      <c r="D88" s="245"/>
+      <c r="C88" s="247"/>
+      <c r="D88" s="248"/>
       <c r="E88" s="191">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -9619,12 +9619,12 @@
       <c r="A91" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="246" t="str">
+      <c r="B91" s="266" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="247"/>
-      <c r="D91" s="248"/>
+      <c r="C91" s="267"/>
+      <c r="D91" s="268"/>
       <c r="E91" s="74">
         <f>E88-E42</f>
         <v>-51</v>
@@ -9643,22 +9643,51 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B74:C74"/>
@@ -9675,51 +9704,22 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -9789,14 +9789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="271" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="272"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
@@ -9805,63 +9805,63 @@
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="275"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="254" t="str">
+      <c r="B3" s="240" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="242"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="273">
+      <c r="B5" s="276">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="275"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="278"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="282" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="269"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="272"/>
       <c r="G6" s="96"/>
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
@@ -9870,35 +9870,35 @@
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="278"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="243" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="245"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="253"/>
       <c r="D12" s="136" t="s">
         <v>73</v>
       </c>
@@ -9915,23 +9915,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="243" t="s">
+      <c r="B13" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="244"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
       <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="259" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="242"/>
+      <c r="C14" s="260"/>
       <c r="D14" s="112" t="s">
         <v>566</v>
       </c>
@@ -9950,10 +9950,10 @@
       <c r="A15" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="257" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="240"/>
+      <c r="C15" s="258"/>
       <c r="D15" s="112"/>
       <c r="E15" s="72">
         <v>2</v>
@@ -9967,10 +9967,10 @@
       <c r="A16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="257" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="240"/>
+      <c r="C16" s="258"/>
       <c r="D16" s="112"/>
       <c r="E16" s="72">
         <v>3</v>
@@ -9984,10 +9984,10 @@
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="257" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="240"/>
+      <c r="C17" s="258"/>
       <c r="D17" s="112"/>
       <c r="E17" s="72">
         <v>2</v>
@@ -10001,10 +10001,10 @@
       <c r="A18" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="257" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="240"/>
+      <c r="C18" s="258"/>
       <c r="D18" s="112"/>
       <c r="E18" s="72">
         <v>-6</v>
@@ -10018,10 +10018,10 @@
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="257" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="240"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="112">
         <v>28.4</v>
       </c>
@@ -10040,10 +10040,10 @@
       <c r="A20" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="239" t="s">
+      <c r="B20" s="257" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="240"/>
+      <c r="C20" s="258"/>
       <c r="D20" s="112"/>
       <c r="E20" s="72">
         <v>-6</v>
@@ -10057,10 +10057,10 @@
       <c r="A21" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="257" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="240"/>
+      <c r="C21" s="258"/>
       <c r="D21" s="112"/>
       <c r="E21" s="72">
         <v>-6</v>
@@ -10074,10 +10074,10 @@
       <c r="A22" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="239" t="s">
+      <c r="B22" s="257" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="240"/>
+      <c r="C22" s="258"/>
       <c r="D22" s="112"/>
       <c r="E22" s="72">
         <v>-4</v>
@@ -10091,10 +10091,10 @@
       <c r="A23" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="249" t="s">
+      <c r="B23" s="262" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="250"/>
+      <c r="C23" s="263"/>
       <c r="D23" s="112"/>
       <c r="E23" s="72">
         <v>-6</v>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="109"/>
-      <c r="B24" s="244" t="s">
+      <c r="B24" s="247" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="245"/>
+      <c r="C24" s="248"/>
       <c r="D24" s="111"/>
       <c r="E24" s="195">
         <f>SUM(E14:E23)</f>
@@ -10125,10 +10125,10 @@
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="241" t="s">
+      <c r="B25" s="259" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="242"/>
+      <c r="C25" s="260"/>
       <c r="D25" s="112"/>
       <c r="E25" s="72">
         <v>6</v>
@@ -10142,10 +10142,10 @@
       <c r="A26" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="257" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="240"/>
+      <c r="C26" s="258"/>
       <c r="D26" s="112"/>
       <c r="E26" s="72">
         <v>-3</v>
@@ -10159,10 +10159,10 @@
       <c r="A27" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="262" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="250"/>
+      <c r="C27" s="263"/>
       <c r="D27" s="112"/>
       <c r="E27" s="72">
         <v>6</v>
@@ -10174,10 +10174,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="109"/>
-      <c r="B28" s="244" t="s">
+      <c r="B28" s="247" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="245"/>
+      <c r="C28" s="248"/>
       <c r="D28" s="111"/>
       <c r="E28" s="195">
         <f>SUM(E24:E27)</f>
@@ -10193,10 +10193,10 @@
       <c r="A29" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="269" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="281"/>
+      <c r="C29" s="270"/>
       <c r="D29" s="112"/>
       <c r="E29" s="73">
         <v>1</v>
@@ -10208,10 +10208,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="109"/>
-      <c r="B30" s="244" t="s">
+      <c r="B30" s="247" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="245"/>
+      <c r="C30" s="248"/>
       <c r="D30" s="111"/>
       <c r="E30" s="195">
         <f>SUM(E28:E29)</f>
@@ -10228,6 +10228,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -10244,17 +10255,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -10287,12 +10287,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="268" t="s">
+      <c r="B1" s="271" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
       <c r="F1" s="96"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -10301,79 +10301,79 @@
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="275"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="254" t="str">
+      <c r="B3" s="240" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="256"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="273">
+      <c r="B5" s="276">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="275"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="278"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="283" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="269"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="272"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="278"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="281"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="243" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10381,10 +10381,10 @@
       <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="252" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="264"/>
+      <c r="C11" s="253"/>
       <c r="D11" s="11">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
@@ -10398,31 +10398,31 @@
       <c r="A12" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="286" t="s">
+      <c r="B12" s="293" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="287"/>
+      <c r="C12" s="294"/>
       <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="E12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="291" t="s">
+      <c r="B13" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="292"/>
-      <c r="D13" s="292"/>
-      <c r="E13" s="293"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="286"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="284" t="s">
+      <c r="B14" s="289" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="285"/>
+      <c r="C14" s="290"/>
       <c r="D14" s="93"/>
       <c r="E14" s="72">
         <v>1</v>
@@ -10432,21 +10432,21 @@
       <c r="A15" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="291" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="283"/>
+      <c r="C15" s="292"/>
       <c r="D15" s="93"/>
       <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="291" t="s">
+      <c r="B16" s="284" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="292"/>
-      <c r="D16" s="293"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="286"/>
       <c r="E16" s="196">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -10456,10 +10456,10 @@
       <c r="A17" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="284" t="s">
+      <c r="B17" s="289" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="285"/>
+      <c r="C17" s="290"/>
       <c r="D17" s="94"/>
       <c r="E17" s="72">
         <v>1</v>
@@ -10469,10 +10469,10 @@
       <c r="A18" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="288" t="s">
+      <c r="B18" s="287" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="289"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="94"/>
       <c r="E18" s="72">
         <v>-1</v>
@@ -10482,10 +10482,10 @@
       <c r="A19" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="288" t="s">
+      <c r="B19" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="289"/>
+      <c r="C19" s="288"/>
       <c r="D19" s="94"/>
       <c r="E19" s="72">
         <v>1</v>
@@ -10495,10 +10495,10 @@
       <c r="A20" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="288" t="s">
+      <c r="B20" s="287" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="289"/>
+      <c r="C20" s="288"/>
       <c r="D20" s="94"/>
       <c r="E20" s="72">
         <v>-1</v>
@@ -10508,10 +10508,10 @@
       <c r="A21" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="288" t="s">
+      <c r="B21" s="287" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="289"/>
+      <c r="C21" s="288"/>
       <c r="D21" s="94"/>
       <c r="E21" s="72">
         <v>1</v>
@@ -10521,10 +10521,10 @@
       <c r="A22" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="288" t="s">
+      <c r="B22" s="287" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="289"/>
+      <c r="C22" s="288"/>
       <c r="D22" s="94"/>
       <c r="E22" s="72">
         <v>1</v>
@@ -10534,10 +10534,10 @@
       <c r="A23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="288" t="s">
+      <c r="B23" s="287" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="289"/>
+      <c r="C23" s="288"/>
       <c r="D23" s="94"/>
       <c r="E23" s="72">
         <v>-1</v>
@@ -10547,10 +10547,10 @@
       <c r="A24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="282" t="s">
+      <c r="B24" s="291" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="283"/>
+      <c r="C24" s="292"/>
       <c r="D24" s="94"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -10558,11 +10558,11 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="291" t="s">
+      <c r="B25" s="284" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="286"/>
       <c r="E25" s="196">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -10573,10 +10573,10 @@
       <c r="A26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="286" t="s">
+      <c r="B26" s="293" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="287"/>
+      <c r="C26" s="294"/>
       <c r="D26" s="95"/>
       <c r="E26" s="191">
         <f>SUM(D12,E16,E25)</f>
@@ -10585,6 +10585,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B6:E6"/>
@@ -10601,14 +10609,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C1006350-697E-4D07-926A-51DA25DB4809}"/>
@@ -10642,146 +10642,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="302" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="306"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="303"/>
       <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="275"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="254" t="str">
+      <c r="B3" s="240" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="256"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="273">
+      <c r="B5" s="276">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="275"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="278"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="283" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="269"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="272"/>
       <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="278"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="281"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="243" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="295" t="s">
+      <c r="A10" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="297" t="s">
+      <c r="B10" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="298"/>
-      <c r="D10" s="307" t="s">
+      <c r="C10" s="305"/>
+      <c r="D10" s="295" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="295">
+      <c r="E10" s="300">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="296"/>
-      <c r="B11" s="299"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="296"/>
+      <c r="A11" s="301"/>
+      <c r="B11" s="306"/>
+      <c r="C11" s="307"/>
+      <c r="D11" s="296"/>
+      <c r="E11" s="301"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="301" t="s">
+      <c r="B12" s="297" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="303"/>
-      <c r="D12" s="304"/>
+      <c r="C12" s="298"/>
+      <c r="D12" s="299"/>
       <c r="E12" s="145">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="301" t="s">
+      <c r="B13" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="304"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="299"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="259" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="242"/>
+      <c r="C14" s="260"/>
       <c r="D14" s="112"/>
       <c r="E14" s="75">
         <v>1</v>
@@ -10791,10 +10791,10 @@
       <c r="A15" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="257" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="240"/>
+      <c r="C15" s="258"/>
       <c r="D15" s="112"/>
       <c r="E15" s="72">
         <v>-1</v>
@@ -10804,10 +10804,10 @@
       <c r="A16" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="257" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="240"/>
+      <c r="C16" s="258"/>
       <c r="D16" s="112"/>
       <c r="E16" s="72">
         <v>-1</v>
@@ -10817,10 +10817,10 @@
       <c r="A17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="257" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="240"/>
+      <c r="C17" s="258"/>
       <c r="D17" s="112"/>
       <c r="E17" s="72">
         <v>-1</v>
@@ -10830,10 +10830,10 @@
       <c r="A18" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="257" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="240"/>
+      <c r="C18" s="258"/>
       <c r="D18" s="112"/>
       <c r="E18" s="72">
         <v>2</v>
@@ -10843,10 +10843,10 @@
       <c r="A19" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="257" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="240"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="112"/>
       <c r="E19" s="72">
         <v>2</v>
@@ -10856,10 +10856,10 @@
       <c r="A20" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="239" t="s">
+      <c r="B20" s="257" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="240"/>
+      <c r="C20" s="258"/>
       <c r="D20" s="112"/>
       <c r="E20" s="72">
         <v>3</v>
@@ -10870,10 +10870,10 @@
       <c r="A21" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="257" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="240"/>
+      <c r="C21" s="258"/>
       <c r="D21" s="112"/>
       <c r="E21" s="72">
         <v>3</v>
@@ -10884,10 +10884,10 @@
       <c r="A22" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="239" t="s">
+      <c r="B22" s="257" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="240"/>
+      <c r="C22" s="258"/>
       <c r="D22" s="112"/>
       <c r="E22" s="72">
         <v>4</v>
@@ -10898,10 +10898,10 @@
       <c r="A23" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="239" t="s">
+      <c r="B23" s="257" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="240"/>
+      <c r="C23" s="258"/>
       <c r="D23" s="112"/>
       <c r="E23" s="72">
         <v>1</v>
@@ -10912,10 +10912,10 @@
       <c r="A24" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="239" t="s">
+      <c r="B24" s="257" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="240"/>
+      <c r="C24" s="258"/>
       <c r="D24" s="112"/>
       <c r="E24" s="72">
         <v>5</v>
@@ -10926,10 +10926,10 @@
       <c r="A25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="239" t="s">
+      <c r="B25" s="257" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="240"/>
+      <c r="C25" s="258"/>
       <c r="D25" s="112"/>
       <c r="E25" s="72">
         <v>-3</v>
@@ -10940,10 +10940,10 @@
       <c r="A26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="257" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="240"/>
+      <c r="C26" s="258"/>
       <c r="D26" s="112"/>
       <c r="E26" s="72">
         <v>4</v>
@@ -10954,10 +10954,10 @@
       <c r="A27" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="239" t="s">
+      <c r="B27" s="257" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="240"/>
+      <c r="C27" s="258"/>
       <c r="D27" s="112"/>
       <c r="E27" s="72">
         <v>-5</v>
@@ -10968,10 +10968,10 @@
       <c r="A28" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="239" t="s">
+      <c r="B28" s="257" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="240"/>
+      <c r="C28" s="258"/>
       <c r="D28" s="112"/>
       <c r="E28" s="72">
         <v>-2</v>
@@ -10981,10 +10981,10 @@
       <c r="A29" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="239" t="s">
+      <c r="B29" s="257" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="240"/>
+      <c r="C29" s="258"/>
       <c r="D29" s="112"/>
       <c r="E29" s="72"/>
     </row>
@@ -10992,10 +10992,10 @@
       <c r="A30" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="239" t="s">
+      <c r="B30" s="257" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="240"/>
+      <c r="C30" s="258"/>
       <c r="D30" s="112"/>
       <c r="E30" s="72"/>
     </row>
@@ -11003,10 +11003,10 @@
       <c r="A31" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="239" t="s">
+      <c r="B31" s="257" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="240"/>
+      <c r="C31" s="258"/>
       <c r="D31" s="112"/>
       <c r="E31" s="72">
         <v>-3</v>
@@ -11016,10 +11016,10 @@
       <c r="A32" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="257" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="240"/>
+      <c r="C32" s="258"/>
       <c r="D32" s="112"/>
       <c r="E32" s="72"/>
     </row>
@@ -11027,10 +11027,10 @@
       <c r="A33" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="257" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="240"/>
+      <c r="C33" s="258"/>
       <c r="D33" s="112"/>
       <c r="E33" s="72">
         <v>2</v>
@@ -11040,10 +11040,10 @@
       <c r="A34" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="239" t="s">
+      <c r="B34" s="257" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="240"/>
+      <c r="C34" s="258"/>
       <c r="D34" s="112"/>
       <c r="E34" s="72"/>
     </row>
@@ -11051,21 +11051,21 @@
       <c r="A35" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="249" t="s">
+      <c r="B35" s="262" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="250"/>
+      <c r="C35" s="263"/>
       <c r="D35" s="112"/>
       <c r="E35" s="78">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="301" t="s">
+      <c r="B36" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="303"/>
-      <c r="D36" s="304"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="299"/>
       <c r="E36" s="197">
         <f>SUM(E14:E35)</f>
         <v>6</v>
@@ -11075,10 +11075,10 @@
       <c r="A37" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="241" t="s">
+      <c r="B37" s="259" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="242"/>
+      <c r="C37" s="260"/>
       <c r="D37" s="112"/>
       <c r="E37" s="75">
         <v>-5</v>
@@ -11089,10 +11089,10 @@
       <c r="A38" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="239" t="s">
+      <c r="B38" s="257" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="240"/>
+      <c r="C38" s="258"/>
       <c r="D38" s="112"/>
       <c r="E38" s="72">
         <v>6</v>
@@ -11103,10 +11103,10 @@
       <c r="A39" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="257" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="240"/>
+      <c r="C39" s="258"/>
       <c r="D39" s="112"/>
       <c r="E39" s="72">
         <v>-5</v>
@@ -11117,10 +11117,10 @@
       <c r="A40" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="239" t="s">
+      <c r="B40" s="257" t="s">
         <v>337</v>
       </c>
-      <c r="C40" s="240"/>
+      <c r="C40" s="258"/>
       <c r="D40" s="112"/>
       <c r="E40" s="72">
         <v>5</v>
@@ -11131,10 +11131,10 @@
       <c r="A41" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="239" t="s">
+      <c r="B41" s="257" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="240"/>
+      <c r="C41" s="258"/>
       <c r="D41" s="112" t="s">
         <v>619</v>
       </c>
@@ -11148,10 +11148,10 @@
       <c r="A42" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B42" s="249" t="s">
+      <c r="B42" s="262" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="250"/>
+      <c r="C42" s="263"/>
       <c r="D42" s="112"/>
       <c r="E42" s="72">
         <v>5</v>
@@ -11159,32 +11159,32 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="301" t="s">
+      <c r="B43" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="303"/>
-      <c r="D43" s="304"/>
+      <c r="C43" s="298"/>
+      <c r="D43" s="299"/>
       <c r="E43" s="216">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="301" t="s">
+      <c r="B44" s="297" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="303"/>
-      <c r="D44" s="303"/>
-      <c r="E44" s="304"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="298"/>
+      <c r="E44" s="299"/>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B45" s="241" t="s">
+      <c r="B45" s="259" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="242"/>
+      <c r="C45" s="260"/>
       <c r="D45" s="112"/>
       <c r="E45" s="75"/>
     </row>
@@ -11192,10 +11192,10 @@
       <c r="A46" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="239" t="s">
+      <c r="B46" s="257" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="240"/>
+      <c r="C46" s="258"/>
       <c r="D46" s="112"/>
       <c r="E46" s="72"/>
     </row>
@@ -11203,10 +11203,10 @@
       <c r="A47" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="257" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="240"/>
+      <c r="C47" s="258"/>
       <c r="D47" s="112"/>
       <c r="E47" s="72"/>
       <c r="F47" s="53"/>
@@ -11215,10 +11215,10 @@
       <c r="A48" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="239" t="s">
+      <c r="B48" s="257" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="240"/>
+      <c r="C48" s="258"/>
       <c r="D48" s="112"/>
       <c r="E48" s="72"/>
     </row>
@@ -11226,10 +11226,10 @@
       <c r="A49" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="257" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="240"/>
+      <c r="C49" s="258"/>
       <c r="D49" s="112"/>
       <c r="E49" s="72">
         <v>65</v>
@@ -11240,10 +11240,10 @@
       <c r="A50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="239" t="s">
+      <c r="B50" s="257" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="240"/>
+      <c r="C50" s="258"/>
       <c r="D50" s="112"/>
       <c r="E50" s="72"/>
     </row>
@@ -11251,10 +11251,10 @@
       <c r="A51" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="239" t="s">
+      <c r="B51" s="257" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="240"/>
+      <c r="C51" s="258"/>
       <c r="D51" s="112"/>
       <c r="E51" s="72"/>
     </row>
@@ -11262,10 +11262,10 @@
       <c r="A52" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="239" t="s">
+      <c r="B52" s="257" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="240"/>
+      <c r="C52" s="258"/>
       <c r="D52" s="112"/>
       <c r="E52" s="72"/>
     </row>
@@ -11273,10 +11273,10 @@
       <c r="A53" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B53" s="239" t="s">
+      <c r="B53" s="257" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="240"/>
+      <c r="C53" s="258"/>
       <c r="D53" s="112"/>
       <c r="E53" s="72"/>
     </row>
@@ -11284,10 +11284,10 @@
       <c r="A54" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="239" t="s">
+      <c r="B54" s="257" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="240"/>
+      <c r="C54" s="258"/>
       <c r="D54" s="112"/>
       <c r="E54" s="72">
         <v>-45</v>
@@ -11298,10 +11298,10 @@
       <c r="A55" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="239" t="s">
+      <c r="B55" s="257" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="240"/>
+      <c r="C55" s="258"/>
       <c r="D55" s="112"/>
       <c r="E55" s="72"/>
     </row>
@@ -11309,10 +11309,10 @@
       <c r="A56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="239" t="s">
+      <c r="B56" s="257" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="240"/>
+      <c r="C56" s="258"/>
       <c r="D56" s="112"/>
       <c r="E56" s="72"/>
     </row>
@@ -11320,10 +11320,10 @@
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="239" t="s">
+      <c r="B57" s="257" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="240"/>
+      <c r="C57" s="258"/>
       <c r="D57" s="112"/>
       <c r="E57" s="72"/>
     </row>
@@ -11331,10 +11331,10 @@
       <c r="A58" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="239" t="s">
+      <c r="B58" s="257" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="240"/>
+      <c r="C58" s="258"/>
       <c r="D58" s="112"/>
       <c r="E58" s="72"/>
     </row>
@@ -11342,10 +11342,10 @@
       <c r="A59" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="239" t="s">
+      <c r="B59" s="257" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="240"/>
+      <c r="C59" s="258"/>
       <c r="D59" s="112"/>
       <c r="E59" s="72"/>
     </row>
@@ -11353,10 +11353,10 @@
       <c r="A60" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="257" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="240"/>
+      <c r="C60" s="258"/>
       <c r="D60" s="112"/>
       <c r="E60" s="72"/>
     </row>
@@ -11364,10 +11364,10 @@
       <c r="A61" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="239" t="s">
+      <c r="B61" s="257" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="240"/>
+      <c r="C61" s="258"/>
       <c r="D61" s="112"/>
       <c r="E61" s="72"/>
     </row>
@@ -11375,10 +11375,10 @@
       <c r="A62" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B62" s="239" t="s">
+      <c r="B62" s="257" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="240"/>
+      <c r="C62" s="258"/>
       <c r="D62" s="112"/>
       <c r="E62" s="72"/>
     </row>
@@ -11386,10 +11386,10 @@
       <c r="A63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B63" s="239" t="s">
+      <c r="B63" s="257" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="240"/>
+      <c r="C63" s="258"/>
       <c r="D63" s="112"/>
       <c r="E63" s="72"/>
     </row>
@@ -11397,10 +11397,10 @@
       <c r="A64" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="239" t="s">
+      <c r="B64" s="257" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="240"/>
+      <c r="C64" s="258"/>
       <c r="D64" s="112" t="s">
         <v>619</v>
       </c>
@@ -11414,40 +11414,40 @@
       <c r="A65" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="249" t="s">
+      <c r="B65" s="262" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="250"/>
+      <c r="C65" s="263"/>
       <c r="D65" s="112"/>
       <c r="E65" s="78"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="301" t="s">
+      <c r="B66" s="297" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="303"/>
-      <c r="D66" s="304"/>
+      <c r="C66" s="298"/>
+      <c r="D66" s="299"/>
       <c r="E66" s="198">
         <f>SUM(E45:E65)</f>
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="301" t="s">
+      <c r="B67" s="297" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="303"/>
-      <c r="D67" s="303"/>
-      <c r="E67" s="304"/>
+      <c r="C67" s="298"/>
+      <c r="D67" s="298"/>
+      <c r="E67" s="299"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B68" s="241" t="s">
+      <c r="B68" s="259" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="242"/>
+      <c r="C68" s="260"/>
       <c r="D68" s="112"/>
       <c r="E68" s="75">
         <v>54</v>
@@ -11458,10 +11458,10 @@
       <c r="A69" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="239" t="s">
+      <c r="B69" s="257" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="240"/>
+      <c r="C69" s="258"/>
       <c r="D69" s="112"/>
       <c r="E69" s="72"/>
     </row>
@@ -11469,10 +11469,10 @@
       <c r="A70" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="239" t="s">
+      <c r="B70" s="257" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="240"/>
+      <c r="C70" s="258"/>
       <c r="D70" s="112"/>
       <c r="E70" s="72"/>
     </row>
@@ -11480,10 +11480,10 @@
       <c r="A71" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="239" t="s">
+      <c r="B71" s="257" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="240"/>
+      <c r="C71" s="258"/>
       <c r="D71" s="112"/>
       <c r="E71" s="72">
         <v>54</v>
@@ -11494,10 +11494,10 @@
       <c r="A72" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B72" s="239" t="s">
+      <c r="B72" s="257" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="240"/>
+      <c r="C72" s="258"/>
       <c r="D72" s="112"/>
       <c r="E72" s="72"/>
     </row>
@@ -11505,10 +11505,10 @@
       <c r="A73" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B73" s="239" t="s">
+      <c r="B73" s="257" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="240"/>
+      <c r="C73" s="258"/>
       <c r="D73" s="112"/>
       <c r="E73" s="72"/>
     </row>
@@ -11516,10 +11516,10 @@
       <c r="A74" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B74" s="239" t="s">
+      <c r="B74" s="257" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="240"/>
+      <c r="C74" s="258"/>
       <c r="D74" s="112"/>
       <c r="E74" s="72">
         <v>-45</v>
@@ -11530,10 +11530,10 @@
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="239" t="s">
+      <c r="B75" s="257" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="240"/>
+      <c r="C75" s="258"/>
       <c r="D75" s="112"/>
       <c r="E75" s="72"/>
     </row>
@@ -11541,10 +11541,10 @@
       <c r="A76" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="239" t="s">
+      <c r="B76" s="257" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="240"/>
+      <c r="C76" s="258"/>
       <c r="D76" s="112"/>
       <c r="E76" s="72">
         <v>-54</v>
@@ -11555,10 +11555,10 @@
       <c r="A77" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="257" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="240"/>
+      <c r="C77" s="258"/>
       <c r="D77" s="112" t="s">
         <v>619</v>
       </c>
@@ -11572,30 +11572,30 @@
       <c r="A78" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B78" s="249" t="s">
+      <c r="B78" s="262" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="250"/>
+      <c r="C78" s="263"/>
       <c r="D78" s="112"/>
       <c r="E78" s="78"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="301" t="s">
+      <c r="B79" s="297" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="303"/>
-      <c r="D79" s="304"/>
+      <c r="C79" s="298"/>
+      <c r="D79" s="299"/>
       <c r="E79" s="199">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="301" t="s">
+      <c r="B80" s="297" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="303"/>
-      <c r="D80" s="304"/>
+      <c r="C80" s="298"/>
+      <c r="D80" s="299"/>
       <c r="E80" s="191">
         <f>SUM(E43,E66,E79)</f>
         <v>57</v>
@@ -11605,18 +11605,18 @@
       <c r="A81" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="280" t="s">
+      <c r="B81" s="269" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="294"/>
-      <c r="D81" s="281"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="270"/>
       <c r="E81" s="84"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="301" t="s">
+      <c r="B82" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="302"/>
+      <c r="C82" s="308"/>
       <c r="D82" s="184">
         <v>7.2</v>
       </c>
@@ -11626,33 +11626,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="301" t="s">
+      <c r="B83" s="297" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="303"/>
-      <c r="D83" s="304"/>
+      <c r="C83" s="298"/>
+      <c r="D83" s="299"/>
       <c r="E83" s="191">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="301" t="s">
+      <c r="B84" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="303"/>
-      <c r="D84" s="304"/>
+      <c r="C84" s="298"/>
+      <c r="D84" s="299"/>
       <c r="E84" s="191">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="301" t="s">
+      <c r="B85" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="303"/>
-      <c r="D85" s="304"/>
+      <c r="C85" s="298"/>
+      <c r="D85" s="299"/>
       <c r="E85" s="191">
         <f>E84-E83</f>
         <v>5</v>
@@ -11721,17 +11721,65 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B66:D66"/>
@@ -11748,65 +11796,17 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -11852,118 +11852,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="222" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="238"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="275"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="254" t="str">
+      <c r="B3" s="240" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="242"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="251"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="273">
+      <c r="B5" s="276">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="275"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="278"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="238"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="278"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="281"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="243" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="245"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="263" t="s">
+      <c r="B10" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="264"/>
+      <c r="C10" s="253"/>
       <c r="D10" s="136" t="s">
         <v>73</v>
       </c>
@@ -11980,24 +11980,24 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="244"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="245"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="248"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="243" t="s">
+      <c r="B12" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="248"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
@@ -12010,20 +12010,20 @@
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="328" t="s">
+      <c r="E13" s="310" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="329"/>
-      <c r="G13" s="330"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="312"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="B14" s="312" t="s">
+      <c r="B14" s="313" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="313"/>
+      <c r="C14" s="314"/>
       <c r="D14" s="146"/>
       <c r="E14" s="75">
         <v>5</v>
@@ -12037,10 +12037,10 @@
       <c r="A15" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="B15" s="312" t="s">
+      <c r="B15" s="313" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="313"/>
+      <c r="C15" s="314"/>
       <c r="D15" s="146"/>
       <c r="E15" s="72">
         <v>4</v>
@@ -12054,10 +12054,10 @@
       <c r="A16" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="326" t="s">
+      <c r="B16" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="327"/>
+      <c r="C16" s="325"/>
       <c r="D16" s="146"/>
       <c r="E16" s="78">
         <v>2</v>
@@ -12071,10 +12071,10 @@
       <c r="A17" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="318" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="317"/>
+      <c r="C17" s="319"/>
       <c r="D17" s="146"/>
       <c r="E17" s="200">
         <f>SUM(E14:E16)</f>
@@ -12090,10 +12090,10 @@
       <c r="A18" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="313" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="313"/>
+      <c r="C18" s="314"/>
       <c r="D18" s="146"/>
       <c r="E18" s="72">
         <v>5</v>
@@ -12107,10 +12107,10 @@
       <c r="A19" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="313" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="313"/>
+      <c r="C19" s="314"/>
       <c r="D19" s="146"/>
       <c r="E19" s="72">
         <v>94</v>
@@ -12124,10 +12124,10 @@
       <c r="A20" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="B20" s="312" t="s">
+      <c r="B20" s="313" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="313"/>
+      <c r="C20" s="314"/>
       <c r="D20" s="146"/>
       <c r="E20" s="72">
         <v>5</v>
@@ -12141,10 +12141,10 @@
       <c r="A21" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="B21" s="312" t="s">
+      <c r="B21" s="313" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="313"/>
+      <c r="C21" s="314"/>
       <c r="D21" s="146"/>
       <c r="E21" s="72">
         <v>8</v>
@@ -12158,10 +12158,10 @@
       <c r="A22" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="326" t="s">
+      <c r="B22" s="324" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="327"/>
+      <c r="C22" s="325"/>
       <c r="D22" s="146"/>
       <c r="E22" s="78">
         <v>6</v>
@@ -12175,10 +12175,10 @@
       <c r="A23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="318" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="317"/>
+      <c r="C23" s="319"/>
       <c r="D23" s="146"/>
       <c r="E23" s="200">
         <f>SUM(E18:E22)</f>
@@ -12194,10 +12194,10 @@
       <c r="A24" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="B24" s="312" t="s">
+      <c r="B24" s="313" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="313"/>
+      <c r="C24" s="314"/>
       <c r="D24" s="146"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -12211,10 +12211,10 @@
       <c r="A25" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="313" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="313"/>
+      <c r="C25" s="314"/>
       <c r="D25" s="146"/>
       <c r="E25" s="72">
         <v>5</v>
@@ -12228,10 +12228,10 @@
       <c r="A26" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="313"/>
+      <c r="C26" s="314"/>
       <c r="D26" s="146"/>
       <c r="E26" s="72">
         <v>6</v>
@@ -12245,10 +12245,10 @@
       <c r="A27" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="313"/>
+      <c r="C27" s="314"/>
       <c r="D27" s="146"/>
       <c r="E27" s="72">
         <v>3</v>
@@ -12262,10 +12262,10 @@
       <c r="A28" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="313" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="313"/>
+      <c r="C28" s="314"/>
       <c r="D28" s="146"/>
       <c r="E28" s="72">
         <v>7</v>
@@ -12279,10 +12279,10 @@
       <c r="A29" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="B29" s="312" t="s">
+      <c r="B29" s="313" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="313"/>
+      <c r="C29" s="314"/>
       <c r="D29" s="146"/>
       <c r="E29" s="72">
         <v>6</v>
@@ -12296,10 +12296,10 @@
       <c r="A30" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="312" t="s">
+      <c r="B30" s="313" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="313"/>
+      <c r="C30" s="314"/>
       <c r="D30" s="146"/>
       <c r="E30" s="72">
         <v>7</v>
@@ -12313,10 +12313,10 @@
       <c r="A31" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="B31" s="312" t="s">
+      <c r="B31" s="313" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="313"/>
+      <c r="C31" s="314"/>
       <c r="D31" s="146"/>
       <c r="E31" s="72">
         <v>6</v>
@@ -12330,10 +12330,10 @@
       <c r="A32" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="326" t="s">
+      <c r="B32" s="324" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="327"/>
+      <c r="C32" s="325"/>
       <c r="D32" s="146"/>
       <c r="E32" s="78">
         <v>7</v>
@@ -12347,10 +12347,10 @@
       <c r="A33" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="316" t="s">
+      <c r="B33" s="318" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="317"/>
+      <c r="C33" s="319"/>
       <c r="D33" s="7"/>
       <c r="E33" s="202">
         <f>SUM(E17,E23:E32)</f>
@@ -12366,10 +12366,10 @@
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="314" t="s">
+      <c r="B34" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="315"/>
+      <c r="C34" s="321"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72">
         <v>4</v>
@@ -12383,10 +12383,10 @@
       <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="314" t="s">
+      <c r="B35" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="315"/>
+      <c r="C35" s="321"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72">
         <v>4</v>
@@ -12400,10 +12400,10 @@
       <c r="A36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="314" t="s">
+      <c r="B36" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="315"/>
+      <c r="C36" s="321"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72">
         <v>20</v>
@@ -12417,10 +12417,10 @@
       <c r="A37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="314" t="s">
+      <c r="B37" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="315"/>
+      <c r="C37" s="321"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72">
         <v>30</v>
@@ -12434,10 +12434,10 @@
       <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="314" t="s">
+      <c r="B38" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="315"/>
+      <c r="C38" s="321"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72">
         <v>4</v>
@@ -12451,10 +12451,10 @@
       <c r="A39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="314" t="s">
+      <c r="B39" s="320" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="315"/>
+      <c r="C39" s="321"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>6</v>
@@ -12468,10 +12468,10 @@
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="314" t="s">
+      <c r="B40" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="315"/>
+      <c r="C40" s="321"/>
       <c r="D40" s="7"/>
       <c r="E40" s="72">
         <v>4</v>
@@ -12485,10 +12485,10 @@
       <c r="A41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="314" t="s">
+      <c r="B41" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="315"/>
+      <c r="C41" s="321"/>
       <c r="D41" s="7"/>
       <c r="E41" s="78">
         <v>6</v>
@@ -12502,27 +12502,27 @@
       <c r="A42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="314" t="s">
+      <c r="B42" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="315"/>
+      <c r="C42" s="321"/>
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="328" t="s">
+      <c r="E42" s="310" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="329"/>
-      <c r="G42" s="330"/>
+      <c r="F42" s="311"/>
+      <c r="G42" s="312"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="B43" s="312" t="s">
+      <c r="B43" s="313" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="313"/>
+      <c r="C43" s="314"/>
       <c r="D43" s="7"/>
       <c r="E43" s="72">
         <v>1</v>
@@ -12536,10 +12536,10 @@
       <c r="A44" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="B44" s="312" t="s">
+      <c r="B44" s="313" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="313"/>
+      <c r="C44" s="314"/>
       <c r="D44" s="7"/>
       <c r="E44" s="72">
         <v>4</v>
@@ -12553,10 +12553,10 @@
       <c r="A45" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="B45" s="312" t="s">
+      <c r="B45" s="313" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="313"/>
+      <c r="C45" s="314"/>
       <c r="D45" s="7"/>
       <c r="E45" s="72">
         <v>2</v>
@@ -12570,10 +12570,10 @@
       <c r="A46" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="B46" s="312" t="s">
+      <c r="B46" s="313" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="313"/>
+      <c r="C46" s="314"/>
       <c r="D46" s="7"/>
       <c r="E46" s="78">
         <v>3</v>
@@ -12587,10 +12587,10 @@
       <c r="A47" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="316" t="s">
+      <c r="B47" s="318" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="317"/>
+      <c r="C47" s="319"/>
       <c r="D47" s="7"/>
       <c r="E47" s="204">
         <f>SUM(E43:E46)</f>
@@ -12606,10 +12606,10 @@
       <c r="A48" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="B48" s="312" t="s">
+      <c r="B48" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="313"/>
+      <c r="C48" s="314"/>
       <c r="D48" s="7"/>
       <c r="E48" s="72">
         <v>2</v>
@@ -12623,10 +12623,10 @@
       <c r="A49" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="313" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="313"/>
+      <c r="C49" s="314"/>
       <c r="D49" s="7"/>
       <c r="E49" s="72">
         <v>3</v>
@@ -12640,10 +12640,10 @@
       <c r="A50" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="313" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="313"/>
+      <c r="C50" s="314"/>
       <c r="D50" s="7"/>
       <c r="E50" s="78">
         <v>4</v>
@@ -12657,10 +12657,10 @@
       <c r="A51" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B51" s="316" t="s">
+      <c r="B51" s="318" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="317"/>
+      <c r="C51" s="319"/>
       <c r="D51" s="7"/>
       <c r="E51" s="204">
         <f>SUM(E48:E50)</f>
@@ -12676,10 +12676,10 @@
       <c r="A52" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="B52" s="312" t="s">
+      <c r="B52" s="313" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="313"/>
+      <c r="C52" s="314"/>
       <c r="D52" s="7"/>
       <c r="E52" s="72">
         <v>4</v>
@@ -12693,10 +12693,10 @@
       <c r="A53" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="313" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="313"/>
+      <c r="C53" s="314"/>
       <c r="D53" s="7"/>
       <c r="E53" s="72">
         <v>6</v>
@@ -12710,10 +12710,10 @@
       <c r="A54" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="313"/>
+      <c r="C54" s="314"/>
       <c r="D54" s="7"/>
       <c r="E54" s="72">
         <v>7</v>
@@ -12727,10 +12727,10 @@
       <c r="A55" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B55" s="312" t="s">
+      <c r="B55" s="313" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="313"/>
+      <c r="C55" s="314"/>
       <c r="D55" s="7"/>
       <c r="E55" s="72">
         <v>8</v>
@@ -12744,10 +12744,10 @@
       <c r="A56" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="313" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="313"/>
+      <c r="C56" s="314"/>
       <c r="D56" s="7"/>
       <c r="E56" s="78">
         <v>9</v>
@@ -12761,10 +12761,10 @@
       <c r="A57" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="316" t="s">
+      <c r="B57" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="317"/>
+      <c r="C57" s="319"/>
       <c r="D57" s="7"/>
       <c r="E57" s="205">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -12780,10 +12780,10 @@
       <c r="A58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="314" t="s">
+      <c r="B58" s="320" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="315"/>
+      <c r="C58" s="321"/>
       <c r="D58" s="7"/>
       <c r="E58" s="72">
         <v>4</v>
@@ -12797,10 +12797,10 @@
       <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="314" t="s">
+      <c r="B59" s="320" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="315"/>
+      <c r="C59" s="321"/>
       <c r="D59" s="7"/>
       <c r="E59" s="72">
         <v>5</v>
@@ -12814,10 +12814,10 @@
       <c r="A60" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="314" t="s">
+      <c r="B60" s="320" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="315"/>
+      <c r="C60" s="321"/>
       <c r="D60" s="7"/>
       <c r="E60" s="72">
         <v>6</v>
@@ -12831,10 +12831,10 @@
       <c r="A61" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="314" t="s">
+      <c r="B61" s="320" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="315"/>
+      <c r="C61" s="321"/>
       <c r="D61" s="7"/>
       <c r="E61" s="72">
         <v>7</v>
@@ -12848,10 +12848,10 @@
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="314" t="s">
+      <c r="B62" s="320" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="315"/>
+      <c r="C62" s="321"/>
       <c r="D62" s="8"/>
       <c r="E62" s="78">
         <v>4</v>
@@ -12862,10 +12862,10 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="324" t="s">
+      <c r="B63" s="326" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="325"/>
+      <c r="C63" s="327"/>
       <c r="E63" s="191">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -12893,14 +12893,14 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="243" t="s">
+      <c r="B66" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="244"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="244"/>
-      <c r="F66" s="244"/>
-      <c r="G66" s="244"/>
+      <c r="C66" s="247"/>
+      <c r="D66" s="247"/>
+      <c r="E66" s="247"/>
+      <c r="F66" s="247"/>
+      <c r="G66" s="247"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
@@ -12913,18 +12913,18 @@
       <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="309" t="s">
+      <c r="E67" s="315" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="310"/>
-      <c r="G67" s="311"/>
+      <c r="F67" s="316"/>
+      <c r="G67" s="317"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="313" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="313"/>
+      <c r="C68" s="314"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72">
         <v>1</v>
@@ -12936,10 +12936,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="312" t="s">
+      <c r="B69" s="313" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="313">
+      <c r="C69" s="314">
         <v>2</v>
       </c>
       <c r="D69" s="7"/>
@@ -12953,10 +12953,10 @@
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="21"/>
-      <c r="B70" s="312" t="s">
+      <c r="B70" s="313" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="313">
+      <c r="C70" s="314">
         <v>3</v>
       </c>
       <c r="D70" s="7"/>
@@ -12970,10 +12970,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
-      <c r="B71" s="316" t="s">
+      <c r="B71" s="318" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="317">
+      <c r="C71" s="319">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -12990,10 +12990,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
-      <c r="B72" s="312" t="s">
+      <c r="B72" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="313">
+      <c r="C72" s="314">
         <v>4</v>
       </c>
       <c r="D72" s="7"/>
@@ -13007,10 +13007,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
-      <c r="B73" s="312" t="s">
+      <c r="B73" s="313" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="313">
+      <c r="C73" s="314">
         <v>5</v>
       </c>
       <c r="D73" s="7"/>
@@ -13024,10 +13024,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
-      <c r="B74" s="312" t="s">
+      <c r="B74" s="313" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="313">
+      <c r="C74" s="314">
         <v>6</v>
       </c>
       <c r="D74" s="7"/>
@@ -13041,10 +13041,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
-      <c r="B75" s="312" t="s">
+      <c r="B75" s="313" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="313">
+      <c r="C75" s="314">
         <v>7</v>
       </c>
       <c r="D75" s="7"/>
@@ -13058,10 +13058,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
-      <c r="B76" s="312" t="s">
+      <c r="B76" s="313" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="313">
+      <c r="C76" s="314">
         <v>4</v>
       </c>
       <c r="D76" s="7"/>
@@ -13075,10 +13075,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
-      <c r="B77" s="312" t="s">
+      <c r="B77" s="313" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="313">
+      <c r="C77" s="314">
         <v>4</v>
       </c>
       <c r="D77" s="7"/>
@@ -13092,10 +13092,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
-      <c r="B78" s="312" t="s">
+      <c r="B78" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="313">
+      <c r="C78" s="314">
         <v>6</v>
       </c>
       <c r="D78" s="7"/>
@@ -13109,10 +13109,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="312" t="s">
+      <c r="B79" s="313" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="313">
+      <c r="C79" s="314">
         <v>7</v>
       </c>
       <c r="D79" s="7"/>
@@ -13126,10 +13126,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="312" t="s">
+      <c r="B80" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="313">
+      <c r="C80" s="314">
         <v>8</v>
       </c>
       <c r="D80" s="7"/>
@@ -13143,10 +13143,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
-      <c r="B81" s="312" t="s">
+      <c r="B81" s="313" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="313">
+      <c r="C81" s="314">
         <v>9</v>
       </c>
       <c r="D81" s="7"/>
@@ -13160,10 +13160,10 @@
     </row>
     <row r="82" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="21"/>
-      <c r="B82" s="312" t="s">
+      <c r="B82" s="313" t="s">
         <v>201</v>
       </c>
-      <c r="C82" s="313">
+      <c r="C82" s="314">
         <v>5</v>
       </c>
       <c r="D82" s="7"/>
@@ -13177,10 +13177,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
-      <c r="B83" s="316" t="s">
+      <c r="B83" s="318" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="317">
+      <c r="C83" s="319">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -13199,25 +13199,25 @@
       <c r="A84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="318" t="s">
+      <c r="B84" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="319"/>
+      <c r="C84" s="329"/>
       <c r="D84" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="309" t="s">
+      <c r="E84" s="315" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="310"/>
-      <c r="G84" s="311"/>
+      <c r="F84" s="316"/>
+      <c r="G84" s="317"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="B85" s="312" t="s">
+      <c r="B85" s="313" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="313">
+      <c r="C85" s="314">
         <v>1</v>
       </c>
       <c r="D85" s="7"/>
@@ -13231,10 +13231,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
-      <c r="B86" s="312" t="s">
+      <c r="B86" s="313" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="313">
+      <c r="C86" s="314">
         <v>2</v>
       </c>
       <c r="D86" s="7"/>
@@ -13248,10 +13248,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
-      <c r="B87" s="312" t="s">
+      <c r="B87" s="313" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="313">
+      <c r="C87" s="314">
         <v>3</v>
       </c>
       <c r="D87" s="7"/>
@@ -13265,10 +13265,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
-      <c r="B88" s="312" t="s">
+      <c r="B88" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="313">
+      <c r="C88" s="314">
         <v>4</v>
       </c>
       <c r="D88" s="7"/>
@@ -13282,10 +13282,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
-      <c r="B89" s="312" t="s">
+      <c r="B89" s="313" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="313"/>
+      <c r="C89" s="314"/>
       <c r="D89" s="7"/>
       <c r="E89" s="72">
         <v>4</v>
@@ -13297,10 +13297,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
-      <c r="B90" s="312" t="s">
+      <c r="B90" s="313" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="313"/>
+      <c r="C90" s="314"/>
       <c r="D90" s="7"/>
       <c r="E90" s="72">
         <v>2</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
-      <c r="B91" s="312" t="s">
+      <c r="B91" s="313" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="313">
+      <c r="C91" s="314">
         <v>5</v>
       </c>
       <c r="D91" s="7"/>
@@ -13329,10 +13329,10 @@
     </row>
     <row r="92" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
-      <c r="B92" s="312" t="s">
+      <c r="B92" s="313" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="313">
+      <c r="C92" s="314">
         <v>7</v>
       </c>
       <c r="D92" s="7"/>
@@ -13346,10 +13346,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
-      <c r="B93" s="316" t="s">
+      <c r="B93" s="318" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="317">
+      <c r="C93" s="319">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -13366,10 +13366,10 @@
     </row>
     <row r="94" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
-      <c r="B94" s="312" t="s">
+      <c r="B94" s="313" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="313">
+      <c r="C94" s="314">
         <v>4</v>
       </c>
       <c r="D94" s="7"/>
@@ -13383,10 +13383,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
-      <c r="B95" s="316" t="s">
+      <c r="B95" s="318" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="317">
+      <c r="C95" s="319">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -13403,10 +13403,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
-      <c r="B96" s="312" t="s">
+      <c r="B96" s="313" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="313">
+      <c r="C96" s="314">
         <v>3</v>
       </c>
       <c r="D96" s="7"/>
@@ -13420,10 +13420,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
-      <c r="B97" s="312" t="s">
+      <c r="B97" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="313">
+      <c r="C97" s="314">
         <v>2</v>
       </c>
       <c r="D97" s="7"/>
@@ -13437,10 +13437,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
-      <c r="B98" s="312" t="s">
+      <c r="B98" s="313" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="313">
+      <c r="C98" s="314">
         <v>5</v>
       </c>
       <c r="D98" s="7"/>
@@ -13454,10 +13454,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
-      <c r="B99" s="312" t="s">
+      <c r="B99" s="313" t="s">
         <v>183</v>
       </c>
-      <c r="C99" s="313">
+      <c r="C99" s="314">
         <v>4</v>
       </c>
       <c r="D99" s="7"/>
@@ -13471,10 +13471,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="21"/>
-      <c r="B100" s="312" t="s">
+      <c r="B100" s="313" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="313">
+      <c r="C100" s="314">
         <v>2</v>
       </c>
       <c r="D100" s="7"/>
@@ -13488,10 +13488,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21"/>
-      <c r="B101" s="316" t="s">
+      <c r="B101" s="318" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="317">
+      <c r="C101" s="319">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -13510,10 +13510,10 @@
       <c r="A102" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="314" t="s">
+      <c r="B102" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="315"/>
+      <c r="C102" s="321"/>
       <c r="D102" s="7"/>
       <c r="E102" s="72">
         <v>3</v>
@@ -13527,10 +13527,10 @@
       <c r="A103" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="314" t="s">
+      <c r="B103" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="315"/>
+      <c r="C103" s="321"/>
       <c r="D103" s="7"/>
       <c r="E103" s="72">
         <v>4</v>
@@ -13544,10 +13544,10 @@
       <c r="A104" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="314" t="s">
+      <c r="B104" s="320" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="315"/>
+      <c r="C104" s="321"/>
       <c r="D104" s="7"/>
       <c r="E104" s="72">
         <v>5</v>
@@ -13561,10 +13561,10 @@
       <c r="A105" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="314" t="s">
+      <c r="B105" s="320" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="315"/>
+      <c r="C105" s="321"/>
       <c r="D105" s="7"/>
       <c r="E105" s="72">
         <v>5</v>
@@ -13578,10 +13578,10 @@
       <c r="A106" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="314" t="s">
+      <c r="B106" s="320" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="315"/>
+      <c r="C106" s="321"/>
       <c r="D106" s="7"/>
       <c r="E106" s="72">
         <v>2</v>
@@ -13595,10 +13595,10 @@
       <c r="A107" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="314" t="s">
+      <c r="B107" s="320" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="315"/>
+      <c r="C107" s="321"/>
       <c r="D107" s="7"/>
       <c r="E107" s="72">
         <v>10</v>
@@ -13612,10 +13612,10 @@
       <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="320" t="s">
+      <c r="B108" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="321"/>
+      <c r="C108" s="331"/>
       <c r="D108" s="8"/>
       <c r="E108" s="78">
         <v>4</v>
@@ -13626,10 +13626,10 @@
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="243" t="s">
+      <c r="B109" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="245"/>
+      <c r="C109" s="248"/>
       <c r="E109" s="192">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -13640,10 +13640,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="243" t="s">
+      <c r="B110" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="245"/>
+      <c r="C110" s="248"/>
       <c r="E110" s="192">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -13671,24 +13671,24 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="243" t="s">
+      <c r="B113" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="244"/>
-      <c r="D113" s="244"/>
-      <c r="E113" s="244"/>
-      <c r="F113" s="244"/>
-      <c r="G113" s="245"/>
+      <c r="C113" s="247"/>
+      <c r="D113" s="247"/>
+      <c r="E113" s="247"/>
+      <c r="F113" s="247"/>
+      <c r="G113" s="248"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="243" t="s">
+      <c r="B114" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="244"/>
-      <c r="D114" s="244"/>
-      <c r="E114" s="244"/>
-      <c r="F114" s="244"/>
-      <c r="G114" s="245"/>
+      <c r="C114" s="247"/>
+      <c r="D114" s="247"/>
+      <c r="E114" s="247"/>
+      <c r="F114" s="247"/>
+      <c r="G114" s="248"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
@@ -13701,18 +13701,18 @@
       <c r="D115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="309" t="s">
+      <c r="E115" s="315" t="s">
         <v>285</v>
       </c>
-      <c r="F115" s="310"/>
-      <c r="G115" s="311"/>
+      <c r="F115" s="316"/>
+      <c r="G115" s="317"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
-      <c r="B116" s="312" t="s">
+      <c r="B116" s="313" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="313">
+      <c r="C116" s="314">
         <v>1</v>
       </c>
       <c r="D116" s="7"/>
@@ -13726,10 +13726,10 @@
     </row>
     <row r="117" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="21"/>
-      <c r="B117" s="312" t="s">
+      <c r="B117" s="313" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="313">
+      <c r="C117" s="314">
         <v>2</v>
       </c>
       <c r="D117" s="7"/>
@@ -13743,10 +13743,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
-      <c r="B118" s="316" t="s">
+      <c r="B118" s="318" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="317">
+      <c r="C118" s="319">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -13765,25 +13765,25 @@
       <c r="A119" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="318" t="s">
+      <c r="B119" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="319"/>
+      <c r="C119" s="329"/>
       <c r="D119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="309" t="s">
+      <c r="E119" s="315" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="310"/>
-      <c r="G119" s="311"/>
+      <c r="F119" s="316"/>
+      <c r="G119" s="317"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
-      <c r="B120" s="312" t="s">
+      <c r="B120" s="313" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="313">
+      <c r="C120" s="314">
         <v>3</v>
       </c>
       <c r="D120" s="7"/>
@@ -13797,10 +13797,10 @@
     </row>
     <row r="121" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="21"/>
-      <c r="B121" s="312" t="s">
+      <c r="B121" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="313">
+      <c r="C121" s="314">
         <v>4</v>
       </c>
       <c r="D121" s="7"/>
@@ -13814,10 +13814,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
-      <c r="B122" s="316" t="s">
+      <c r="B122" s="318" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="317">
+      <c r="C122" s="319">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -13836,10 +13836,10 @@
       <c r="A123" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="314" t="s">
+      <c r="B123" s="320" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="315"/>
+      <c r="C123" s="321"/>
       <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
@@ -13857,10 +13857,10 @@
       <c r="A124" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="314" t="s">
+      <c r="B124" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="315"/>
+      <c r="C124" s="321"/>
       <c r="D124" s="7"/>
       <c r="E124" s="72">
         <v>5</v>
@@ -13874,10 +13874,10 @@
       <c r="A125" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="314" t="s">
+      <c r="B125" s="320" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="315"/>
+      <c r="C125" s="321"/>
       <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
@@ -13895,25 +13895,25 @@
       <c r="A126" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="318" t="s">
+      <c r="B126" s="328" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="319"/>
+      <c r="C126" s="329"/>
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="309" t="s">
+      <c r="E126" s="315" t="s">
         <v>285</v>
       </c>
-      <c r="F126" s="310"/>
-      <c r="G126" s="311"/>
+      <c r="F126" s="316"/>
+      <c r="G126" s="317"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
-      <c r="B127" s="312" t="s">
+      <c r="B127" s="313" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="313">
+      <c r="C127" s="314">
         <v>1</v>
       </c>
       <c r="D127" s="7"/>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="21"/>
-      <c r="B128" s="312" t="s">
+      <c r="B128" s="313" t="s">
         <v>266</v>
       </c>
-      <c r="C128" s="313">
+      <c r="C128" s="314">
         <v>4</v>
       </c>
       <c r="D128" s="7"/>
@@ -13944,10 +13944,10 @@
     </row>
     <row r="129" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="21"/>
-      <c r="B129" s="312" t="s">
+      <c r="B129" s="313" t="s">
         <v>267</v>
       </c>
-      <c r="C129" s="313">
+      <c r="C129" s="314">
         <v>2</v>
       </c>
       <c r="D129" s="7"/>
@@ -13961,10 +13961,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
-      <c r="B130" s="316" t="s">
+      <c r="B130" s="318" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="317">
+      <c r="C130" s="319">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -13981,10 +13981,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="243" t="s">
+      <c r="B131" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="245"/>
+      <c r="C131" s="248"/>
       <c r="D131" s="79"/>
       <c r="E131" s="208">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -13999,10 +13999,10 @@
       <c r="A132" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="249" t="s">
+      <c r="B132" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="250"/>
+      <c r="C132" s="263"/>
       <c r="D132" s="80"/>
       <c r="E132" s="78">
         <v>3</v>
@@ -14012,10 +14012,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="243" t="s">
+      <c r="B133" s="246" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="245"/>
+      <c r="C133" s="248"/>
       <c r="E133" s="191">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -14043,33 +14043,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="243" t="s">
+      <c r="B136" s="246" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="244"/>
-      <c r="D136" s="244"/>
-      <c r="E136" s="244"/>
-      <c r="F136" s="244"/>
-      <c r="G136" s="245"/>
+      <c r="C136" s="247"/>
+      <c r="D136" s="247"/>
+      <c r="E136" s="247"/>
+      <c r="F136" s="247"/>
+      <c r="G136" s="248"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="251" t="s">
+      <c r="B137" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="252"/>
-      <c r="D137" s="252"/>
-      <c r="E137" s="252"/>
-      <c r="F137" s="252"/>
-      <c r="G137" s="252"/>
+      <c r="C137" s="264"/>
+      <c r="D137" s="264"/>
+      <c r="E137" s="264"/>
+      <c r="F137" s="264"/>
+      <c r="G137" s="264"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="314" t="s">
+      <c r="B138" s="320" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="315"/>
+      <c r="C138" s="321"/>
       <c r="D138" s="6"/>
       <c r="E138" s="75">
         <v>2</v>
@@ -14083,25 +14083,25 @@
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="318" t="s">
+      <c r="B139" s="328" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="319"/>
+      <c r="C139" s="329"/>
       <c r="D139" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E139" s="309" t="s">
+      <c r="E139" s="315" t="s">
         <v>286</v>
       </c>
-      <c r="F139" s="310"/>
-      <c r="G139" s="311"/>
+      <c r="F139" s="316"/>
+      <c r="G139" s="317"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
-      <c r="B140" s="312" t="s">
+      <c r="B140" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="C140" s="313"/>
+      <c r="C140" s="314"/>
       <c r="D140" s="7"/>
       <c r="E140" s="72">
         <v>2</v>
@@ -14113,10 +14113,10 @@
     </row>
     <row r="141" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
-      <c r="B141" s="312" t="s">
+      <c r="B141" s="313" t="s">
         <v>516</v>
       </c>
-      <c r="C141" s="313"/>
+      <c r="C141" s="314"/>
       <c r="D141" s="7"/>
       <c r="E141" s="72">
         <v>3</v>
@@ -14128,10 +14128,10 @@
     </row>
     <row r="142" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
-      <c r="B142" s="312" t="s">
+      <c r="B142" s="313" t="s">
         <v>518</v>
       </c>
-      <c r="C142" s="313"/>
+      <c r="C142" s="314"/>
       <c r="D142" s="7"/>
       <c r="E142" s="72">
         <v>2</v>
@@ -14143,10 +14143,10 @@
     </row>
     <row r="143" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21"/>
-      <c r="B143" s="312" t="s">
+      <c r="B143" s="313" t="s">
         <v>517</v>
       </c>
-      <c r="C143" s="313"/>
+      <c r="C143" s="314"/>
       <c r="D143" s="7"/>
       <c r="E143" s="72">
         <v>2</v>
@@ -14158,10 +14158,10 @@
     </row>
     <row r="144" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="21"/>
-      <c r="B144" s="312" t="s">
+      <c r="B144" s="313" t="s">
         <v>519</v>
       </c>
-      <c r="C144" s="313"/>
+      <c r="C144" s="314"/>
       <c r="D144" s="7"/>
       <c r="E144" s="72">
         <v>4</v>
@@ -14173,10 +14173,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
-      <c r="B145" s="316" t="s">
+      <c r="B145" s="318" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="317">
+      <c r="C145" s="319">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -14193,10 +14193,10 @@
     </row>
     <row r="146" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
-      <c r="B146" s="312" t="s">
+      <c r="B146" s="313" t="s">
         <v>520</v>
       </c>
-      <c r="C146" s="313">
+      <c r="C146" s="314">
         <v>5</v>
       </c>
       <c r="D146" s="7"/>
@@ -14210,10 +14210,10 @@
     </row>
     <row r="147" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="21"/>
-      <c r="B147" s="312" t="s">
+      <c r="B147" s="313" t="s">
         <v>521</v>
       </c>
-      <c r="C147" s="313"/>
+      <c r="C147" s="314"/>
       <c r="D147" s="7"/>
       <c r="E147" s="72">
         <v>5</v>
@@ -14225,10 +14225,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
-      <c r="B148" s="316" t="s">
+      <c r="B148" s="318" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="317">
+      <c r="C148" s="319">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -14245,10 +14245,10 @@
     </row>
     <row r="149" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
-      <c r="B149" s="312" t="s">
+      <c r="B149" s="313" t="s">
         <v>522</v>
       </c>
-      <c r="C149" s="313"/>
+      <c r="C149" s="314"/>
       <c r="D149" s="7"/>
       <c r="E149" s="72">
         <v>1</v>
@@ -14260,10 +14260,10 @@
     </row>
     <row r="150" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
-      <c r="B150" s="312" t="s">
+      <c r="B150" s="313" t="s">
         <v>523</v>
       </c>
-      <c r="C150" s="313"/>
+      <c r="C150" s="314"/>
       <c r="D150" s="7"/>
       <c r="E150" s="72">
         <v>4</v>
@@ -14275,10 +14275,10 @@
     </row>
     <row r="151" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="21"/>
-      <c r="B151" s="312" t="s">
+      <c r="B151" s="313" t="s">
         <v>524</v>
       </c>
-      <c r="C151" s="313"/>
+      <c r="C151" s="314"/>
       <c r="D151" s="7"/>
       <c r="E151" s="72">
         <v>1</v>
@@ -14290,10 +14290,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
-      <c r="B152" s="316" t="s">
+      <c r="B152" s="318" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="317">
+      <c r="C152" s="319">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -14310,10 +14310,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
-      <c r="B153" s="316" t="s">
+      <c r="B153" s="318" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="317">
+      <c r="C153" s="319">
         <v>1</v>
       </c>
       <c r="D153" s="7"/>
@@ -14327,10 +14327,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
-      <c r="B154" s="316" t="s">
+      <c r="B154" s="318" t="s">
         <v>525</v>
       </c>
-      <c r="C154" s="317">
+      <c r="C154" s="319">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -14349,10 +14349,10 @@
       <c r="A155" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="314" t="s">
+      <c r="B155" s="320" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="315"/>
+      <c r="C155" s="321"/>
       <c r="D155" s="8"/>
       <c r="E155" s="78">
         <v>2</v>
@@ -14388,18 +14388,18 @@
       <c r="D157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E157" s="309" t="s">
+      <c r="E157" s="315" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="310"/>
-      <c r="G157" s="311"/>
+      <c r="F157" s="316"/>
+      <c r="G157" s="317"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
-      <c r="B158" s="312" t="s">
+      <c r="B158" s="313" t="s">
         <v>229</v>
       </c>
-      <c r="C158" s="313">
+      <c r="C158" s="314">
         <v>2</v>
       </c>
       <c r="D158" s="7"/>
@@ -14413,10 +14413,10 @@
     </row>
     <row r="159" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
-      <c r="B159" s="312" t="s">
+      <c r="B159" s="313" t="s">
         <v>230</v>
       </c>
-      <c r="C159" s="313">
+      <c r="C159" s="314">
         <v>4</v>
       </c>
       <c r="D159" s="7"/>
@@ -14430,10 +14430,10 @@
     </row>
     <row r="160" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
-      <c r="B160" s="312" t="s">
+      <c r="B160" s="313" t="s">
         <v>231</v>
       </c>
-      <c r="C160" s="313">
+      <c r="C160" s="314">
         <v>2</v>
       </c>
       <c r="D160" s="7"/>
@@ -14447,10 +14447,10 @@
     </row>
     <row r="161" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
-      <c r="B161" s="312" t="s">
+      <c r="B161" s="313" t="s">
         <v>232</v>
       </c>
-      <c r="C161" s="313">
+      <c r="C161" s="314">
         <v>3</v>
       </c>
       <c r="D161" s="7"/>
@@ -14464,10 +14464,10 @@
     </row>
     <row r="162" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
-      <c r="B162" s="312" t="s">
+      <c r="B162" s="313" t="s">
         <v>248</v>
       </c>
-      <c r="C162" s="313"/>
+      <c r="C162" s="314"/>
       <c r="D162" s="7"/>
       <c r="E162" s="72">
         <v>4</v>
@@ -14479,10 +14479,10 @@
     </row>
     <row r="163" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21"/>
-      <c r="B163" s="312" t="s">
+      <c r="B163" s="313" t="s">
         <v>249</v>
       </c>
-      <c r="C163" s="313"/>
+      <c r="C163" s="314"/>
       <c r="D163" s="7"/>
       <c r="E163" s="72">
         <v>3</v>
@@ -14494,10 +14494,10 @@
     </row>
     <row r="164" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21"/>
-      <c r="B164" s="312" t="s">
+      <c r="B164" s="313" t="s">
         <v>250</v>
       </c>
-      <c r="C164" s="313"/>
+      <c r="C164" s="314"/>
       <c r="D164" s="7"/>
       <c r="E164" s="72">
         <v>1</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="165" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
-      <c r="B165" s="312" t="s">
+      <c r="B165" s="313" t="s">
         <v>233</v>
       </c>
-      <c r="C165" s="313">
+      <c r="C165" s="314">
         <v>4</v>
       </c>
       <c r="D165" s="7"/>
@@ -14526,10 +14526,10 @@
     </row>
     <row r="166" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="21"/>
-      <c r="B166" s="312" t="s">
+      <c r="B166" s="313" t="s">
         <v>234</v>
       </c>
-      <c r="C166" s="313">
+      <c r="C166" s="314">
         <v>5</v>
       </c>
       <c r="D166" s="7"/>
@@ -14543,10 +14543,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21"/>
-      <c r="B167" s="316" t="s">
+      <c r="B167" s="318" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="317">
+      <c r="C167" s="319">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -14563,10 +14563,10 @@
     </row>
     <row r="168" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
-      <c r="B168" s="312" t="s">
+      <c r="B168" s="313" t="s">
         <v>236</v>
       </c>
-      <c r="C168" s="313">
+      <c r="C168" s="314">
         <v>4</v>
       </c>
       <c r="D168" s="7"/>
@@ -14580,10 +14580,10 @@
     </row>
     <row r="169" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21"/>
-      <c r="B169" s="312" t="s">
+      <c r="B169" s="313" t="s">
         <v>237</v>
       </c>
-      <c r="C169" s="313">
+      <c r="C169" s="314">
         <v>7</v>
       </c>
       <c r="D169" s="7"/>
@@ -14597,10 +14597,10 @@
     </row>
     <row r="170" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="21"/>
-      <c r="B170" s="312" t="s">
+      <c r="B170" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="C170" s="313">
+      <c r="C170" s="314">
         <v>9</v>
       </c>
       <c r="D170" s="7"/>
@@ -14614,10 +14614,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21"/>
-      <c r="B171" s="316" t="s">
+      <c r="B171" s="318" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="317">
+      <c r="C171" s="319">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -14634,10 +14634,10 @@
     </row>
     <row r="172" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="21"/>
-      <c r="B172" s="312" t="s">
+      <c r="B172" s="313" t="s">
         <v>240</v>
       </c>
-      <c r="C172" s="313">
+      <c r="C172" s="314">
         <v>5</v>
       </c>
       <c r="D172" s="7"/>
@@ -14651,10 +14651,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
-      <c r="B173" s="316" t="s">
+      <c r="B173" s="318" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="317">
+      <c r="C173" s="319">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -14671,10 +14671,10 @@
     </row>
     <row r="174" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
-      <c r="B174" s="312" t="s">
+      <c r="B174" s="313" t="s">
         <v>242</v>
       </c>
-      <c r="C174" s="313">
+      <c r="C174" s="314">
         <v>4</v>
       </c>
       <c r="D174" s="7"/>
@@ -14688,10 +14688,10 @@
     </row>
     <row r="175" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
-      <c r="B175" s="312" t="s">
+      <c r="B175" s="313" t="s">
         <v>243</v>
       </c>
-      <c r="C175" s="313">
+      <c r="C175" s="314">
         <v>5</v>
       </c>
       <c r="D175" s="7"/>
@@ -14705,10 +14705,10 @@
     </row>
     <row r="176" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
-      <c r="B176" s="312" t="s">
+      <c r="B176" s="313" t="s">
         <v>244</v>
       </c>
-      <c r="C176" s="313">
+      <c r="C176" s="314">
         <v>6</v>
       </c>
       <c r="D176" s="7"/>
@@ -14722,10 +14722,10 @@
     </row>
     <row r="177" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
-      <c r="B177" s="312" t="s">
+      <c r="B177" s="313" t="s">
         <v>245</v>
       </c>
-      <c r="C177" s="313">
+      <c r="C177" s="314">
         <v>7</v>
       </c>
       <c r="D177" s="7"/>
@@ -14739,10 +14739,10 @@
     </row>
     <row r="178" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="21"/>
-      <c r="B178" s="312" t="s">
+      <c r="B178" s="313" t="s">
         <v>246</v>
       </c>
-      <c r="C178" s="313">
+      <c r="C178" s="314">
         <v>1</v>
       </c>
       <c r="D178" s="7"/>
@@ -14756,10 +14756,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21"/>
-      <c r="B179" s="316" t="s">
+      <c r="B179" s="318" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="317">
+      <c r="C179" s="319">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -14778,10 +14778,10 @@
       <c r="A180" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B180" s="314" t="s">
+      <c r="B180" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="315"/>
+      <c r="C180" s="321"/>
       <c r="D180" s="7"/>
       <c r="E180" s="72">
         <v>4</v>
@@ -14795,10 +14795,10 @@
       <c r="A181" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="314" t="s">
+      <c r="B181" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="315"/>
+      <c r="C181" s="321"/>
       <c r="D181" s="7"/>
       <c r="E181" s="72">
         <v>4</v>
@@ -14812,10 +14812,10 @@
       <c r="A182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="314" t="s">
+      <c r="B182" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="315"/>
+      <c r="C182" s="321"/>
       <c r="D182" s="7"/>
       <c r="E182" s="72">
         <v>1</v>
@@ -14829,10 +14829,10 @@
       <c r="A183" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="314" t="s">
+      <c r="B183" s="320" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="315"/>
+      <c r="C183" s="321"/>
       <c r="D183" s="7"/>
       <c r="E183" s="72">
         <v>2</v>
@@ -14846,10 +14846,10 @@
       <c r="A184" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B184" s="320" t="s">
+      <c r="B184" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="321"/>
+      <c r="C184" s="331"/>
       <c r="D184" s="8"/>
       <c r="E184" s="78">
         <v>1</v>
@@ -14860,10 +14860,10 @@
       <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="243" t="s">
+      <c r="B185" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="245"/>
+      <c r="C185" s="248"/>
       <c r="E185" s="191">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -14893,23 +14893,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="243" t="s">
+      <c r="B189" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="244"/>
-      <c r="D189" s="244"/>
-      <c r="E189" s="244"/>
-      <c r="F189" s="244"/>
-      <c r="G189" s="244"/>
+      <c r="C189" s="247"/>
+      <c r="D189" s="247"/>
+      <c r="E189" s="247"/>
+      <c r="F189" s="247"/>
+      <c r="G189" s="247"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="314" t="s">
+      <c r="B190" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="315"/>
+      <c r="C190" s="321"/>
       <c r="D190" s="6"/>
       <c r="E190" s="75">
         <v>1</v>
@@ -14923,10 +14923,10 @@
       <c r="A191" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B191" s="318" t="s">
+      <c r="B191" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="319"/>
+      <c r="C191" s="329"/>
       <c r="D191" s="7" t="s">
         <v>311</v>
       </c>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="21"/>
-      <c r="B192" s="312" t="s">
+      <c r="B192" s="313" t="s">
         <v>516</v>
       </c>
-      <c r="C192" s="313"/>
+      <c r="C192" s="314"/>
       <c r="D192" s="7"/>
       <c r="E192" s="72">
         <v>2</v>
@@ -14957,10 +14957,10 @@
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
-      <c r="B193" s="312" t="s">
+      <c r="B193" s="313" t="s">
         <v>518</v>
       </c>
-      <c r="C193" s="313"/>
+      <c r="C193" s="314"/>
       <c r="D193" s="7"/>
       <c r="E193" s="72">
         <v>1</v>
@@ -14972,10 +14972,10 @@
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
-      <c r="B194" s="312" t="s">
+      <c r="B194" s="313" t="s">
         <v>517</v>
       </c>
-      <c r="C194" s="313"/>
+      <c r="C194" s="314"/>
       <c r="D194" s="7"/>
       <c r="E194" s="72">
         <v>2</v>
@@ -14987,10 +14987,10 @@
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="21"/>
-      <c r="B195" s="312" t="s">
+      <c r="B195" s="313" t="s">
         <v>519</v>
       </c>
-      <c r="C195" s="313"/>
+      <c r="C195" s="314"/>
       <c r="D195" s="7"/>
       <c r="E195" s="72">
         <v>3</v>
@@ -15002,10 +15002,10 @@
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="21"/>
-      <c r="B196" s="312" t="s">
+      <c r="B196" s="313" t="s">
         <v>269</v>
       </c>
-      <c r="C196" s="313">
+      <c r="C196" s="314">
         <f>SUM(C192:C195)</f>
         <v>0</v>
       </c>
@@ -15020,10 +15020,10 @@
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="21"/>
-      <c r="B197" s="312" t="s">
+      <c r="B197" s="313" t="s">
         <v>520</v>
       </c>
-      <c r="C197" s="313">
+      <c r="C197" s="314">
         <v>5</v>
       </c>
       <c r="D197" s="7"/>
@@ -15037,10 +15037,10 @@
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
-      <c r="B198" s="312" t="s">
+      <c r="B198" s="313" t="s">
         <v>521</v>
       </c>
-      <c r="C198" s="313"/>
+      <c r="C198" s="314"/>
       <c r="D198" s="7"/>
       <c r="E198" s="72">
         <v>1</v>
@@ -15052,10 +15052,10 @@
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="21"/>
-      <c r="B199" s="312" t="s">
+      <c r="B199" s="313" t="s">
         <v>270</v>
       </c>
-      <c r="C199" s="313">
+      <c r="C199" s="314">
         <f>SUM(C197:C198)</f>
         <v>5</v>
       </c>
@@ -15070,10 +15070,10 @@
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
-      <c r="B200" s="312" t="s">
+      <c r="B200" s="313" t="s">
         <v>522</v>
       </c>
-      <c r="C200" s="313"/>
+      <c r="C200" s="314"/>
       <c r="D200" s="7"/>
       <c r="E200" s="72">
         <v>4</v>
@@ -15085,10 +15085,10 @@
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
-      <c r="B201" s="312" t="s">
+      <c r="B201" s="313" t="s">
         <v>523</v>
       </c>
-      <c r="C201" s="313"/>
+      <c r="C201" s="314"/>
       <c r="D201" s="7"/>
       <c r="E201" s="72">
         <v>1</v>
@@ -15100,10 +15100,10 @@
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="21"/>
-      <c r="B202" s="312" t="s">
+      <c r="B202" s="313" t="s">
         <v>524</v>
       </c>
-      <c r="C202" s="313"/>
+      <c r="C202" s="314"/>
       <c r="D202" s="7"/>
       <c r="E202" s="72">
         <v>2</v>
@@ -15115,10 +15115,10 @@
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="21"/>
-      <c r="B203" s="312" t="s">
+      <c r="B203" s="313" t="s">
         <v>271</v>
       </c>
-      <c r="C203" s="313">
+      <c r="C203" s="314">
         <f>SUM(C200:C202)</f>
         <v>0</v>
       </c>
@@ -15133,10 +15133,10 @@
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="21"/>
-      <c r="B204" s="312" t="s">
+      <c r="B204" s="313" t="s">
         <v>272</v>
       </c>
-      <c r="C204" s="313">
+      <c r="C204" s="314">
         <v>1</v>
       </c>
       <c r="D204" s="7"/>
@@ -15150,10 +15150,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21"/>
-      <c r="B205" s="316" t="s">
+      <c r="B205" s="318" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="317">
+      <c r="C205" s="319">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -15170,10 +15170,10 @@
       <c r="A206" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="314" t="s">
+      <c r="B206" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="315"/>
+      <c r="C206" s="321"/>
       <c r="D206" s="8"/>
       <c r="E206" s="78">
         <v>4</v>
@@ -15184,10 +15184,10 @@
       <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="243" t="s">
+      <c r="B207" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="245"/>
+      <c r="C207" s="248"/>
       <c r="D207" s="82"/>
       <c r="E207" s="195">
         <f>SUM(E190:E206)</f>
@@ -15209,18 +15209,18 @@
       <c r="D208" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E208" s="309" t="s">
+      <c r="E208" s="315" t="s">
         <v>287</v>
       </c>
-      <c r="F208" s="310"/>
-      <c r="G208" s="311"/>
+      <c r="F208" s="316"/>
+      <c r="G208" s="317"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
-      <c r="B209" s="312" t="s">
+      <c r="B209" s="313" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="313">
+      <c r="C209" s="314">
         <v>4</v>
       </c>
       <c r="D209" s="7"/>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
-      <c r="B210" s="312" t="s">
+      <c r="B210" s="313" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="313">
+      <c r="C210" s="314">
         <v>6</v>
       </c>
       <c r="D210" s="7"/>
@@ -15251,10 +15251,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="21"/>
-      <c r="B211" s="312" t="s">
+      <c r="B211" s="313" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="313">
+      <c r="C211" s="314">
         <v>7</v>
       </c>
       <c r="D211" s="7"/>
@@ -15268,10 +15268,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="21"/>
-      <c r="B212" s="312" t="s">
+      <c r="B212" s="313" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="313">
+      <c r="C212" s="314">
         <v>9</v>
       </c>
       <c r="D212" s="7"/>
@@ -15285,10 +15285,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="21"/>
-      <c r="B213" s="312" t="s">
+      <c r="B213" s="313" t="s">
         <v>226</v>
       </c>
-      <c r="C213" s="313"/>
+      <c r="C213" s="314"/>
       <c r="D213" s="7"/>
       <c r="E213" s="72">
         <v>5</v>
@@ -15300,10 +15300,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
-      <c r="B214" s="312" t="s">
+      <c r="B214" s="313" t="s">
         <v>227</v>
       </c>
-      <c r="C214" s="313"/>
+      <c r="C214" s="314"/>
       <c r="D214" s="7"/>
       <c r="E214" s="72">
         <v>7</v>
@@ -15315,10 +15315,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
-      <c r="B215" s="312" t="s">
+      <c r="B215" s="313" t="s">
         <v>228</v>
       </c>
-      <c r="C215" s="313">
+      <c r="C215" s="314">
         <v>6</v>
       </c>
       <c r="D215" s="7"/>
@@ -15332,10 +15332,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="21"/>
-      <c r="B216" s="312" t="s">
+      <c r="B216" s="313" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="313">
+      <c r="C216" s="314">
         <v>5</v>
       </c>
       <c r="D216" s="7"/>
@@ -15349,10 +15349,10 @@
     </row>
     <row r="217" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="21"/>
-      <c r="B217" s="312" t="s">
+      <c r="B217" s="313" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="313">
+      <c r="C217" s="314">
         <v>3</v>
       </c>
       <c r="D217" s="7"/>
@@ -15366,10 +15366,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="21"/>
-      <c r="B218" s="316" t="s">
+      <c r="B218" s="318" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="317">
+      <c r="C218" s="319">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -15386,10 +15386,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="21"/>
-      <c r="B219" s="312" t="s">
+      <c r="B219" s="313" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="313">
+      <c r="C219" s="314">
         <v>5</v>
       </c>
       <c r="D219" s="7"/>
@@ -15403,10 +15403,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
-      <c r="B220" s="312" t="s">
+      <c r="B220" s="313" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="313">
+      <c r="C220" s="314">
         <v>6</v>
       </c>
       <c r="D220" s="7"/>
@@ -15420,10 +15420,10 @@
     </row>
     <row r="221" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="21"/>
-      <c r="B221" s="312" t="s">
+      <c r="B221" s="313" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="313">
+      <c r="C221" s="314">
         <v>7</v>
       </c>
       <c r="D221" s="7"/>
@@ -15437,10 +15437,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="21"/>
-      <c r="B222" s="316" t="s">
+      <c r="B222" s="318" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="317">
+      <c r="C222" s="319">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -15457,10 +15457,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="21"/>
-      <c r="B223" s="312" t="s">
+      <c r="B223" s="313" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="313">
+      <c r="C223" s="314">
         <v>3</v>
       </c>
       <c r="D223" s="7"/>
@@ -15474,10 +15474,10 @@
     </row>
     <row r="224" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="21"/>
-      <c r="B224" s="312" t="s">
+      <c r="B224" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="313">
+      <c r="C224" s="314">
         <v>2</v>
       </c>
       <c r="D224" s="7"/>
@@ -15491,10 +15491,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21"/>
-      <c r="B225" s="316" t="s">
+      <c r="B225" s="318" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="317">
+      <c r="C225" s="319">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -15511,10 +15511,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
-      <c r="B226" s="312" t="s">
+      <c r="B226" s="313" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="313">
+      <c r="C226" s="314">
         <v>4</v>
       </c>
       <c r="D226" s="7"/>
@@ -15528,10 +15528,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="21"/>
-      <c r="B227" s="312" t="s">
+      <c r="B227" s="313" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="313">
+      <c r="C227" s="314">
         <v>4</v>
       </c>
       <c r="D227" s="7"/>
@@ -15545,10 +15545,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
-      <c r="B228" s="312" t="s">
+      <c r="B228" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="313">
+      <c r="C228" s="314">
         <v>5</v>
       </c>
       <c r="D228" s="7"/>
@@ -15562,10 +15562,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
-      <c r="B229" s="312" t="s">
+      <c r="B229" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="313">
+      <c r="C229" s="314">
         <v>7</v>
       </c>
       <c r="D229" s="7"/>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="230" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="21"/>
-      <c r="B230" s="312" t="s">
+      <c r="B230" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="313">
+      <c r="C230" s="314">
         <v>6</v>
       </c>
       <c r="D230" s="7"/>
@@ -15596,10 +15596,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="21"/>
-      <c r="B231" s="316" t="s">
+      <c r="B231" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="317">
+      <c r="C231" s="319">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -15618,10 +15618,10 @@
       <c r="A232" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B232" s="314" t="s">
+      <c r="B232" s="320" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="315"/>
+      <c r="C232" s="321"/>
       <c r="D232" s="7"/>
       <c r="E232" s="72">
         <v>4</v>
@@ -15635,10 +15635,10 @@
       <c r="A233" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B233" s="314" t="s">
+      <c r="B233" s="320" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="315"/>
+      <c r="C233" s="321"/>
       <c r="D233" s="7"/>
       <c r="E233" s="72">
         <v>5</v>
@@ -15652,10 +15652,10 @@
       <c r="A234" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B234" s="314" t="s">
+      <c r="B234" s="320" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="315"/>
+      <c r="C234" s="321"/>
       <c r="D234" s="7"/>
       <c r="E234" s="72">
         <v>2</v>
@@ -15669,10 +15669,10 @@
       <c r="A235" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B235" s="314" t="s">
+      <c r="B235" s="320" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="315"/>
+      <c r="C235" s="321"/>
       <c r="D235" s="7"/>
       <c r="E235" s="72">
         <v>2</v>
@@ -15686,10 +15686,10 @@
       <c r="A236" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B236" s="320" t="s">
+      <c r="B236" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="321"/>
+      <c r="C236" s="331"/>
       <c r="D236" s="8"/>
       <c r="E236" s="78">
         <v>2</v>
@@ -15700,11 +15700,11 @@
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="243" t="s">
+      <c r="B237" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="244"/>
-      <c r="D237" s="245"/>
+      <c r="C237" s="247"/>
+      <c r="D237" s="248"/>
       <c r="E237" s="191">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -15718,11 +15718,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="243" t="s">
+      <c r="B239" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="244"/>
-      <c r="D239" s="245"/>
+      <c r="C239" s="247"/>
+      <c r="D239" s="248"/>
       <c r="E239" s="191">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -15734,11 +15734,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="243" t="s">
+      <c r="B241" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="244"/>
-      <c r="D241" s="245"/>
+      <c r="C241" s="247"/>
+      <c r="D241" s="248"/>
       <c r="E241" s="191">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -15756,12 +15756,12 @@
       <c r="A244" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="246" t="str">
+      <c r="B244" s="266" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="247"/>
-      <c r="D244" s="248"/>
+      <c r="C244" s="267"/>
+      <c r="D244" s="268"/>
       <c r="E244" s="74">
         <f>E241-E110</f>
         <v>-51</v>
@@ -15791,6 +15791,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B176:C176"/>
@@ -15815,221 +16030,6 @@
     <mergeCell ref="B163:C163"/>
     <mergeCell ref="B164:C164"/>
     <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B244">
@@ -16079,14 +16079,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="271" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="272"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
@@ -16095,63 +16095,63 @@
       <c r="A2" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="275"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="254" t="str">
+      <c r="B3" s="240" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="242"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="273">
+      <c r="B5" s="276">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="275"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="278"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="282" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="269"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="272"/>
       <c r="G6" s="96"/>
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
@@ -16160,35 +16160,35 @@
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="278"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="243" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="245"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="253"/>
       <c r="D12" s="136" t="s">
         <v>73</v>
       </c>
@@ -16205,13 +16205,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="243" t="s">
+      <c r="B13" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="244"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
       <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16225,11 +16225,11 @@
       <c r="D14" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="E14" s="331" t="s">
+      <c r="E14" s="340" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="332"/>
-      <c r="G14" s="333"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="342"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
@@ -16389,10 +16389,10 @@
       <c r="A25" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B25" s="336" t="s">
+      <c r="B25" s="332" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="337"/>
+      <c r="C25" s="333"/>
       <c r="D25" s="112"/>
       <c r="E25" s="206">
         <f>SUM(E15:E24)</f>
@@ -16408,10 +16408,10 @@
       <c r="A26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="314" t="s">
+      <c r="B26" s="320" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="315"/>
+      <c r="C26" s="321"/>
       <c r="D26" s="112"/>
       <c r="E26" s="78">
         <v>-6</v>
@@ -16425,18 +16425,18 @@
       <c r="A27" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="318" t="s">
+      <c r="B27" s="328" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="319"/>
+      <c r="C27" s="329"/>
       <c r="D27" s="112">
         <v>28.4</v>
       </c>
-      <c r="E27" s="331" t="s">
+      <c r="E27" s="340" t="s">
         <v>568</v>
       </c>
-      <c r="F27" s="332"/>
-      <c r="G27" s="333"/>
+      <c r="F27" s="341"/>
+      <c r="G27" s="342"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
@@ -16560,10 +16560,10 @@
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="336" t="s">
+      <c r="B36" s="332" t="s">
         <v>546</v>
       </c>
-      <c r="C36" s="337"/>
+      <c r="C36" s="333"/>
       <c r="D36" s="112"/>
       <c r="E36" s="200">
         <f>SUM(E28:E35)</f>
@@ -16579,10 +16579,10 @@
       <c r="A37" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="314" t="s">
+      <c r="B37" s="320" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="315"/>
+      <c r="C37" s="321"/>
       <c r="D37" s="112"/>
       <c r="E37" s="72">
         <v>-6</v>
@@ -16596,10 +16596,10 @@
       <c r="A38" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="314" t="s">
+      <c r="B38" s="320" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="315"/>
+      <c r="C38" s="321"/>
       <c r="D38" s="112"/>
       <c r="E38" s="72">
         <v>-6</v>
@@ -16613,10 +16613,10 @@
       <c r="A39" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="314" t="s">
+      <c r="B39" s="320" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="315"/>
+      <c r="C39" s="321"/>
       <c r="D39" s="112"/>
       <c r="E39" s="72">
         <v>-4</v>
@@ -16630,10 +16630,10 @@
       <c r="A40" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="320" t="s">
+      <c r="B40" s="330" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="321"/>
+      <c r="C40" s="331"/>
       <c r="D40" s="112"/>
       <c r="E40" s="72">
         <v>-6</v>
@@ -16645,10 +16645,10 @@
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="109"/>
-      <c r="B41" s="244" t="s">
+      <c r="B41" s="247" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="245"/>
+      <c r="C41" s="248"/>
       <c r="D41" s="111"/>
       <c r="E41" s="195">
         <f>SUM(E36:E40,E25,E26)</f>
@@ -16664,10 +16664,10 @@
       <c r="A42" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="340" t="s">
+      <c r="B42" s="338" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="341"/>
+      <c r="C42" s="339"/>
       <c r="D42" s="112"/>
       <c r="E42" s="72">
         <v>6</v>
@@ -16681,10 +16681,10 @@
       <c r="A43" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="314" t="s">
+      <c r="B43" s="320" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="315"/>
+      <c r="C43" s="321"/>
       <c r="D43" s="112"/>
       <c r="E43" s="72">
         <v>-3</v>
@@ -16698,10 +16698,10 @@
       <c r="A44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="320" t="s">
+      <c r="B44" s="330" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="321"/>
+      <c r="C44" s="331"/>
       <c r="D44" s="112"/>
       <c r="E44" s="72">
         <v>6</v>
@@ -16713,10 +16713,10 @@
     </row>
     <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="109"/>
-      <c r="B45" s="244" t="s">
+      <c r="B45" s="247" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="245"/>
+      <c r="C45" s="248"/>
       <c r="D45" s="111"/>
       <c r="E45" s="195">
         <f>SUM(E41:E44)</f>
@@ -16732,10 +16732,10 @@
       <c r="A46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="338" t="s">
+      <c r="B46" s="336" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="339"/>
+      <c r="C46" s="337"/>
       <c r="D46" s="112"/>
       <c r="E46" s="73">
         <v>1</v>
@@ -16747,10 +16747,10 @@
     </row>
     <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="109"/>
-      <c r="B47" s="244" t="s">
+      <c r="B47" s="247" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="245"/>
+      <c r="C47" s="248"/>
       <c r="D47" s="111"/>
       <c r="E47" s="195">
         <f>SUM(E45:E46)</f>
@@ -16770,6 +16770,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
@@ -16786,36 +16816,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -16850,41 +16850,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="222" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="238"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="273" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="275"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="108" t="s">
@@ -16894,37 +16894,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260">
+      <c r="B4" s="249">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="262"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="251"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="106" t="s">
@@ -16934,72 +16934,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="278"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="238"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="224"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="348" t="s">
+      <c r="B7" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="349"/>
-      <c r="F7" s="349"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="349"/>
-      <c r="I7" s="349"/>
-      <c r="J7" s="349"/>
-      <c r="K7" s="349"/>
-      <c r="L7" s="349"/>
-      <c r="M7" s="350"/>
+      <c r="C7" s="351"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="351"/>
+      <c r="K7" s="351"/>
+      <c r="L7" s="351"/>
+      <c r="M7" s="352"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="361" t="s">
+      <c r="B8" s="347" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
-      <c r="G8" s="362"/>
-      <c r="H8" s="362"/>
-      <c r="I8" s="362"/>
-      <c r="J8" s="362"/>
-      <c r="K8" s="362"/>
-      <c r="L8" s="362"/>
-      <c r="M8" s="363"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="348"/>
+      <c r="J8" s="348"/>
+      <c r="K8" s="348"/>
+      <c r="L8" s="348"/>
+      <c r="M8" s="349"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -17007,21 +17007,21 @@
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="252" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="360"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
-      <c r="G10" s="360"/>
-      <c r="H10" s="360"/>
-      <c r="I10" s="360"/>
-      <c r="J10" s="360"/>
-      <c r="K10" s="360"/>
-      <c r="L10" s="360"/>
-      <c r="M10" s="264"/>
+      <c r="B10" s="343"/>
+      <c r="C10" s="343"/>
+      <c r="D10" s="343"/>
+      <c r="E10" s="343"/>
+      <c r="F10" s="343"/>
+      <c r="G10" s="343"/>
+      <c r="H10" s="343"/>
+      <c r="I10" s="343"/>
+      <c r="J10" s="343"/>
+      <c r="K10" s="343"/>
+      <c r="L10" s="343"/>
+      <c r="M10" s="253"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="107" t="s">
@@ -17036,23 +17036,23 @@
       <c r="D11" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="357" t="s">
+      <c r="E11" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
-      <c r="H11" s="358"/>
-      <c r="I11" s="358"/>
-      <c r="J11" s="358"/>
-      <c r="K11" s="358"/>
-      <c r="L11" s="358"/>
-      <c r="M11" s="359"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="345"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="345"/>
+      <c r="J11" s="345"/>
+      <c r="K11" s="345"/>
+      <c r="L11" s="345"/>
+      <c r="M11" s="346"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="353" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="352"/>
+      <c r="B12" s="354"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -17066,8 +17066,8 @@
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="346"/>
-      <c r="B13" s="347"/>
+      <c r="A13" s="359"/>
+      <c r="B13" s="360"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -17081,8 +17081,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="342"/>
-      <c r="B14" s="343"/>
+      <c r="A14" s="361"/>
+      <c r="B14" s="362"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -17096,8 +17096,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="342"/>
-      <c r="B15" s="343"/>
+      <c r="A15" s="361"/>
+      <c r="B15" s="362"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -17111,8 +17111,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="342"/>
-      <c r="B16" s="343"/>
+      <c r="A16" s="361"/>
+      <c r="B16" s="362"/>
       <c r="C16" s="60" t="s">
         <v>513</v>
       </c>
@@ -17128,8 +17128,8 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="342"/>
-      <c r="B17" s="343"/>
+      <c r="A17" s="361"/>
+      <c r="B17" s="362"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -17143,8 +17143,8 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="342"/>
-      <c r="B18" s="343"/>
+      <c r="A18" s="361"/>
+      <c r="B18" s="362"/>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
@@ -17160,8 +17160,8 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="342"/>
-      <c r="B19" s="343"/>
+      <c r="A19" s="361"/>
+      <c r="B19" s="362"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -17175,8 +17175,8 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="342"/>
-      <c r="B20" s="343"/>
+      <c r="A20" s="361"/>
+      <c r="B20" s="362"/>
       <c r="C20" s="60" t="s">
         <v>425</v>
       </c>
@@ -17192,8 +17192,8 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="342"/>
-      <c r="B21" s="343"/>
+      <c r="A21" s="361"/>
+      <c r="B21" s="362"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -17207,8 +17207,8 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="342"/>
-      <c r="B22" s="343"/>
+      <c r="A22" s="361"/>
+      <c r="B22" s="362"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -17222,8 +17222,8 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="342"/>
-      <c r="B23" s="343"/>
+      <c r="A23" s="361"/>
+      <c r="B23" s="362"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -17237,8 +17237,8 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="342"/>
-      <c r="B24" s="343"/>
+      <c r="A24" s="361"/>
+      <c r="B24" s="362"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -17252,8 +17252,8 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="342"/>
-      <c r="B25" s="343"/>
+      <c r="A25" s="361"/>
+      <c r="B25" s="362"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -17267,8 +17267,8 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="342"/>
-      <c r="B26" s="343"/>
+      <c r="A26" s="361"/>
+      <c r="B26" s="362"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -17282,8 +17282,8 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="342"/>
-      <c r="B27" s="343"/>
+      <c r="A27" s="361"/>
+      <c r="B27" s="362"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -17297,8 +17297,8 @@
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="342"/>
-      <c r="B28" s="343"/>
+      <c r="A28" s="361"/>
+      <c r="B28" s="362"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -17312,8 +17312,8 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="342"/>
-      <c r="B29" s="343"/>
+      <c r="A29" s="361"/>
+      <c r="B29" s="362"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -17327,8 +17327,8 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="342"/>
-      <c r="B30" s="343"/>
+      <c r="A30" s="361"/>
+      <c r="B30" s="362"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -17342,8 +17342,8 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="344"/>
-      <c r="B31" s="345"/>
+      <c r="A31" s="363"/>
+      <c r="B31" s="364"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -17363,10 +17363,10 @@
       <c r="B32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="251" t="s">
+      <c r="C32" s="261" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="253"/>
+      <c r="D32" s="265"/>
       <c r="E32" s="60" t="s">
         <v>398</v>
       </c>
@@ -17463,10 +17463,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="243" t="s">
+      <c r="C37" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="245"/>
+      <c r="D37" s="248"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -17756,10 +17756,10 @@
       <c r="B52" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="243" t="s">
+      <c r="C52" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="245"/>
+      <c r="D52" s="248"/>
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -17849,10 +17849,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="243" t="s">
+      <c r="C57" s="246" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="245"/>
+      <c r="D57" s="248"/>
       <c r="E57" s="59"/>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -17866,10 +17866,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="243" t="s">
+      <c r="C58" s="246" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="245"/>
+      <c r="D58" s="248"/>
       <c r="E58" s="59"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -18099,10 +18099,10 @@
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="243" t="s">
+      <c r="C70" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="244"/>
+      <c r="D70" s="247"/>
       <c r="E70" s="59"/>
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
@@ -18402,21 +18402,21 @@
       <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="353" t="s">
+      <c r="A86" s="355" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="354"/>
-      <c r="C86" s="354"/>
-      <c r="D86" s="354"/>
-      <c r="E86" s="355"/>
-      <c r="F86" s="355"/>
-      <c r="G86" s="355"/>
-      <c r="H86" s="355"/>
-      <c r="I86" s="355"/>
-      <c r="J86" s="355"/>
-      <c r="K86" s="355"/>
-      <c r="L86" s="355"/>
-      <c r="M86" s="356"/>
+      <c r="B86" s="356"/>
+      <c r="C86" s="356"/>
+      <c r="D86" s="356"/>
+      <c r="E86" s="357"/>
+      <c r="F86" s="357"/>
+      <c r="G86" s="357"/>
+      <c r="H86" s="357"/>
+      <c r="I86" s="357"/>
+      <c r="J86" s="357"/>
+      <c r="K86" s="357"/>
+      <c r="L86" s="357"/>
+      <c r="M86" s="358"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="52" t="s">
@@ -18431,17 +18431,17 @@
       <c r="D87" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="357" t="s">
+      <c r="E87" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="358"/>
-      <c r="G87" s="358"/>
-      <c r="H87" s="358"/>
-      <c r="I87" s="358"/>
-      <c r="J87" s="358"/>
-      <c r="K87" s="358"/>
-      <c r="L87" s="358"/>
-      <c r="M87" s="359"/>
+      <c r="F87" s="345"/>
+      <c r="G87" s="345"/>
+      <c r="H87" s="345"/>
+      <c r="I87" s="345"/>
+      <c r="J87" s="345"/>
+      <c r="K87" s="345"/>
+      <c r="L87" s="345"/>
+      <c r="M87" s="346"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
@@ -18466,10 +18466,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="243" t="s">
+      <c r="C89" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="245"/>
+      <c r="D89" s="248"/>
       <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -18759,10 +18759,10 @@
       <c r="B105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="243" t="s">
+      <c r="C105" s="246" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="245"/>
+      <c r="D105" s="248"/>
       <c r="E105" s="56"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -18852,10 +18852,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="243" t="s">
+      <c r="C110" s="246" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="245"/>
+      <c r="D110" s="248"/>
       <c r="E110" s="59"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
@@ -18869,10 +18869,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="243" t="s">
+      <c r="C111" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="245"/>
+      <c r="D111" s="248"/>
       <c r="E111" s="59"/>
       <c r="F111" s="60"/>
       <c r="G111" s="60"/>
@@ -19217,10 +19217,10 @@
       <c r="B129" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="243" t="s">
+      <c r="C129" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="245"/>
+      <c r="D129" s="248"/>
       <c r="E129" s="56"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -19310,10 +19310,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="243" t="s">
+      <c r="C134" s="246" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="245"/>
+      <c r="D134" s="248"/>
       <c r="E134" s="59"/>
       <c r="F134" s="60"/>
       <c r="G134" s="60"/>
@@ -19327,10 +19327,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="243" t="s">
+      <c r="C135" s="246" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="245"/>
+      <c r="D135" s="248"/>
       <c r="E135" s="59"/>
       <c r="F135" s="60"/>
       <c r="G135" s="60"/>
@@ -19344,10 +19344,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="243" t="s">
+      <c r="C136" s="246" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="245"/>
+      <c r="D136" s="248"/>
       <c r="E136" s="59"/>
       <c r="F136" s="60"/>
       <c r="G136" s="60"/>
@@ -19654,10 +19654,10 @@
       <c r="B152" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="243" t="s">
+      <c r="C152" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="245"/>
+      <c r="D152" s="248"/>
       <c r="E152" s="59"/>
       <c r="F152" s="60"/>
       <c r="G152" s="60"/>
@@ -19978,10 +19978,10 @@
       <c r="B170" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="243" t="s">
+      <c r="C170" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="245"/>
+      <c r="D170" s="248"/>
       <c r="E170" s="59"/>
       <c r="F170" s="60"/>
       <c r="G170" s="60"/>
@@ -20269,10 +20269,10 @@
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="243" t="s">
+      <c r="C185" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="245"/>
+      <c r="D185" s="248"/>
       <c r="E185" s="56"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -20348,10 +20348,10 @@
       <c r="B189" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="243" t="s">
+      <c r="C189" s="246" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="245"/>
+      <c r="D189" s="248"/>
       <c r="E189" s="56"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -20998,10 +20998,10 @@
       <c r="B228" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="243" t="s">
+      <c r="C228" s="246" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="244"/>
+      <c r="D228" s="247"/>
       <c r="E228" s="42"/>
       <c r="F228" s="44"/>
       <c r="G228" s="44"/>
@@ -21091,6 +21091,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="E87:M87"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="C185:D185"/>
@@ -21107,41 +21142,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="E87:M87"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>

--- a/ifrs-sme-model_with_hyperlink.xlsx
+++ b/ifrs-sme-model_with_hyperlink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB0363-8365-44C3-BA0A-F50F664DDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96BE570-DEFD-4BCA-A746-2C679FFBD0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="795" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2596,7 +2596,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3429,7 +3429,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -10665,74 +10664,74 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C38" s="240"/>
-      <c r="D38" s="400"/>
-      <c r="E38" s="400"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="400"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="241"/>
+      <c r="F38" s="241"/>
+      <c r="G38" s="241"/>
       <c r="H38" s="242"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C39" s="240"/>
-      <c r="D39" s="400"/>
-      <c r="E39" s="400"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="400"/>
+      <c r="D39" s="241"/>
+      <c r="E39" s="241"/>
+      <c r="F39" s="241"/>
+      <c r="G39" s="241"/>
       <c r="H39" s="242"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C40" s="240"/>
-      <c r="D40" s="400"/>
-      <c r="E40" s="400"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="400"/>
+      <c r="D40" s="241"/>
+      <c r="E40" s="241"/>
+      <c r="F40" s="241"/>
+      <c r="G40" s="241"/>
       <c r="H40" s="242"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C41" s="240"/>
-      <c r="D41" s="400"/>
-      <c r="E41" s="400"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="400"/>
+      <c r="D41" s="241"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
       <c r="H41" s="242"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C42" s="240"/>
-      <c r="D42" s="400"/>
-      <c r="E42" s="400"/>
-      <c r="F42" s="400"/>
-      <c r="G42" s="400"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="241"/>
       <c r="H42" s="242"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C43" s="240"/>
-      <c r="D43" s="400"/>
-      <c r="E43" s="400"/>
-      <c r="F43" s="400"/>
-      <c r="G43" s="400"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
       <c r="H43" s="242"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C44" s="240"/>
-      <c r="D44" s="400"/>
-      <c r="E44" s="400"/>
-      <c r="F44" s="400"/>
-      <c r="G44" s="400"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
       <c r="H44" s="242"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C45" s="240"/>
-      <c r="D45" s="400"/>
-      <c r="E45" s="400"/>
-      <c r="F45" s="400"/>
-      <c r="G45" s="400"/>
+      <c r="D45" s="241"/>
+      <c r="E45" s="241"/>
+      <c r="F45" s="241"/>
+      <c r="G45" s="241"/>
       <c r="H45" s="242"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C46" s="240"/>
-      <c r="D46" s="400"/>
-      <c r="E46" s="400"/>
-      <c r="F46" s="400"/>
-      <c r="G46" s="400"/>
+      <c r="D46" s="241"/>
+      <c r="E46" s="241"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="241"/>
       <c r="H46" s="242"/>
     </row>
     <row r="47" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
